--- a/语法总结.xlsx
+++ b/语法总结.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10230" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10230" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="系动词" sheetId="1" r:id="rId1"/>
     <sheet name="倍数表达" sheetId="7" r:id="rId2"/>
-    <sheet name="可数与不可数" sheetId="8" r:id="rId3"/>
-    <sheet name="of" sheetId="3" r:id="rId4"/>
-    <sheet name="To" sheetId="2" r:id="rId5"/>
-    <sheet name="连词副词介词" sheetId="5" r:id="rId6"/>
+    <sheet name="动名词" sheetId="9" r:id="rId3"/>
+    <sheet name="可数与不可数" sheetId="8" r:id="rId4"/>
+    <sheet name="of" sheetId="3" r:id="rId5"/>
+    <sheet name="To" sheetId="2" r:id="rId6"/>
+    <sheet name="连词副词介词" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="363">
   <si>
     <t xml:space="preserve">状态系动词 </t>
   </si>
@@ -2208,6 +2209,176 @@
   </si>
   <si>
     <t>it --指具体事物</t>
+  </si>
+  <si>
+    <t>格式</t>
+  </si>
+  <si>
+    <t>The apples are three times the weight of the pears</t>
+  </si>
+  <si>
+    <t>1. N times Nouns(质量，状态) of Nouns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. N times as adj/adv as </t>
+  </si>
+  <si>
+    <t>The room is twice as wide as that one</t>
+  </si>
+  <si>
+    <t>3. N times + nouns + (形容，副词)的比较级 than</t>
+  </si>
+  <si>
+    <t>Australia had 15 times sheep more than it had people</t>
+  </si>
+  <si>
+    <t>4. increase/decrease N times/fold</t>
+  </si>
+  <si>
+    <t>4. increase/decrease N / double/triple</t>
+  </si>
+  <si>
+    <t>含义</t>
+  </si>
+  <si>
+    <t>5. increase/decrease by N times/fold</t>
+  </si>
+  <si>
+    <t>5. increase/decrease by  N / double/triple</t>
+  </si>
+  <si>
+    <t>增加了 N倍（N=4, 1 +4—&gt;5）</t>
+  </si>
+  <si>
+    <t>增加了N-1倍 , 增加到 N倍（N=4, 1 +3—&gt;4）</t>
+  </si>
+  <si>
+    <t>Such</t>
+  </si>
+  <si>
+    <t>So</t>
+  </si>
+  <si>
+    <t>修饰名词</t>
+  </si>
+  <si>
+    <t>修饰形容词</t>
+  </si>
+  <si>
+    <t>+可数单数, 需加 a, an, the</t>
+  </si>
+  <si>
+    <t>such a book</t>
+  </si>
+  <si>
+    <t>有no 是，可省略</t>
+  </si>
+  <si>
+    <t>I have no such book.
+~= I don't have such a book</t>
+  </si>
+  <si>
+    <t>few, many,little,much</t>
+  </si>
+  <si>
+    <t>He is such a clever boy</t>
+  </si>
+  <si>
+    <t>He is  so  clever a boy</t>
+  </si>
+  <si>
+    <t>单数(形容词在后，不定冠词在前)</t>
+  </si>
+  <si>
+    <t>so many people</t>
+  </si>
+  <si>
+    <t>单数(不定冠词在前，形容词在后)，
+复数，不可数</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>yet</t>
+  </si>
+  <si>
+    <t>1. 用于否定及疑问句表示 仍，还，尚，已经, 必须有否定词或者否定含义的词</t>
+  </si>
+  <si>
+    <t>Have you heard from him yet</t>
+  </si>
+  <si>
+    <t>--完成式 疑问句</t>
+  </si>
+  <si>
+    <t>--一般式 疑问句</t>
+  </si>
+  <si>
+    <t>Is the tea cold yet</t>
+  </si>
+  <si>
+    <t>not…yet  也不</t>
+  </si>
+  <si>
+    <t>2. 口语表示 还，仍然</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>She is yet a child</t>
+  </si>
+  <si>
+    <t>you must work yet harder</t>
+  </si>
+  <si>
+    <t>3. yet +比较级 / once more/ again:  更， 再，甚至</t>
+  </si>
+  <si>
+    <t>4. yet + 最高级  到目前为止最</t>
+  </si>
+  <si>
+    <t>This is the biggest lake yet discovered</t>
+  </si>
+  <si>
+    <t>5. 陈述表将来, 还是</t>
+  </si>
+  <si>
+    <t>He will win yet ； 他还是会赢的</t>
+  </si>
+  <si>
+    <t>although</t>
+  </si>
+  <si>
+    <t>He work harder, yet he failed</t>
+  </si>
+  <si>
+    <t>5. 连词， 可是，然而，尽管，但</t>
+  </si>
+  <si>
+    <t>6. as yet 到那时，迄今</t>
+  </si>
+  <si>
+    <t>从句句首</t>
+  </si>
+  <si>
+    <t>句首，通常有逗号分隔</t>
+  </si>
+  <si>
+    <t>As yet, he had not become famous.</t>
+  </si>
+  <si>
+    <t>--not…nor yet   也不</t>
+  </si>
+  <si>
+    <t>I don't hit it nor yet that我还没有击中它</t>
+  </si>
+  <si>
+    <t>在句尾</t>
+  </si>
+  <si>
+    <t>7. have yet to do  还没有， 尚得，还需要去</t>
   </si>
 </sst>
 </file>
@@ -2310,7 +2481,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2318,12 +2489,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2384,7 +2635,43 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2871,6 +3158,92 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="48.42578125" customWidth="1"/>
+    <col min="3" max="3" width="60.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B9" s="23"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>318</v>
+      </c>
+      <c r="B12" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B11:B12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2881,11 +3254,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -2942,7 +3315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -3159,7 +3532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C82"/>
   <sheetViews>
@@ -3825,22 +4198,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomRight" activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="41" style="5" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" style="5" customWidth="1"/>
     <col min="4" max="4" width="30" style="5" customWidth="1"/>
     <col min="5" max="5" width="110.140625" style="5" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="5"/>
@@ -3952,7 +4325,7 @@
       <c r="B19" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="22" t="s">
         <v>296</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -3966,7 +4339,7 @@
       <c r="B20" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="C20" s="21"/>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5" t="s">
@@ -3975,7 +4348,7 @@
       <c r="B21" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C21" s="21"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="5" t="s">
         <v>292</v>
       </c>
@@ -3987,7 +4360,7 @@
       <c r="B22" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="5" t="s">
         <v>293</v>
       </c>
@@ -4158,7 +4531,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:5">
       <c r="A49" s="5" t="s">
         <v>251</v>
       </c>
@@ -4166,9 +4539,194 @@
         <v>254</v>
       </c>
     </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="C51" s="27"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="28"/>
+      <c r="B52" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="30">
+      <c r="A53" s="28"/>
+      <c r="B53" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="30">
+      <c r="A54" s="28"/>
+      <c r="B54" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="C55" s="24"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="28"/>
+      <c r="B56" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="31"/>
+      <c r="B57" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="C57" s="33" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="30">
+      <c r="A62" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="21"/>
+      <c r="B63" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="21"/>
+      <c r="B64" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="21"/>
+      <c r="B65" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="21"/>
+      <c r="B66" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="21"/>
+      <c r="B67" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="21"/>
+      <c r="B68" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="21"/>
+      <c r="B69" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="21"/>
+      <c r="B70" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="21"/>
+      <c r="B71" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="21"/>
+      <c r="B72" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C19:C22"/>
+    <mergeCell ref="A62:A72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/语法总结.xlsx
+++ b/语法总结.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10230" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10230" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="系动词" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="可数与不可数" sheetId="8" r:id="rId4"/>
     <sheet name="of" sheetId="3" r:id="rId5"/>
     <sheet name="To" sheetId="2" r:id="rId6"/>
-    <sheet name="连词副词介词" sheetId="5" r:id="rId7"/>
+    <sheet name="词汇解析" sheetId="5" r:id="rId7"/>
+    <sheet name="介词" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="430">
   <si>
     <t xml:space="preserve">状态系动词 </t>
   </si>
@@ -2181,7 +2182,7 @@
 是一种代替（先行词+that） 的从句引导词</t>
   </si>
   <si>
-    <t>不可数事物的代词</t>
+    <t>不可数</t>
   </si>
   <si>
     <t>that</t>
@@ -2379,13 +2380,219 @@
   </si>
   <si>
     <t>7. have yet to do  还没有， 尚得，还需要去</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>worthy</t>
+  </si>
+  <si>
+    <t>adj，但用法接近 prep后课直接接名词</t>
+  </si>
+  <si>
+    <t>a lot of money</t>
+  </si>
+  <si>
+    <t>worth + 金钱数
+值多少钱   be worth a packet</t>
+  </si>
+  <si>
+    <t>1. 值多少钱</t>
+  </si>
+  <si>
+    <t>2. 值得，有价值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worth sth/ doing sth </t>
+  </si>
+  <si>
+    <t>worth a visit / worth condering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xxx(金额，时间) worth of sth </t>
+  </si>
+  <si>
+    <t>ten pounds worth of book ,  价值10pounds的书
+three years' worth of research money， 能用3年的经费</t>
+  </si>
+  <si>
+    <t>n. 做名词时， 价值xx的东西， 能持续的时间</t>
+  </si>
+  <si>
+    <t>worthy of sth/sb</t>
+  </si>
+  <si>
+    <t>worthy of attention 值得关注
+worthy of sb 典型的某人的风格</t>
+  </si>
+  <si>
+    <t>worthwhile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adj 值得做 </t>
+  </si>
+  <si>
+    <t>adj. 值得的</t>
+  </si>
+  <si>
+    <t>worthwhile to do</t>
+  </si>
+  <si>
+    <t>值得做</t>
+  </si>
+  <si>
+    <t>代词</t>
+  </si>
+  <si>
+    <t>修饰词</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>few</t>
+  </si>
+  <si>
+    <t>a little</t>
+  </si>
+  <si>
+    <t>a few</t>
+  </si>
+  <si>
+    <t>a good deal of</t>
+  </si>
+  <si>
+    <t>a weath of</t>
+  </si>
+  <si>
+    <t>a number of</t>
+  </si>
+  <si>
+    <t>a good many</t>
+  </si>
+  <si>
+    <t>Stop sb doing</t>
+  </si>
+  <si>
+    <t>stop sb doing 中 ving不是现在分词做定语，而是 动名词 ~= stop sb from doing
+且只可用于 主动句，被动语态不可以使用</t>
+  </si>
+  <si>
+    <t>prevent ； keep</t>
+  </si>
+  <si>
+    <t>stop car driving other animals to extraction</t>
+  </si>
+  <si>
+    <t>逻辑主语</t>
+  </si>
+  <si>
+    <t>1.名词所有格形式</t>
+  </si>
+  <si>
+    <t>2.普通格</t>
+  </si>
+  <si>
+    <t>a.做句子主语或有生命物体时</t>
+  </si>
+  <si>
+    <t>a.做句子宾语时，所有格和普格都可</t>
+  </si>
+  <si>
+    <t>b. 无生命物体与抽象物体</t>
+  </si>
+  <si>
+    <t>c. 复数与多数词组</t>
+  </si>
+  <si>
+    <t>d. 数词， 不定代词</t>
+  </si>
+  <si>
+    <t>that， this，anybody，nobody</t>
+  </si>
+  <si>
+    <t>只可接动名词的动词（其实动词都可接介词，以满足介词+动名词的条件）</t>
+  </si>
+  <si>
+    <t>享受，考虑，逃离不可免</t>
+  </si>
+  <si>
+    <t>enjoy，consider，escape from，avoid</t>
+  </si>
+  <si>
+    <t>停止，放弃，太冒险</t>
+  </si>
+  <si>
+    <t>反对，想象，莫拖延</t>
+  </si>
+  <si>
+    <t>需求，完成，是盼望</t>
+  </si>
+  <si>
+    <t>多建议，继续，勤联系</t>
+  </si>
+  <si>
+    <t>不禁，原谅，要坚持</t>
+  </si>
+  <si>
+    <t>stop，give up, risk to</t>
+  </si>
+  <si>
+    <t>mine, image, delay, put off</t>
+  </si>
+  <si>
+    <t>require, finish, look forward to</t>
+  </si>
+  <si>
+    <t>suggest, go on, practise</t>
+  </si>
+  <si>
+    <t>can't help , execuse, insist on</t>
+  </si>
+  <si>
+    <t>注意，最终，使人成功</t>
+  </si>
+  <si>
+    <t>mind ,end up，  succeed in</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>scores of</t>
+  </si>
+  <si>
+    <t>dozens of</t>
+  </si>
+  <si>
+    <t>&lt;--本身这些词都是可数名词</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>不可数名词+ 动词复数</t>
+  </si>
+  <si>
+    <t>不可数名词+ 动词单三</t>
+  </si>
+  <si>
+    <t xml:space="preserve">an amount、quantity of </t>
+  </si>
+  <si>
+    <t>large amounts、quantities of</t>
+  </si>
+  <si>
+    <t>a lot of, plenty of , a load of, a bunch of， loads of， tons of , piles of, a multitude of大批的
+都是集合名词，所以都可以</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2396,6 +2603,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2572,18 +2787,21 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2601,7 +2819,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -2616,16 +2834,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2634,11 +2849,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2672,6 +2893,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2962,194 +3190,194 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="55" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="48" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="5"/>
-    <col min="6" max="6" width="101.7109375" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="20.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="55" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="48" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="6"/>
+    <col min="6" max="6" width="101.7109375" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="109.5" customHeight="1">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="67.5" customHeight="1">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="F11" s="3"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="F13" s="2"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="45">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="F18" s="3"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="165">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="3"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="F20" s="4"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="F21" s="2"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="F22" s="3"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="F23" s="3"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="F24" s="3"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="F25" s="3"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="F26" s="3"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="F27" s="2"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="F28" s="3"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="F29" s="3"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="F30" s="3"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="F31" s="3"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="F32" s="2"/>
+      <c r="F32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3209,7 +3437,7 @@
       <c r="A8" t="s">
         <v>314</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="25" t="s">
         <v>320</v>
       </c>
     </row>
@@ -3217,13 +3445,13 @@
       <c r="A9" t="s">
         <v>315</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="25"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>317</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="25" t="s">
         <v>319</v>
       </c>
     </row>
@@ -3231,7 +3459,7 @@
       <c r="A12" t="s">
         <v>318</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3244,73 +3472,295 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.140625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="B1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="C3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="C5" t="s">
+        <v>403</v>
+      </c>
+      <c r="D5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="36" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="36" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="36" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="36" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="36" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="36" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="36" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="36" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>419</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="37" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="19.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="B1" s="38" t="s">
         <v>297</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38" t="s">
         <v>299</v>
       </c>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="10" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="B3" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="10" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="D4" t="s">
+      <c r="D4" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="10" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="E5" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
         <v>305</v>
       </c>
     </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="37" t="s">
+        <v>383</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="1:5" ht="30">
+      <c r="B9" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="E9" s="23"/>
+    </row>
+    <row r="10" spans="1:5" ht="30">
+      <c r="B10" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="E11" s="23"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="D13" s="10"/>
+      <c r="E13" s="23"/>
+    </row>
+    <row r="14" spans="1:5" ht="40.5" customHeight="1">
+      <c r="B14" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="E6:E13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3325,205 +3775,205 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="30.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="10" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3536,660 +3986,660 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="52.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="74" style="14" customWidth="1"/>
-    <col min="2" max="2" width="52.42578125" style="14"/>
-    <col min="3" max="3" width="70.7109375" style="14" customWidth="1"/>
-    <col min="4" max="16384" width="52.42578125" style="14"/>
+    <col min="1" max="1" width="74" style="15" customWidth="1"/>
+    <col min="2" max="2" width="52.42578125" style="15"/>
+    <col min="3" max="3" width="70.7109375" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="52.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27.75">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="40.5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="45">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="60">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="27.75">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="25.5">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="16" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="16" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="17" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="45">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:3" ht="30">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="15" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="38.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="15" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="16" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="25.5">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="60">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="15" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="15" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="25.5">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="60">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="15" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="38.25">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="15" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="25.5">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="15" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="15"/>
-      <c r="B32" s="14" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="15" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="25.5">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="15" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="25.5">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="15" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="15" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="25.5">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="15" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="25.5">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="15" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="15" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="45">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="15" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="25.5">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="16" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="30">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="15" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="15" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="15" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="15" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="17" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="16" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="15" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="20" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="15" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="15" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="15" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="15" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="15" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="15" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="20" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="15" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="20" t="s">
+      <c r="A60" s="21" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="20" t="s">
+      <c r="A61" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="15" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="20" t="s">
+      <c r="A62" s="21" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="20" t="s">
+      <c r="A63" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="15" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="19" t="s">
+      <c r="A64" s="20" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="20" t="s">
+      <c r="A65" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="15" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="20" t="s">
+      <c r="A66" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="15" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="20" t="s">
+      <c r="A67" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="15" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="20" t="s">
+      <c r="A68" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="15" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="20" t="s">
+      <c r="A69" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="15" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="20" t="s">
+      <c r="A70" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="15" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="20" t="s">
+      <c r="A71" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="15" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="20" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="20" t="s">
+      <c r="A73" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="20" t="s">
+      <c r="A74" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="15" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="20" t="s">
+      <c r="A75" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="15" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="20" t="s">
+      <c r="A76" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="15" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="20" t="s">
+      <c r="A77" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="15" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="20" t="s">
+      <c r="A78" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="15" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="19" t="s">
+      <c r="A79" s="20" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="20" t="s">
+      <c r="A80" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="15" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="20" t="s">
+      <c r="A81" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="15" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="20" t="s">
+      <c r="A82" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="15" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4200,534 +4650,629 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B73" sqref="B73"/>
+      <selection pane="bottomRight" activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="52.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="30" style="5" customWidth="1"/>
-    <col min="5" max="5" width="110.140625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="21.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="54.28515625" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C20" s="22"/>
+      <c r="C20" s="23"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="5" t="s">
+      <c r="C21" s="23"/>
+      <c r="D21" s="6" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="23"/>
+      <c r="D22" s="6" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="6" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="6" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="75">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="6" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="6" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="6" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="6" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="6" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="6" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="6" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="7" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="60">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="6" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="60">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="6" t="s">
         <v>243</v>
       </c>
     </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30">
+      <c r="B43" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="5" t="s">
+      <c r="B44" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="30">
+      <c r="B45" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="30">
+      <c r="A47" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="6" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="5" t="s">
+    <row r="56" spans="1:5">
+      <c r="A56" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C56" s="6" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="5" t="s">
+    <row r="57" spans="1:5">
+      <c r="A57" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C57" s="6" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="5" t="s">
+    <row r="59" spans="1:5">
+      <c r="A59" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C59" s="6" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="5" t="s">
+    <row r="60" spans="1:5">
+      <c r="A60" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C60" s="6" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="25" t="s">
+    <row r="62" spans="1:5">
+      <c r="A62" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B62" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="C51" s="27"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="28"/>
-      <c r="B52" s="29" t="s">
+      <c r="C62" s="29"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="30"/>
+      <c r="B63" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C63" s="26" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="30">
-      <c r="A53" s="28"/>
-      <c r="B53" s="30" t="s">
+    <row r="64" spans="1:5" ht="30">
+      <c r="A64" s="30"/>
+      <c r="B64" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C64" s="26" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="30">
-      <c r="A54" s="28"/>
-      <c r="B54" s="30" t="s">
+    <row r="65" spans="1:5" ht="30">
+      <c r="A65" s="30"/>
+      <c r="B65" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C65" s="26" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="28" t="s">
+    <row r="66" spans="1:5">
+      <c r="A66" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="B66" s="32" t="s">
         <v>324</v>
       </c>
-      <c r="C55" s="24"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="28"/>
-      <c r="B56" s="30" t="s">
+      <c r="C66" s="26"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="30"/>
+      <c r="B67" s="32" t="s">
         <v>329</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C67" s="26" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="31"/>
-      <c r="B57" s="32" t="s">
+    <row r="68" spans="1:5">
+      <c r="A68" s="33"/>
+      <c r="B68" s="34" t="s">
         <v>332</v>
       </c>
-      <c r="C57" s="33" t="s">
+      <c r="C68" s="35" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="5" t="s">
+    <row r="70" spans="1:5" ht="45">
+      <c r="A70" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A77" s="6" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="30">
-      <c r="A62" s="21" t="s">
+    <row r="79" spans="1:5" ht="30">
+      <c r="A79" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B79" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C79" s="6" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="21"/>
-      <c r="B63" s="6" t="s">
+    <row r="80" spans="1:5">
+      <c r="A80" s="23"/>
+      <c r="B80" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E80" s="6" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="21"/>
-      <c r="B64" s="6" t="s">
+    <row r="81" spans="1:5">
+      <c r="A81" s="23"/>
+      <c r="B81" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E81" s="6" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="21"/>
-      <c r="B65" s="5" t="s">
+    <row r="82" spans="1:5">
+      <c r="A82" s="23"/>
+      <c r="B82" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D82" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E82" s="6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="21"/>
-      <c r="B66" s="5" t="s">
+    <row r="83" spans="1:5">
+      <c r="A83" s="23"/>
+      <c r="B83" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D83" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E83" s="6" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="21"/>
-      <c r="B67" s="5" t="s">
+    <row r="84" spans="1:5">
+      <c r="A84" s="23"/>
+      <c r="B84" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E84" s="6" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="21"/>
-      <c r="B68" s="5" t="s">
+    <row r="85" spans="1:5">
+      <c r="A85" s="23"/>
+      <c r="B85" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E85" s="6" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="21"/>
-      <c r="B69" s="5" t="s">
+    <row r="86" spans="1:5">
+      <c r="A86" s="23"/>
+      <c r="B86" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C86" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D86" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E86" s="6" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="21"/>
-      <c r="B70" s="5" t="s">
+    <row r="87" spans="1:5">
+      <c r="A87" s="23"/>
+      <c r="B87" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C87" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E87" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="21"/>
-      <c r="B71" s="6" t="s">
+    <row r="88" spans="1:5">
+      <c r="A88" s="23"/>
+      <c r="B88" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C88" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E88" s="6" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="21"/>
-      <c r="B72" s="5" t="s">
+    <row r="89" spans="1:5">
+      <c r="A89" s="23"/>
+      <c r="B89" s="6" t="s">
         <v>362</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C19:C22"/>
-    <mergeCell ref="A62:A72"/>
+    <mergeCell ref="A79:A89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/语法总结.xlsx
+++ b/语法总结.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10230" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10230" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="系动词" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="458">
   <si>
     <t xml:space="preserve">状态系动词 </t>
   </si>
@@ -2586,6 +2586,168 @@
   <si>
     <t>a lot of, plenty of , a load of, a bunch of， loads of， tons of , piles of, a multitude of大批的
 都是集合名词，所以都可以</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in </t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>段时刻；年月 季节上下午 （一整天不可用具体日期）
+in 2010/March/spring/the morning</t>
+  </si>
+  <si>
+    <t>点时刻， 小时，时刻，节日
+at 7 oclokc/midnigh/dawn/breakfast</t>
+  </si>
+  <si>
+    <t>特定日期， 周,日，节日，特定日期上下午
+On Monday/April 5/Christams Eve/a cold night/Friday morning</t>
+  </si>
+  <si>
+    <t>地点</t>
+  </si>
+  <si>
+    <t>表示“在...之中”、“在....之内”，也有表示“在....范围内
+用于大范围
+例句：
+Beijing lies in the north of China.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“at”用于表示在小地方：学校，家
+在...附近，在...旁边，笼统地指“在这个地方”，包括里面以及周围
+at school, at home
+He is not at school, but he is at home.他不在学校，但在家里。
+</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>只表示到正点的分钟数 20mins to 7 o'clock 还有20分钟到7点</t>
+  </si>
+  <si>
+    <r>
+      <t>用于表示某地在某一特定区域外，但两地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>相互 不  接壤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+例句：
+Beijing lies to the north of Fujian. 北京在福建的北边</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>用于表示某地在某地在某一特定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>区域外</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，
+但两地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>相互接壤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的某一方位
+Guangdong is on the south of Hunan. 广东在湖南的南边。</t>
+    </r>
+  </si>
+  <si>
+    <t>交通工具中</t>
+  </si>
+  <si>
+    <t>不能起身的用in =， car</t>
+  </si>
+  <si>
+    <t>能够站立的用on， bus, plane</t>
+  </si>
+  <si>
+    <t>over</t>
+  </si>
+  <si>
+    <t>above</t>
+  </si>
+  <si>
+    <t>方位关系</t>
+  </si>
+  <si>
+    <t>强调垂直上方或完全覆盖</t>
+  </si>
+  <si>
+    <t>对应关系</t>
+  </si>
+  <si>
+    <t>强调有接触，在物体表面</t>
+  </si>
+  <si>
+    <t>under</t>
+  </si>
+  <si>
+    <t>强调垂直下方或完全被覆盖</t>
+  </si>
+  <si>
+    <t>below</t>
+  </si>
+  <si>
+    <t>强调在物体上方位置，但无接触</t>
+  </si>
+  <si>
+    <t>强调在物体下方位置，但无接触</t>
   </si>
 </sst>
 </file>
@@ -2789,7 +2951,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2900,6 +3062,39 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3606,8 +3801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5267,12 +5462,145 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="28" style="15" customWidth="1"/>
+    <col min="3" max="3" width="31" style="15" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" style="15" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="39"/>
+      <c r="B1" s="48" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>431</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>432</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="84" customHeight="1">
+      <c r="A2" s="42" t="s">
+        <v>433</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>434</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>435</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>436</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="135">
+      <c r="A3" s="42" t="s">
+        <v>437</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>438</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>439</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>443</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="45" t="s">
+        <v>444</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>445</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46" t="s">
+        <v>446</v>
+      </c>
+      <c r="E4" s="47"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="39"/>
+      <c r="B7" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>447</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="42" t="s">
+        <v>449</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>452</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>450</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="42"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="44"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="42"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="42" t="s">
+        <v>451</v>
+      </c>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43" t="s">
+        <v>453</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="45"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46" t="s">
+        <v>454</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>457</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/语法总结.xlsx
+++ b/语法总结.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10230" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10230" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="系动词" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="468">
   <si>
     <t xml:space="preserve">状态系动词 </t>
   </si>
@@ -2151,12 +2151,6 @@
     <t>anything that</t>
   </si>
   <si>
-    <t>无论什么</t>
-  </si>
-  <si>
-    <t>无论如何</t>
-  </si>
-  <si>
     <t>无论是谁</t>
   </si>
   <si>
@@ -2401,9 +2395,6 @@
     <t>1. 值多少钱</t>
   </si>
   <si>
-    <t>2. 值得，有价值</t>
-  </si>
-  <si>
     <t xml:space="preserve">worth sth/ doing sth </t>
   </si>
   <si>
@@ -2418,9 +2409,6 @@
   </si>
   <si>
     <t>n. 做名词时， 价值xx的东西， 能持续的时间</t>
-  </si>
-  <si>
-    <t>worthy of sth/sb</t>
   </si>
   <si>
     <t>worthy of attention 值得关注
@@ -2748,6 +2736,50 @@
   </si>
   <si>
     <t>强调在物体下方位置，但无接触</t>
+  </si>
+  <si>
+    <t>be worthy of sth/sb/(doing sth)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be worthy to do </t>
+  </si>
+  <si>
+    <t>2. 值得，有价值被。。 -- 主动表被动</t>
+  </si>
+  <si>
+    <t>动词格式</t>
+  </si>
+  <si>
+    <t>单三</t>
+  </si>
+  <si>
+    <t>原型</t>
+  </si>
+  <si>
+    <t>分数或百分数的</t>
+  </si>
+  <si>
+    <t>单，复，不可数取决于 of后名词</t>
+  </si>
+  <si>
+    <t>无论什么，连接代词</t>
+  </si>
+  <si>
+    <t>无论如何，连接副词</t>
+  </si>
+  <si>
+    <t>状语</t>
+  </si>
+  <si>
+    <t>不定式，动名词，短语作主语时</t>
+  </si>
+  <si>
+    <t>多个形式表达不同事情</t>
+  </si>
+  <si>
+    <t>单个主语
+或 
+多个形式表达一件事情</t>
   </si>
 </sst>
 </file>
@@ -3014,18 +3046,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3057,12 +3077,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3095,6 +3109,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3595,10 +3627,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C1" t="s">
         <v>235</v>
@@ -3606,55 +3638,55 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>314</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>320</v>
+        <v>312</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>315</v>
-      </c>
-      <c r="B9" s="25"/>
+        <v>313</v>
+      </c>
+      <c r="B9" s="44"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>315</v>
+      </c>
+      <c r="B11" s="44" t="s">
         <v>317</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>318</v>
-      </c>
-      <c r="B12" s="25"/>
+        <v>316</v>
+      </c>
+      <c r="B12" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3675,121 +3707,121 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="32" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="3" max="3" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="36" t="s">
-        <v>396</v>
+      <c r="A1" s="32" t="s">
+        <v>392</v>
       </c>
       <c r="B1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="C3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="C4" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="C5" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D5" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="36" t="s">
-        <v>405</v>
+      <c r="A7" s="32" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="B8" s="36" t="s">
-        <v>406</v>
+      <c r="B8" s="32" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10" s="36" t="s">
-        <v>408</v>
+      <c r="B10" s="32" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="B12" s="36" t="s">
-        <v>409</v>
+      <c r="B12" s="32" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="B14" s="36" t="s">
-        <v>410</v>
+      <c r="B14" s="32" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="B16" s="36" t="s">
-        <v>411</v>
+      <c r="B16" s="32" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="36" t="s">
-        <v>412</v>
+      <c r="B18" s="32" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="36" t="s">
-        <v>418</v>
+      <c r="B20" s="32" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -3799,15 +3831,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="37" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="49" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="2" customWidth="1"/>
     <col min="3" max="4" width="19.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
@@ -3815,146 +3847,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45" t="s">
         <v>297</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38" t="s">
-        <v>299</v>
-      </c>
-      <c r="E1" s="38"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="37" t="s">
-        <v>382</v>
+      <c r="A2" s="49" t="s">
+        <v>378</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>300</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="D4" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="37" t="s">
-        <v>383</v>
+      <c r="A6" s="49" t="s">
+        <v>379</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>423</v>
+        <v>381</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="E7" s="23"/>
+        <v>383</v>
+      </c>
+      <c r="E7" s="48"/>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="E8" s="23"/>
+        <v>386</v>
+      </c>
+      <c r="E8" s="48"/>
     </row>
     <row r="9" spans="1:5" ht="30">
       <c r="B9" s="6" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="E9" s="23"/>
+        <v>387</v>
+      </c>
+      <c r="E9" s="48"/>
     </row>
     <row r="10" spans="1:5" ht="30">
       <c r="B10" s="6" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="E10" s="23"/>
+        <v>416</v>
+      </c>
+      <c r="E10" s="48"/>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="E11" s="23"/>
+        <v>417</v>
+      </c>
+      <c r="E11" s="48"/>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="E12" s="23"/>
+        <v>418</v>
+      </c>
+      <c r="E12" s="48"/>
     </row>
     <row r="13" spans="1:5">
       <c r="D13" s="10"/>
-      <c r="E13" s="23"/>
+      <c r="E13" s="48"/>
     </row>
     <row r="14" spans="1:5" ht="40.5" customHeight="1">
-      <c r="B14" s="22" t="s">
-        <v>429</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="B14" s="46" t="s">
+        <v>425</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="49" t="s">
+        <v>457</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="49" t="s">
+        <v>460</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>461</v>
+      </c>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+    </row>
+    <row r="22" spans="1:5" ht="60">
+      <c r="A22" s="49" t="s">
+        <v>465</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>466</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="E6:E13"/>
+    <mergeCell ref="B19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4193,17 +4262,17 @@
     <col min="4" max="16384" width="52.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.75">
+    <row r="1" spans="1:3">
       <c r="A1" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="40.5">
+    <row r="2" spans="1:3" ht="27.75">
       <c r="A2" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30">
+    <row r="3" spans="1:3">
       <c r="A3" s="15" t="s">
         <v>34</v>
       </c>
@@ -4229,7 +4298,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="60">
+    <row r="8" spans="1:3" ht="30">
       <c r="A8" s="15" t="s">
         <v>90</v>
       </c>
@@ -4262,7 +4331,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30">
+    <row r="11" spans="1:3">
       <c r="A11" s="15" t="s">
         <v>94</v>
       </c>
@@ -4275,7 +4344,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="25.5">
+    <row r="13" spans="1:3">
       <c r="A13" s="16" t="s">
         <v>102</v>
       </c>
@@ -4315,7 +4384,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="45">
+    <row r="19" spans="1:3" ht="30">
       <c r="A19" s="15" t="s">
         <v>104</v>
       </c>
@@ -4335,7 +4404,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="38.25">
+    <row r="21" spans="1:3" ht="25.5">
       <c r="A21" s="16" t="s">
         <v>107</v>
       </c>
@@ -4357,7 +4426,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="25.5">
+    <row r="23" spans="1:3">
       <c r="A23" s="16" t="s">
         <v>111</v>
       </c>
@@ -4414,7 +4483,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="60">
+    <row r="29" spans="1:3" ht="36">
       <c r="A29" s="17" t="s">
         <v>121</v>
       </c>
@@ -4425,7 +4494,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="38.25">
+    <row r="30" spans="1:3" ht="25.5">
       <c r="A30" s="18" t="s">
         <v>123</v>
       </c>
@@ -4453,7 +4522,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="25.5">
+    <row r="33" spans="1:3">
       <c r="A33" s="17" t="s">
         <v>127</v>
       </c>
@@ -4464,7 +4533,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="25.5">
+    <row r="34" spans="1:3">
       <c r="A34" s="17" t="s">
         <v>129</v>
       </c>
@@ -4486,7 +4555,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="25.5">
+    <row r="36" spans="1:3">
       <c r="A36" s="17" t="s">
         <v>134</v>
       </c>
@@ -4497,7 +4566,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="25.5">
+    <row r="37" spans="1:3">
       <c r="A37" s="17" t="s">
         <v>136</v>
       </c>
@@ -4530,7 +4599,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="25.5">
+    <row r="40" spans="1:3">
       <c r="A40" s="17" t="s">
         <v>142</v>
       </c>
@@ -4552,7 +4621,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30">
+    <row r="42" spans="1:3">
       <c r="A42" s="15" t="s">
         <v>147</v>
       </c>
@@ -4845,13 +4914,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B70" sqref="B70"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4968,10 +5037,10 @@
         <v>281</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>296</v>
+        <v>462</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>294</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>286</v>
@@ -4982,20 +5051,23 @@
         <v>282</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C20" s="23"/>
+        <v>463</v>
+      </c>
+      <c r="C20" s="48"/>
+      <c r="D20" s="6" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="6" t="s">
         <v>283</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C21" s="23"/>
+        <v>287</v>
+      </c>
+      <c r="C21" s="48"/>
       <c r="D21" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5003,11 +5075,11 @@
         <v>284</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="C22" s="23"/>
+        <v>288</v>
+      </c>
+      <c r="C22" s="48"/>
       <c r="D22" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5015,13 +5087,13 @@
         <v>285</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5040,7 +5112,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="75">
+    <row r="29" spans="1:5" ht="30">
       <c r="A29" s="6" t="s">
         <v>262</v>
       </c>
@@ -5059,7 +5131,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30">
+    <row r="32" spans="1:5" ht="45">
       <c r="A32" s="6" t="s">
         <v>267</v>
       </c>
@@ -5076,7 +5148,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30">
+    <row r="33" spans="1:5" ht="45">
       <c r="A33" s="6" t="s">
         <v>272</v>
       </c>
@@ -5149,247 +5221,261 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>363</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="30">
       <c r="B43" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="B44" s="6" t="s">
-        <v>369</v>
+        <v>456</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="30">
       <c r="B45" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="30">
+      <c r="A46" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="C47" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="30">
-      <c r="A47" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="E47" s="6" t="s">
+      <c r="C48" s="6" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="6" t="s">
+      <c r="E48" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>248</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C57" s="6" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="58" spans="1:3">
+      <c r="A58" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C60" s="6" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="27" t="s">
+    <row r="61" spans="1:3">
+      <c r="A61" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="B61" s="24" t="s">
         <v>321</v>
       </c>
-      <c r="B62" s="28" t="s">
+      <c r="C61" s="25"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="26"/>
+      <c r="B62" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="C62" s="29"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="30"/>
-      <c r="B63" s="31" t="s">
+      <c r="C62" s="22" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="30">
+      <c r="A63" s="26"/>
+      <c r="B63" s="28" t="s">
         <v>325</v>
       </c>
-      <c r="C63" s="26" t="s">
+      <c r="C63" s="22" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="30">
-      <c r="A64" s="30"/>
-      <c r="B64" s="32" t="s">
+    <row r="64" spans="1:3" ht="30">
+      <c r="A64" s="26"/>
+      <c r="B64" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="B65" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="C65" s="22"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="26"/>
+      <c r="B66" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="C64" s="26" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="30">
-      <c r="A65" s="30"/>
-      <c r="B65" s="32" t="s">
+      <c r="C66" s="22" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="29"/>
+      <c r="B67" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="45">
+      <c r="A69" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A76" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="30">
+      <c r="A78" s="48" t="s">
         <v>334</v>
       </c>
-      <c r="C65" s="26" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="30" t="s">
-        <v>322</v>
-      </c>
-      <c r="B66" s="32" t="s">
-        <v>324</v>
-      </c>
-      <c r="C66" s="26"/>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="30"/>
-      <c r="B67" s="32" t="s">
-        <v>329</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="33"/>
-      <c r="B68" s="34" t="s">
-        <v>332</v>
-      </c>
-      <c r="C68" s="35" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="45">
-      <c r="A70" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A77" s="6" t="s">
+      <c r="B78" s="6" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="30">
-      <c r="A79" s="23" t="s">
+      <c r="C78" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="48"/>
+      <c r="B79" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E79" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B79" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="C79" s="6" t="s">
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="48"/>
+      <c r="B80" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="48"/>
+      <c r="B81" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="23"/>
-      <c r="B80" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="23"/>
-      <c r="B81" s="7" t="s">
-        <v>340</v>
-      </c>
       <c r="E81" s="6" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="23"/>
+      <c r="A82" s="48"/>
       <c r="B82" s="6" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D82" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E82" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="E82" s="6" t="s">
-        <v>345</v>
-      </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="23"/>
+      <c r="A83" s="48"/>
       <c r="B83" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="E83" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="D83" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>346</v>
-      </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="23"/>
+      <c r="A84" s="48"/>
       <c r="B84" s="6" t="s">
         <v>348</v>
       </c>
@@ -5398,8 +5484,14 @@
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="23"/>
+      <c r="A85" s="48"/>
       <c r="B85" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D85" s="6" t="s">
         <v>350</v>
       </c>
       <c r="E85" s="6" t="s">
@@ -5407,54 +5499,39 @@
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="23"/>
+      <c r="A86" s="48"/>
       <c r="B86" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C86" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="E86" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="D86" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>353</v>
-      </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="23"/>
-      <c r="B87" s="6" t="s">
-        <v>355</v>
+      <c r="A87" s="48"/>
+      <c r="B87" s="7" t="s">
+        <v>357</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="23"/>
-      <c r="B88" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="E88" s="6" t="s">
+      <c r="A88" s="48"/>
+      <c r="B88" s="6" t="s">
         <v>360</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="23"/>
-      <c r="B89" s="6" t="s">
-        <v>362</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C19:C22"/>
-    <mergeCell ref="A79:A89"/>
+    <mergeCell ref="A78:A88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5464,8 +5541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5479,125 +5556,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="39"/>
-      <c r="B1" s="48" t="s">
+      <c r="A1" s="33"/>
+      <c r="B1" s="42" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>427</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>428</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="84" customHeight="1">
+      <c r="A2" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>430</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C2" s="37" t="s">
         <v>431</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D2" s="37" t="s">
         <v>432</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E2" s="38" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="135">
+      <c r="A3" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>435</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="39" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="84" customHeight="1">
-      <c r="A2" s="42" t="s">
-        <v>433</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>434</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>435</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>436</v>
-      </c>
-      <c r="E2" s="44" t="s">
+      <c r="B4" s="40" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="135">
-      <c r="A3" s="42" t="s">
-        <v>437</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>438</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>439</v>
-      </c>
-      <c r="D3" s="43" t="s">
+      <c r="C4" s="40"/>
+      <c r="D4" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="E4" s="41"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="C7" s="34" t="s">
         <v>443</v>
       </c>
-      <c r="E3" s="44" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="45" t="s">
+      <c r="D7" s="35" t="s">
         <v>444</v>
       </c>
-      <c r="B4" s="46" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="36" t="s">
         <v>445</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46" t="s">
+      <c r="B8" s="37" t="s">
+        <v>448</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>446</v>
       </c>
-      <c r="E4" s="47"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40" t="s">
-        <v>432</v>
-      </c>
-      <c r="C7" s="40" t="s">
+      <c r="D8" s="38" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="36" t="s">
         <v>447</v>
       </c>
-      <c r="D7" s="41" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="42" t="s">
+      <c r="B11" s="37"/>
+      <c r="C11" s="37" t="s">
         <v>449</v>
       </c>
-      <c r="B8" s="43" t="s">
-        <v>452</v>
-      </c>
-      <c r="C8" s="43" t="s">
+      <c r="D11" s="38" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40" t="s">
         <v>450</v>
       </c>
-      <c r="D8" s="44" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="42"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="42"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="44"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="42" t="s">
-        <v>451</v>
-      </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43" t="s">
+      <c r="D12" s="41" t="s">
         <v>453</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="45"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46" t="s">
-        <v>454</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>457</v>
       </c>
     </row>
   </sheetData>

--- a/语法总结.xlsx
+++ b/语法总结.xlsx
@@ -9,17 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10230" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="2550" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="系动词" sheetId="1" r:id="rId1"/>
     <sheet name="倍数表达" sheetId="7" r:id="rId2"/>
     <sheet name="动名词" sheetId="9" r:id="rId3"/>
     <sheet name="可数与不可数" sheetId="8" r:id="rId4"/>
-    <sheet name="of" sheetId="3" r:id="rId5"/>
-    <sheet name="To" sheetId="2" r:id="rId6"/>
-    <sheet name="词汇解析" sheetId="5" r:id="rId7"/>
-    <sheet name="介词" sheetId="11" r:id="rId8"/>
+    <sheet name="主谓一致" sheetId="14" r:id="rId5"/>
+    <sheet name="of" sheetId="3" r:id="rId6"/>
+    <sheet name="To" sheetId="2" r:id="rId7"/>
+    <sheet name="词汇解析" sheetId="5" r:id="rId8"/>
+    <sheet name="固定搭配词组" sheetId="13" r:id="rId9"/>
+    <sheet name="句子联合的方式" sheetId="12" r:id="rId10"/>
+    <sheet name="介词" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="780">
   <si>
     <t xml:space="preserve">状态系动词 </t>
   </si>
@@ -1880,9 +1883,6 @@
     <t>and</t>
   </si>
   <si>
-    <t>Also</t>
-  </si>
-  <si>
     <t>位置用法</t>
   </si>
   <si>
@@ -2254,19 +2254,10 @@
     <t>So</t>
   </si>
   <si>
-    <t>修饰名词</t>
-  </si>
-  <si>
-    <t>修饰形容词</t>
-  </si>
-  <si>
     <t>+可数单数, 需加 a, an, the</t>
   </si>
   <si>
     <t>such a book</t>
-  </si>
-  <si>
-    <t>有no 是，可省略</t>
   </si>
   <si>
     <t>I have no such book.
@@ -2282,9 +2273,6 @@
     <t>He is  so  clever a boy</t>
   </si>
   <si>
-    <t>单数(形容词在后，不定冠词在前)</t>
-  </si>
-  <si>
     <t>so many people</t>
   </si>
   <si>
@@ -2552,9 +2540,6 @@
   </si>
   <si>
     <t>dozens of</t>
-  </si>
-  <si>
-    <t>&lt;--本身这些词都是可数名词</t>
   </si>
   <si>
     <t>much</t>
@@ -2781,12 +2766,1223 @@
 或 
 多个形式表达一件事情</t>
   </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>词</t>
+  </si>
+  <si>
+    <t>是否需要相应标点</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>连词--并列连词</t>
+  </si>
+  <si>
+    <t>副词--修饰句子（内包含逻辑与连接关系）</t>
+  </si>
+  <si>
+    <t>连词--从属连词</t>
+  </si>
+  <si>
+    <t>rise</t>
+  </si>
+  <si>
+    <t>raise</t>
+  </si>
+  <si>
+    <t>arise</t>
+  </si>
+  <si>
+    <t>arouse</t>
+  </si>
+  <si>
+    <r>
+      <t>例外1. John went for a walk because it was a nice day,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> not because</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> he wanted to get away from his family.
+约翰去散步是因为今天天气很好，而不是因为他想远离家人。
+例外2. 
+I didn’t go to Dan’s restaurant because of the steaks.
+因为牛排，我没有去丹的餐厅。
+解释1. 我确实去过丹的餐厅，但牛排并不是最重要的因素。他们很好，但还有别的东西吸引了我。有了这个意思，句子可以这样继续：
+I didn’t go to Dan’s restaurant because of the steaks, but because of the great selection of wines.
+我没有去丹的餐厅不是因为牛排，而是因为精选的葡萄酒。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>解释2. 如果原话中的实际意思是我没有去丹的餐厅，我没有去的原因是牛排很糟糕。用逗号将有助于澄清这一点 ：
+I didn’t go to Dan’s restaurant, because of the steaks.
+我没有去丹的餐厅，因为牛排的缘故。</t>
+    </r>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>https://www.sohu.com/a/492385795_120669796</t>
+  </si>
+  <si>
+    <t>FANBOYS</t>
+  </si>
+  <si>
+    <r>
+      <t>用于修饰两个独立子句中含有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>较弱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的转折与连接关系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，不能直接连接句子，需要有特定使用方式且位置较为灵活</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>情况1，连接句内成分表并列选择时，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不需要使用逗号分隔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+情况2， 并列连词连接两个句子时，需要连词前加逗号做分隔</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">情况1. The room was small </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t adequate.
+情况2. She left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ut I remained behind. </t>
+    </r>
+  </si>
+  <si>
+    <t>关系</t>
+  </si>
+  <si>
+    <t>结果</t>
+  </si>
+  <si>
+    <t>类比</t>
+  </si>
+  <si>
+    <t>相反对比</t>
+  </si>
+  <si>
+    <t>附属信息</t>
+  </si>
+  <si>
+    <t>解释说明</t>
+  </si>
+  <si>
+    <t>强调</t>
+  </si>
+  <si>
+    <t>条件</t>
+  </si>
+  <si>
+    <t>otherwise</t>
+  </si>
+  <si>
+    <t>indeed，in fact</t>
+  </si>
+  <si>
+    <t>nevertheless</t>
+  </si>
+  <si>
+    <t>surprisingly</t>
+  </si>
+  <si>
+    <t>accordingly</t>
+  </si>
+  <si>
+    <t>as a result</t>
+  </si>
+  <si>
+    <t>consequently</t>
+  </si>
+  <si>
+    <t>hence</t>
+  </si>
+  <si>
+    <t>thus</t>
+  </si>
+  <si>
+    <t>therefore</t>
+  </si>
+  <si>
+    <t>comparatively</t>
+  </si>
+  <si>
+    <t>equally</t>
+  </si>
+  <si>
+    <t>likewise</t>
+  </si>
+  <si>
+    <t>similarly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contrarily </t>
+  </si>
+  <si>
+    <t>conversely</t>
+  </si>
+  <si>
+    <t>in comparision</t>
+  </si>
+  <si>
+    <t>in contrast</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>rather</t>
+  </si>
+  <si>
+    <t>besides</t>
+  </si>
+  <si>
+    <t>in addition</t>
+  </si>
+  <si>
+    <t>further</t>
+  </si>
+  <si>
+    <t>moreover</t>
+  </si>
+  <si>
+    <t>furthermore</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>to add a reason or cause,   一个有自然因果关系的原因</t>
+  </si>
+  <si>
+    <t>she was tired, for the baby kept her up all night</t>
+  </si>
+  <si>
+    <t>连接两个并列句，一般主句在前，采用 主句+ ，并列连词+从句
+连词可以直接连接词语与词语，短语与短语，句子与句子。
+并列连词只可以在主句后，不可提前至句首</t>
+  </si>
+  <si>
+    <t>并列，前后关联</t>
+  </si>
+  <si>
+    <t>to add a similar, equal idea, 和，然后</t>
+  </si>
+  <si>
+    <t>I can wash the dished, and you can dry them.</t>
+  </si>
+  <si>
+    <t>否定</t>
+  </si>
+  <si>
+    <t>nor ==and not</t>
+  </si>
+  <si>
+    <t>to add a negative equal idea,  也不 （包含了not）</t>
+  </si>
+  <si>
+    <t>Julia doesn’t like com, nor does she like peas.</t>
+  </si>
+  <si>
+    <t>转折</t>
+  </si>
+  <si>
+    <t>but</t>
+  </si>
+  <si>
+    <t>to add an oppsite idea</t>
+  </si>
+  <si>
+    <t>most of my fridends have dogs, but Ann has a cat</t>
+  </si>
+  <si>
+    <t>选择</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>to add and  alternative possiblity or offer choices</t>
+  </si>
+  <si>
+    <t>hurrpy up, or you'll be late</t>
+  </si>
+  <si>
+    <t>转折--意料之外</t>
+  </si>
+  <si>
+    <t>to add an unexpected or surprising contrast</t>
+  </si>
+  <si>
+    <t>puppies are cute, yet they are a big responsibility</t>
+  </si>
+  <si>
+    <t>因果-结果</t>
+  </si>
+  <si>
+    <t>因果-因</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>to add an expected result  意料职中的结果</t>
+  </si>
+  <si>
+    <t>tom didn't study, so he didn't pass the exam.</t>
+  </si>
+  <si>
+    <t>for example</t>
+  </si>
+  <si>
+    <t>for instance</t>
+  </si>
+  <si>
+    <t>as well</t>
+  </si>
+  <si>
+    <t>https://www.sohu.com/a/423070797_490529</t>
+  </si>
+  <si>
+    <t>1)放在句首
+【例句4】Jen hadn't enjoyed the play; thus, she didn't recommend it.
+【例句5】Jen hadn't enjoyed the play; thus she didn't recommend it.
+连接性副词后面有逗号是常态，但thus受个人偏好的影响比较大。
+2)放在句中
+【例句6】Jen hadn't enjoyed the play; she therefore didn't recommend it.
+【例句7】Jen hadn't enjoyed the play; she decided, therefore, not to recommend it.
+【例句8】Jen hadn't enjoyed the play; she did not, as a result, recommend it.
+如果在连接性副词前面部分很短，那么不要逗号(【例句6】)，否则用两个逗号把连接性副词隔离出来(【例句7和8】)。
+3)放在句末
+【例句9】Jen hadn't enjoyed the play; she did not recommend it, consequently.
+【例句10】Tom had never been good at basketball; he had always loved it, nonetheless.
+【例句11】I wanted to stay in bed; I went to the park instead.
+连接性副词的前面通常都有逗号，但是与句子的流畅程度有关。如果不觉得不自然，逗号可去掉。例外  I have finished my work, and hence I can go home now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She felt ill. She went to work, however, and tried to concentrate. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">both..and </t>
+  </si>
+  <si>
+    <t>没有标点分隔</t>
+  </si>
+  <si>
+    <t>A man should have both courage and perseverance.一个人既要有勇气又要有毅力。</t>
+  </si>
+  <si>
+    <t>neither…nor</t>
+  </si>
+  <si>
+    <t>She could neither speak the language nor write it. 这种语言她既不会说，也不会写。</t>
+  </si>
+  <si>
+    <t>I left it either on the table or in the drawer. 我不是把它放在桌子上了，就是放在抽屉里了。</t>
+  </si>
+  <si>
+    <t>either…or</t>
+  </si>
+  <si>
+    <r>
+      <t>情况1. 配合分号; 或 句点.  分隔两个句子，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>并且句子副词后可使用逗号再与句子2分隔，有些不是必须</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   句子1 +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [;/.] +句子副词(,)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+ 句子2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hence，then，thus，so，yet之后通常不需要逗号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+情况2. 副词也可置于第二个句子的句中与句尾， 此时 副词前后要使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">逗号，分隔句子和副词，相当于插入语
+如 句子1  [;/.] +句子2a +,句子副词, 句子2b
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>例外， 当并列连词和副词同时出现时，以并列连词符号为准</t>
+    </r>
+  </si>
+  <si>
+    <t>It is very late; hence you must go to bed.
+时间已经很晚了，因此你必须睡觉去。
+It's handmade and hence expensive.
+这是手工做的， 因此很贵。
+I fell off my bike yesterday hence the bruises.</t>
+  </si>
+  <si>
+    <t>不及物动词，它的意思为“发生，出现”，它的过去式和过去分词分别为arose和arisen</t>
+  </si>
+  <si>
+    <t>Problems often arise in his studies.他的学习过程中经常出现问题</t>
+  </si>
+  <si>
+    <t>不及物动词，它的意思为“升起；上升；起床”，它的过去式和过去分词分别为rose和risen</t>
+  </si>
+  <si>
+    <t>She rose very early today.
+她今天起得很早。</t>
+  </si>
+  <si>
+    <t>及物动词，它的意思为“举起，使上升；喂养”，它的过去式和过去分词均为raised</t>
+  </si>
+  <si>
+    <t xml:space="preserve">使…上升 ， </t>
+  </si>
+  <si>
+    <t>He raised his head and stared at her.
+他抬起头盯着她看。</t>
+  </si>
+  <si>
+    <t>They arouse the interest of all the readers. 他们引起了所有读者的兴趣。</t>
+  </si>
+  <si>
+    <t>动词意思:是
+第三人称单数 arouses；在分词 arousing ；过去式aroused ；过去分词 aroused</t>
+  </si>
+  <si>
+    <t>激起(兴趣)，引起，唤醒</t>
+  </si>
+  <si>
+    <t>出现；升起；上升；发生
+arise常用于无形的东西</t>
+  </si>
+  <si>
+    <t>自己上升， 从低到高
+rise常用于有形的东西</t>
+  </si>
+  <si>
+    <t>而且</t>
+  </si>
+  <si>
+    <t>另外</t>
+  </si>
+  <si>
+    <t>比如</t>
+  </si>
+  <si>
+    <t>然而，不过</t>
+  </si>
+  <si>
+    <t>然而，尽管如此</t>
+  </si>
+  <si>
+    <t>意外情况，让步</t>
+  </si>
+  <si>
+    <t>nonetheless</t>
+  </si>
+  <si>
+    <t>be perferable to sth</t>
+  </si>
+  <si>
+    <t>更好的，更合适的</t>
+  </si>
+  <si>
+    <t>然而</t>
+  </si>
+  <si>
+    <t>词组</t>
+  </si>
+  <si>
+    <t>用法</t>
+  </si>
+  <si>
+    <t>用例</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>by and large</t>
+  </si>
+  <si>
+    <t>大体上</t>
+  </si>
+  <si>
+    <t>程度副词</t>
+  </si>
+  <si>
+    <t>by and large, our work has been successful</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>at par with</t>
+  </si>
+  <si>
+    <t>与..等价</t>
+  </si>
+  <si>
+    <t>表语</t>
+  </si>
+  <si>
+    <t>the scrap value of a vessel can hardly be at par with the sound value(成色好的价值)</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>fluctuates</t>
+  </si>
+  <si>
+    <t>(价值，比例）波动</t>
+  </si>
+  <si>
+    <t>vi 动词</t>
+  </si>
+  <si>
+    <t>情况1，主句+从属连词+从句 一般不需要在连词前加逗号分隔（但表转折让步的连词，可以有逗号）
+--例外1. 多种相同的连词连用，如多个原因because，可以有逗号分隔
+--例外2. not…because  否定转移，需要时用逗号避免歧义
+情况2， 从属连词+从句， 主句， 从句在前需要用逗号和主句分隔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">struck at </t>
+  </si>
+  <si>
+    <t>打击</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strove for </t>
+  </si>
+  <si>
+    <t>为…奋斗</t>
+  </si>
+  <si>
+    <t>坚持</t>
+  </si>
+  <si>
+    <t>stick to + n.</t>
+  </si>
+  <si>
+    <t>stand for</t>
+  </si>
+  <si>
+    <t>代表，遵守</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>compose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vt… 组成，构成 </t>
+  </si>
+  <si>
+    <t>consist</t>
+  </si>
+  <si>
+    <t>vi…  构成</t>
+  </si>
+  <si>
+    <t>consist of 表示由...构成
+consist in  在于</t>
+  </si>
+  <si>
+    <t>1. The committee consists of ten members. 委员会由十人组成
+2. True education does not consist in simply being taught facts. 真正的教育并不在于简单地讲授事实</t>
+  </si>
+  <si>
+    <t>后接构成的整体，
+be compsed of 表示被什么构成</t>
+  </si>
+  <si>
+    <t>make up 组成…</t>
+  </si>
+  <si>
+    <t>为了…的利益</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for the sake of </t>
+  </si>
+  <si>
+    <t>ability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">指人 智力上和体力上的能力 </t>
+  </si>
+  <si>
+    <t>ability + to do/in/for</t>
+  </si>
+  <si>
+    <t>capability</t>
+  </si>
+  <si>
+    <t>基本同上， 但指天生或者潜在的能力</t>
+  </si>
+  <si>
+    <t>capability + to do 有能力做</t>
+  </si>
+  <si>
+    <t>capability + of + 主动意义</t>
+  </si>
+  <si>
+    <t>They both have the capability of winning</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>容纳，理解，吸收（知识）的能力</t>
+  </si>
+  <si>
+    <t>capacity for</t>
+  </si>
+  <si>
+    <t>he has a capacity for physics</t>
+  </si>
+  <si>
+    <t>competence</t>
+  </si>
+  <si>
+    <t>(胜任工作)的能力n. 能力，胜任；权限，管辖权；</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This can help you gain a high level of competence in English. </t>
+  </si>
+  <si>
+    <t>RMC provides you with a convenient rich text editor capability for building your process content.
+Everybody has the capability for being remoulded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capability + for + 主动/ 被动意义名词 皆可 </t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive  /dɪˈraɪv/ </t>
+  </si>
+  <si>
+    <t>be derived from 从…获得， 
+derive sth from 从..获得</t>
+  </si>
+  <si>
+    <t>vt. 获得，取得；起源于</t>
+  </si>
+  <si>
+    <t>deprive</t>
+  </si>
+  <si>
+    <t>vt . 剥夺，使丧失；免去……的职务</t>
+  </si>
+  <si>
+    <t>deprive sth/sb of    剥夺sb关于的事情</t>
+  </si>
+  <si>
+    <t>resort to violence</t>
+  </si>
+  <si>
+    <t>诉诸于，求助于暴力</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>be known for</t>
+  </si>
+  <si>
+    <t>因…而闻名</t>
+  </si>
+  <si>
+    <t>be known as</t>
+  </si>
+  <si>
+    <t>被公认为</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be known to </t>
+  </si>
+  <si>
+    <t>为…所知</t>
+  </si>
+  <si>
+    <t>condense</t>
+  </si>
+  <si>
+    <t>Steam condenses into water when it cools. 蒸汽冷却时凝结为水</t>
+  </si>
+  <si>
+    <t>compress</t>
+  </si>
+  <si>
+    <t>condense into</t>
+  </si>
+  <si>
+    <t>The bin can also compress the waste so it will take up less space</t>
+  </si>
+  <si>
+    <t>v. （物理空间变化）（使）压紧，压缩to press or squeeze sth together or into a smaller space; to be pressed or squeezed in this way （被）压紧，压缩；精简] ~ sth (into sth) to reduce sth and fit it into a smaller space or amount of time ，浓缩；压缩（文件）</t>
+  </si>
+  <si>
+    <t>v. （性质变化）冷凝，凝结（水，冰）；压缩，简缩~ sth (into sth) to put sth such as a piece of writing into fewer words; to put a lot of information into a small space（文字）；</t>
+  </si>
+  <si>
+    <t>resolved on doing</t>
+  </si>
+  <si>
+    <t>决定做，决心做</t>
+  </si>
+  <si>
+    <t>resolve</t>
+  </si>
+  <si>
+    <t>解决（问题或困难）；决定，下定决心；</t>
+  </si>
+  <si>
+    <t>vi resolved on doing</t>
+  </si>
+  <si>
+    <t>revolve</t>
+  </si>
+  <si>
+    <t>v. （使）旋转；围绕……旋转（revolve around）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The fan revolved slowly.</t>
+  </si>
+  <si>
+    <t>诱骗sb去做某事</t>
+  </si>
+  <si>
+    <t>answer for</t>
+  </si>
+  <si>
+    <t>对..负责</t>
+  </si>
+  <si>
+    <t>abide by</t>
+  </si>
+  <si>
+    <t>v  遵守</t>
+  </si>
+  <si>
+    <t>draw on</t>
+  </si>
+  <si>
+    <t>动用，支取</t>
+  </si>
+  <si>
+    <t>drwaw back from</t>
+  </si>
+  <si>
+    <t>draw in</t>
+  </si>
+  <si>
+    <t>draw  up</t>
+  </si>
+  <si>
+    <t>起草，制定</t>
+  </si>
+  <si>
+    <t>汽车，火车 到达，到站</t>
+  </si>
+  <si>
+    <t>收回，退缩</t>
+  </si>
+  <si>
+    <t>bring forward</t>
+  </si>
+  <si>
+    <t>提出，使..提前，结转</t>
+  </si>
+  <si>
+    <t>He has brought forward conclusive evidence.</t>
+  </si>
+  <si>
+    <t>强调导致sth发生的理由，原因</t>
+  </si>
+  <si>
+    <t>强调 因为sth发生本身所导致的原因， 也就是sth就是导致某些是的原因</t>
+  </si>
+  <si>
+    <t>reason for sth(名词)</t>
+  </si>
+  <si>
+    <t>for/by reason of sth/n. doing（动名词）</t>
+  </si>
+  <si>
+    <t>be supposed to</t>
+  </si>
+  <si>
+    <t>本应该，曾经的假设</t>
+  </si>
+  <si>
+    <t>for good</t>
+  </si>
+  <si>
+    <t>一劳永逸</t>
+  </si>
+  <si>
+    <t>for all + n.</t>
+  </si>
+  <si>
+    <t>尽管，</t>
+  </si>
+  <si>
+    <t>介词+名词</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at hand </t>
+  </si>
+  <si>
+    <t>在手边</t>
+  </si>
+  <si>
+    <t>at large</t>
+  </si>
+  <si>
+    <t>一般地，自由地</t>
+  </si>
+  <si>
+    <t>副词</t>
+  </si>
+  <si>
+    <t>最</t>
+  </si>
+  <si>
+    <t>by far + the 最高级</t>
+  </si>
+  <si>
+    <t>比较级+ by far</t>
+  </si>
+  <si>
+    <t>…得多，更</t>
+  </si>
+  <si>
+    <t>His explanation is clever by far</t>
+  </si>
+  <si>
+    <t>by chance</t>
+  </si>
+  <si>
+    <t>偶然的</t>
+  </si>
+  <si>
+    <t>by now</t>
+  </si>
+  <si>
+    <t>到现在为止</t>
+  </si>
+  <si>
+    <t>by all means</t>
+  </si>
+  <si>
+    <t>务必，想尽一切办法</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>be indifferent to+ n.</t>
+  </si>
+  <si>
+    <t>对…不关心</t>
+  </si>
+  <si>
+    <t>pull through</t>
+  </si>
+  <si>
+    <t>pull back</t>
+  </si>
+  <si>
+    <t>撤回，向后拉</t>
+  </si>
+  <si>
+    <t>停止，阻止</t>
+  </si>
+  <si>
+    <t>pull up</t>
+  </si>
+  <si>
+    <t>停下，停车</t>
+  </si>
+  <si>
+    <t>pull in + sth</t>
+  </si>
+  <si>
+    <t>脱离危险，恢复健康</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>generous</t>
+  </si>
+  <si>
+    <t>慷慨大方的</t>
+  </si>
+  <si>
+    <t>真实的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genuine   /ˈdʒenjuɪn/  </t>
+  </si>
+  <si>
+    <t>on the condition that 从句</t>
+  </si>
+  <si>
+    <t>以…为条件</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>on the grounds that 从句</t>
+  </si>
+  <si>
+    <t>以…为理由</t>
+  </si>
+  <si>
+    <t>at the risk of</t>
+  </si>
+  <si>
+    <t>in danger of</t>
+  </si>
+  <si>
+    <t>in disregrad of</t>
+  </si>
+  <si>
+    <t>by negligence</t>
+  </si>
+  <si>
+    <t>承受…危险</t>
+  </si>
+  <si>
+    <t>有危险的</t>
+  </si>
+  <si>
+    <t>不管，不理</t>
+  </si>
+  <si>
+    <t>由于疏忽</t>
+  </si>
+  <si>
+    <t>drink sth dry</t>
+  </si>
+  <si>
+    <t>喝干…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deveived  /dɪˈsiːvd/ sb into doing </t>
+  </si>
+  <si>
+    <t>&lt;--本身这些词都是可数名词, 所以修饰复数</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>an</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ </t>
+  </si>
+  <si>
+    <t>单复数名词</t>
+  </si>
+  <si>
+    <t>谓语动词</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a series of </t>
+  </si>
+  <si>
+    <t>名词复数</t>
+  </si>
+  <si>
+    <t>a large collection of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the type of </t>
+  </si>
+  <si>
+    <t>修饰词表示一类事物</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>all +专有名词 ; all of 专有名词 两者皆可</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>the whole of +专有名词</t>
+  </si>
+  <si>
+    <t>那么，如此</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adv. </t>
+  </si>
+  <si>
+    <t>形容词  修饰名词</t>
+  </si>
+  <si>
+    <t>副词， 修饰形容词</t>
+  </si>
+  <si>
+    <t>有no 时，可省略</t>
+  </si>
+  <si>
+    <t>单数(形容词在前，不定冠词在后)</t>
+  </si>
+  <si>
+    <t>only to to</t>
+  </si>
+  <si>
+    <t>结果竟然是…</t>
+  </si>
+  <si>
+    <t>She turned up the driveway, only to find her way blocked.</t>
+  </si>
+  <si>
+    <t>动词后的状语</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>be lost to + n. doing</t>
+  </si>
+  <si>
+    <t>对…不受影响</t>
+  </si>
+  <si>
+    <t>The majority of</t>
+  </si>
+  <si>
+    <t>单数名词</t>
+  </si>
+  <si>
+    <t>复数名词</t>
+  </si>
+  <si>
+    <t>a lot</t>
+  </si>
+  <si>
+    <t>大量，许多</t>
+  </si>
+  <si>
+    <t>名词，代词，副词修饰形容词</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a lot of </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>=lots of</t>
+  </si>
+  <si>
+    <t>形容词性，</t>
+  </si>
+  <si>
+    <t>许多的</t>
+  </si>
+  <si>
+    <t>致力于；委身于；以……为己任</t>
+  </si>
+  <si>
+    <t>be committed to +n.doing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2880,6 +4076,26 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2983,7 +4199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3111,6 +4327,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3126,7 +4351,35 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3411,7 +4664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -3605,6 +4858,607 @@
     </row>
     <row r="32" spans="1:6">
       <c r="F32" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E48" sqref="E48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39.140625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="52" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="62.42578125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="69.85546875" style="45" customWidth="1"/>
+    <col min="6" max="6" width="89.42578125" style="45" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="45" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="52" customFormat="1">
+      <c r="A1" s="52" t="s">
+        <v>466</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>481</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>465</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45">
+      <c r="A2" s="52" t="s">
+        <v>467</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>477</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>517</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>479</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="52" t="s">
+        <v>537</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>514</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>515</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="52" t="s">
+        <v>518</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>519</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="C5" s="45" t="s">
+        <v>547</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>548</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="52" t="s">
+        <v>521</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>522</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="C7" s="45" t="s">
+        <v>550</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>548</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="52" t="s">
+        <v>525</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>526</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>527</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="45"/>
+      <c r="B9" s="52" t="s">
+        <v>529</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>530</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>531</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="C10" s="45" t="s">
+        <v>553</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>548</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="52" t="s">
+        <v>533</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>534</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="52" t="s">
+        <v>536</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>538</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>539</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="144.75" customHeight="1">
+      <c r="A13" s="52" t="s">
+        <v>468</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>554</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>545</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="52" t="s">
+        <v>482</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="C15" s="45" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="C16" s="45" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="56" customFormat="1" ht="135">
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="56" t="s">
+        <v>496</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="C18" s="45" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="C19" s="45" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="B20" s="52" t="s">
+        <v>483</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="C21" s="45" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="C22" s="45" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="C23" s="45" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="B24" s="52" t="s">
+        <v>484</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="C25" s="45" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="C26" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>577</v>
+      </c>
+      <c r="F26" s="45" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="C27" s="45" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="C28" s="45" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="C29" s="45" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="C30" s="45" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="B31" s="52" t="s">
+        <v>485</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="C32" s="45" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="C33" s="45" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="C34" s="45" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="C35" s="45" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" s="52" t="s">
+        <v>486</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>511</v>
+      </c>
+      <c r="D36" s="45" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="C37" s="45" t="s">
+        <v>513</v>
+      </c>
+      <c r="D37" s="45" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="C38" s="45" t="s">
+        <v>512</v>
+      </c>
+      <c r="D38" s="45" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="C39" s="45" t="s">
+        <v>541</v>
+      </c>
+      <c r="D39" s="45" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="C40" s="45" t="s">
+        <v>542</v>
+      </c>
+      <c r="D40" s="45" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="B41" s="52" t="s">
+        <v>573</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>491</v>
+      </c>
+      <c r="D41" s="45" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="C42" s="45" t="s">
+        <v>574</v>
+      </c>
+      <c r="D42" s="45" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="C43" s="45" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="C44" s="45" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="B45" s="52" t="s">
+        <v>487</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="B46" s="52" t="s">
+        <v>488</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="255">
+      <c r="A47" s="52" t="s">
+        <v>469</v>
+      </c>
+      <c r="E47" s="45" t="s">
+        <v>595</v>
+      </c>
+      <c r="F47" s="45" t="s">
+        <v>474</v>
+      </c>
+      <c r="G47" s="53" t="s">
+        <v>476</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G47" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="28" style="15" customWidth="1"/>
+    <col min="3" max="3" width="31" style="15" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" style="15" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="33"/>
+      <c r="B1" s="42" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>421</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>422</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="84" customHeight="1">
+      <c r="A2" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>424</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="135">
+      <c r="A3" s="36" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>428</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>429</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="39" t="s">
+        <v>434</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>435</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40" t="s">
+        <v>436</v>
+      </c>
+      <c r="E4" s="41"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="36" t="s">
+        <v>439</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>440</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="36" t="s">
+        <v>441</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40" t="s">
+        <v>444</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>447</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3627,66 +5481,66 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C4" t="s">
         <v>308</v>
-      </c>
-      <c r="C4" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" t="s">
         <v>310</v>
-      </c>
-      <c r="C6" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>312</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>318</v>
+        <v>311</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>313</v>
-      </c>
-      <c r="B9" s="44"/>
+        <v>312</v>
+      </c>
+      <c r="B9" s="47"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>315</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>317</v>
+        <v>314</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>316</v>
-      </c>
-      <c r="B12" s="44"/>
+        <v>315</v>
+      </c>
+      <c r="B12" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3714,114 +5568,114 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="32" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="C3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="C4" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="C5" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D5" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="32" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="32" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="32" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="32" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="32" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" s="32" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="32" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="32" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -3831,198 +5685,204 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="49" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="46" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="2" customWidth="1"/>
     <col min="3" max="4" width="19.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="16.28515625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="45" t="s">
+    <row r="1" spans="1:6">
+      <c r="B1" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1" s="48"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="46" t="s">
+        <v>373</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45" t="s">
+      <c r="D2" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="E1" s="45"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="49" t="s">
-        <v>378</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="D4" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="B3" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="D4" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="49" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1">
+      <c r="A6" s="46" t="s">
+        <v>374</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="F7" s="51"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="E8" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="F8" s="51"/>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="B9" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="F9" s="51"/>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="B10" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F10" s="51"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="E6" s="48" t="s">
+      <c r="E11" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="F11" s="51"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="F12" s="51"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" ht="40.5" customHeight="1">
+      <c r="B14" s="49" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="E7" s="48"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="B8" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="E8" s="48"/>
-    </row>
-    <row r="9" spans="1:5" ht="30">
-      <c r="B9" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="E9" s="48"/>
-    </row>
-    <row r="10" spans="1:5" ht="30">
-      <c r="B10" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E10" s="48"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="B11" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="E11" s="48"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="B12" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="E12" s="48"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="D13" s="10"/>
-      <c r="E13" s="48"/>
-    </row>
-    <row r="14" spans="1:5" ht="40.5" customHeight="1">
-      <c r="B14" s="46" t="s">
-        <v>425</v>
-      </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="49" t="s">
-        <v>457</v>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="46" t="s">
+        <v>451</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="46" t="s">
+        <v>454</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>455</v>
+      </c>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+    </row>
+    <row r="22" spans="1:5" ht="60">
+      <c r="A22" s="46" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="49" t="s">
+      <c r="D22" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>461</v>
-      </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-    </row>
-    <row r="22" spans="1:5" ht="60">
-      <c r="A22" s="49" t="s">
-        <v>465</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>466</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="F6:F12"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="E6:E13"/>
     <mergeCell ref="B19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4030,6 +5890,100 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="6" customWidth="1"/>
+    <col min="5" max="6" width="15.42578125" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30">
+      <c r="B1" s="44" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>741</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>742</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1">
+      <c r="A2" s="61" t="s">
+        <v>748</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" customHeight="1">
+      <c r="A3" s="61"/>
+      <c r="B3" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" customHeight="1">
+      <c r="A4" s="61"/>
+      <c r="B4" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="62" t="s">
+        <v>767</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="62"/>
+      <c r="D7" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B6:B7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -4235,10 +6189,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -4246,12 +6200,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="52.42578125" defaultRowHeight="15"/>
@@ -4878,32 +6832,40 @@
         <v>203</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="20" t="s">
+    <row r="79" spans="1:2" s="45" customFormat="1">
+      <c r="A79" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="B79" s="45" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="20" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B83" s="15" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4912,15 +6874,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4941,13 +6903,13 @@
         <v>219</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>223</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4969,7 +6931,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45">
+    <row r="4" spans="1:5" ht="32.25" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>226</v>
       </c>
@@ -4977,7 +6939,7 @@
         <v>227</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>228</v>
@@ -4985,696 +6947,1542 @@
     </row>
     <row r="5" spans="1:5" ht="30">
       <c r="A5" s="6" t="s">
-        <v>229</v>
+        <v>462</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>234</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="6" t="s">
-        <v>212</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30">
+      <c r="A13" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="60">
+      <c r="A14" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>211</v>
+        <v>615</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>213</v>
+        <v>616</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>214</v>
+        <v>617</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="57" customFormat="1">
+      <c r="C18" s="57" t="s">
+        <v>621</v>
+      </c>
+      <c r="E18" s="57" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="57" customFormat="1" ht="32.25" customHeight="1">
+      <c r="C19" s="57" t="s">
+        <v>631</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="58" customFormat="1">
+      <c r="A20" s="58" t="s">
+        <v>623</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>624</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>625</v>
+      </c>
+      <c r="E20" s="58" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="58" customFormat="1" ht="30">
+      <c r="A21" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="B21" s="58" t="s">
+        <v>628</v>
+      </c>
+      <c r="E21" s="58" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="58" customFormat="1"/>
+    <row r="23" spans="1:5" s="58" customFormat="1" ht="60">
+      <c r="A23" s="58" t="s">
+        <v>648</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>654</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>651</v>
+      </c>
+      <c r="E23" s="59" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="58" customFormat="1" ht="90">
+      <c r="A24" s="58" t="s">
+        <v>650</v>
+      </c>
+      <c r="B24" s="58" t="s">
+        <v>653</v>
+      </c>
+      <c r="E24" s="58" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="58" customFormat="1"/>
+    <row r="26" spans="1:5" s="58" customFormat="1"/>
+    <row r="27" spans="1:5" s="58" customFormat="1">
+      <c r="A27" s="58" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="58" customFormat="1" ht="30">
+      <c r="A28" s="58" t="s">
+        <v>633</v>
+      </c>
+      <c r="B28" s="58" t="s">
+        <v>635</v>
+      </c>
+      <c r="C28" s="58" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="58" customFormat="1" ht="30">
+      <c r="A29" s="58" t="s">
+        <v>636</v>
+      </c>
+      <c r="B29" s="58" t="s">
+        <v>637</v>
+      </c>
+      <c r="C29" s="58" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="58" customFormat="1"/>
+    <row r="31" spans="1:5" s="58" customFormat="1"/>
+    <row r="32" spans="1:5" s="58" customFormat="1"/>
+    <row r="33" spans="1:4" s="58" customFormat="1"/>
+    <row r="34" spans="1:4" s="58" customFormat="1"/>
+    <row r="35" spans="1:4" s="58" customFormat="1"/>
+    <row r="36" spans="1:4">
+      <c r="A36" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B38" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="7" t="s">
+    <row r="39" spans="1:4">
+      <c r="A39" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="6" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="6" t="s">
+      <c r="B40" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="B41" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="C41" s="51"/>
+      <c r="D41" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="6" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="6" t="s">
+      <c r="C42" s="51"/>
+      <c r="D42" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B43" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="6" t="s">
+      <c r="C43" s="51"/>
+      <c r="D43" s="6" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="6" t="s">
+    <row r="44" spans="1:4">
+      <c r="A44" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B44" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="6" t="s">
+      <c r="C44" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="6" t="s">
+    <row r="46" spans="1:4">
+      <c r="A46" s="6" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="6" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="6" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="6" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="6" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="6" t="s">
+      <c r="B64" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="C64" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C28" s="6" t="s">
+    </row>
+    <row r="65" spans="1:5" ht="30">
+      <c r="A65" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="30">
-      <c r="A29" s="6" t="s">
+      <c r="B65" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="E65" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="E29" s="6" t="s">
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="6" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="6" t="s">
+    <row r="68" spans="1:5" ht="45">
+      <c r="A68" s="6" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="45">
-      <c r="A32" s="6" t="s">
+      <c r="B68" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="C68" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="D68" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E68" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="45">
-      <c r="A33" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="60">
-      <c r="A40" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="60">
-      <c r="A41" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="30">
-      <c r="B43" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="B44" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="30">
-      <c r="B45" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="30">
-      <c r="A46" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="C47" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="B61" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="C61" s="25"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="26"/>
-      <c r="B62" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="30">
-      <c r="A63" s="26"/>
-      <c r="B63" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="30">
-      <c r="A64" s="26"/>
-      <c r="B64" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="B65" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="C65" s="22"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="26"/>
-      <c r="B66" s="28" t="s">
-        <v>327</v>
-      </c>
-      <c r="C66" s="22" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="29"/>
-      <c r="B67" s="30" t="s">
-        <v>330</v>
-      </c>
-      <c r="C67" s="31" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="45">
       <c r="A69" s="6" t="s">
-        <v>388</v>
+        <v>271</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>390</v>
+        <v>272</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>273</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="17.25" customHeight="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="60">
       <c r="A76" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="60">
+      <c r="A77" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="30">
+      <c r="B79" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="B80" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="30">
+      <c r="B81" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="30">
+      <c r="A82" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="C83" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="30">
+      <c r="A88" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="30">
+      <c r="A89" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="30">
+      <c r="A90" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="45">
+      <c r="A91" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="30">
+      <c r="A97" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="B116" s="24" t="s">
+        <v>756</v>
+      </c>
+      <c r="C116" s="25"/>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="26"/>
+      <c r="B117" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="C117" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="30">
+      <c r="A118" s="26"/>
+      <c r="B118" s="28" t="s">
+        <v>758</v>
+      </c>
+      <c r="C118" s="22" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="30">
+      <c r="A119" s="26"/>
+      <c r="B119" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="C119" s="22" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="B120" s="28" t="s">
+        <v>757</v>
+      </c>
+      <c r="C120" s="22"/>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="26"/>
+      <c r="B121" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="C121" s="22" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="29"/>
+      <c r="B122" s="30" t="s">
+        <v>759</v>
+      </c>
+      <c r="C122" s="31" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="45">
+      <c r="A124" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A145" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="30">
+      <c r="A147" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="51"/>
+      <c r="B148" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="51"/>
+      <c r="B149" s="7" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="30">
-      <c r="A78" s="48" t="s">
+      <c r="E149" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B78" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="C78" s="6" t="s">
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="51"/>
+      <c r="B150" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="51"/>
+      <c r="B151" s="6" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="48"/>
-      <c r="B79" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="48"/>
-      <c r="B80" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="E80" s="6" t="s">
+      <c r="D151" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E151" s="6" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="48"/>
-      <c r="B81" s="6" t="s">
+    <row r="152" spans="1:5">
+      <c r="A152" s="51"/>
+      <c r="B152" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="E152" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="E81" s="6" t="s">
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="51"/>
+      <c r="B153" s="6" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="48"/>
-      <c r="B82" s="6" t="s">
+      <c r="E153" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="51"/>
+      <c r="B154" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D154" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="D82" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="48"/>
-      <c r="B83" s="6" t="s">
+      <c r="E154" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="E83" s="6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="48"/>
-      <c r="B84" s="6" t="s">
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="51"/>
+      <c r="B155" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E84" s="6" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="48"/>
-      <c r="B85" s="6" t="s">
+      <c r="C155" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="51"/>
+      <c r="B156" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C156" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="D85" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="48"/>
-      <c r="B86" s="6" t="s">
+      <c r="E156" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C86" s="6" t="s">
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="51"/>
+      <c r="B157" s="6" t="s">
         <v>355</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="48"/>
-      <c r="B87" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="48"/>
-      <c r="B88" s="6" t="s">
-        <v>360</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="A78:A88"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="A147:A157"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="28" style="15" customWidth="1"/>
-    <col min="3" max="3" width="31" style="15" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" style="15" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="33"/>
-      <c r="B1" s="42" t="s">
-        <v>426</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>427</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>428</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="84" customHeight="1">
-      <c r="A2" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>430</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>431</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>432</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="135">
-      <c r="A3" s="36" t="s">
-        <v>433</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>434</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>435</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="39" t="s">
-        <v>440</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>441</v>
-      </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="E4" s="41"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>443</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="36" t="s">
-        <v>445</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>448</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>446</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="36"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="36" t="s">
-        <v>447</v>
-      </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37" t="s">
-        <v>449</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40" t="s">
-        <v>450</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>453</v>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>664</v>
+      </c>
+      <c r="B3" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>666</v>
+      </c>
+      <c r="B4" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>690</v>
+      </c>
+      <c r="B6" t="s">
+        <v>691</v>
+      </c>
+      <c r="C6" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B7" t="s">
+        <v>693</v>
+      </c>
+      <c r="C7" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>582</v>
+      </c>
+      <c r="B13" t="s">
+        <v>583</v>
+      </c>
+      <c r="C13" t="s">
+        <v>584</v>
+      </c>
+      <c r="D13" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>676</v>
+      </c>
+      <c r="B14" t="s">
+        <v>677</v>
+      </c>
+      <c r="D14" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>696</v>
+      </c>
+      <c r="B16" t="s">
+        <v>695</v>
+      </c>
+      <c r="C16" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>697</v>
+      </c>
+      <c r="B17" t="s">
+        <v>698</v>
+      </c>
+      <c r="C17" t="s">
+        <v>694</v>
+      </c>
+      <c r="D17" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>700</v>
+      </c>
+      <c r="B18" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>702</v>
+      </c>
+      <c r="B19" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>704</v>
+      </c>
+      <c r="B20" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>722</v>
+      </c>
+      <c r="B23" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>779</v>
+      </c>
+      <c r="B24" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>737</v>
+      </c>
+      <c r="B29" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>668</v>
+      </c>
+      <c r="B31" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>670</v>
+      </c>
+      <c r="B32" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>671</v>
+      </c>
+      <c r="B33" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>672</v>
+      </c>
+      <c r="B34" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>735</v>
+      </c>
+      <c r="B36" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C40" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B41" t="s">
+        <v>686</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B42" t="s">
+        <v>688</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2"/>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B46" t="s">
+        <v>708</v>
+      </c>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2"/>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>722</v>
+      </c>
+      <c r="B62" t="s">
+        <v>723</v>
+      </c>
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="D65" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>587</v>
+      </c>
+      <c r="B73" t="s">
+        <v>588</v>
+      </c>
+      <c r="C73" t="s">
+        <v>589</v>
+      </c>
+      <c r="D73" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>709</v>
+      </c>
+      <c r="B74" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>710</v>
+      </c>
+      <c r="B75" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>715</v>
+      </c>
+      <c r="B76" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>713</v>
+      </c>
+      <c r="B77" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>639</v>
+      </c>
+      <c r="B83" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>655</v>
+      </c>
+      <c r="B84" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>683</v>
+      </c>
+      <c r="B88" t="s">
+        <v>684</v>
       </c>
     </row>
   </sheetData>

--- a/语法总结.xlsx
+++ b/语法总结.xlsx
@@ -9,20 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="2550" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="2550" tabRatio="736" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="系动词" sheetId="1" r:id="rId1"/>
-    <sheet name="倍数表达" sheetId="7" r:id="rId2"/>
-    <sheet name="动名词" sheetId="9" r:id="rId3"/>
-    <sheet name="可数与不可数" sheetId="8" r:id="rId4"/>
-    <sheet name="主谓一致" sheetId="14" r:id="rId5"/>
-    <sheet name="of" sheetId="3" r:id="rId6"/>
-    <sheet name="To" sheetId="2" r:id="rId7"/>
-    <sheet name="词汇解析" sheetId="5" r:id="rId8"/>
-    <sheet name="固定搭配词组" sheetId="13" r:id="rId9"/>
-    <sheet name="句子联合的方式" sheetId="12" r:id="rId10"/>
-    <sheet name="介词" sheetId="11" r:id="rId11"/>
+    <sheet name="情态动词表非真实描述" sheetId="15" r:id="rId2"/>
+    <sheet name="There be 句型" sheetId="17" r:id="rId3"/>
+    <sheet name="倍数表达" sheetId="7" r:id="rId4"/>
+    <sheet name="动词规则" sheetId="16" r:id="rId5"/>
+    <sheet name="动名词" sheetId="9" r:id="rId6"/>
+    <sheet name="可数与不可数" sheetId="8" r:id="rId7"/>
+    <sheet name="主谓一致" sheetId="14" r:id="rId8"/>
+    <sheet name="of" sheetId="3" r:id="rId9"/>
+    <sheet name="To" sheetId="2" r:id="rId10"/>
+    <sheet name="词汇解析" sheetId="5" r:id="rId11"/>
+    <sheet name="固定搭配词组" sheetId="13" r:id="rId12"/>
+    <sheet name="句子联合的方式" sheetId="12" r:id="rId13"/>
+    <sheet name="介词" sheetId="11" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="1038">
   <si>
     <t xml:space="preserve">状态系动词 </t>
   </si>
@@ -178,11 +181,6 @@
   </si>
   <si>
     <t>系动词 +to be 解析</t>
-  </si>
-  <si>
-    <t>look,feel, smell, sound, taste
-半连系，
-如果可以替换成be且句意不变，则为系动词，否则为实义动词</t>
   </si>
   <si>
     <t>不可接不定式</t>
@@ -2409,9 +2407,6 @@
     <t xml:space="preserve">adj 值得做 </t>
   </si>
   <si>
-    <t>adj. 值得的</t>
-  </si>
-  <si>
     <t>worthwhile to do</t>
   </si>
   <si>
@@ -2513,9 +2508,6 @@
   </si>
   <si>
     <t>stop，give up, risk to</t>
-  </si>
-  <si>
-    <t>mine, image, delay, put off</t>
   </si>
   <si>
     <t>require, finish, look forward to</t>
@@ -2727,9 +2719,6 @@
   </si>
   <si>
     <t xml:space="preserve">be worthy to do </t>
-  </si>
-  <si>
-    <t>2. 值得，有价值被。。 -- 主动表被动</t>
   </si>
   <si>
     <t>动词格式</t>
@@ -3511,9 +3500,6 @@
     <t>容纳，理解，吸收（知识）的能力</t>
   </si>
   <si>
-    <t>capacity for</t>
-  </si>
-  <si>
     <t>he has a capacity for physics</t>
   </si>
   <si>
@@ -3864,9 +3850,6 @@
     <t xml:space="preserve">+ </t>
   </si>
   <si>
-    <t>单复数名词</t>
-  </si>
-  <si>
     <t>谓语动词</t>
   </si>
   <si>
@@ -3976,13 +3959,823 @@
   </si>
   <si>
     <t>be committed to +n.doing</t>
+  </si>
+  <si>
+    <t>try to do</t>
+  </si>
+  <si>
+    <t>try doing</t>
+  </si>
+  <si>
+    <t>试着做，抱着试试看的想法做</t>
+  </si>
+  <si>
+    <t>努力，尽量去做，强调动作</t>
+  </si>
+  <si>
+    <t>start to do</t>
+  </si>
+  <si>
+    <t>start doing</t>
+  </si>
+  <si>
+    <t>开始去做一个长期的事情</t>
+  </si>
+  <si>
+    <t>开始准备，意识到去做某事；
+描述物体（比如天气 ，物体）变化用 to do；
+to do表示思想与意识变化think, realize, understand</t>
+  </si>
+  <si>
+    <t>know better than to do sth</t>
+  </si>
+  <si>
+    <r>
+      <t>知道有更好的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>而不去做</t>
+    </r>
+  </si>
+  <si>
+    <t>通过better 比较表肯定</t>
+  </si>
+  <si>
+    <t>I knew better  (than) to do such a thing.</t>
+  </si>
+  <si>
+    <t>in  particular</t>
+  </si>
+  <si>
+    <t>特别地</t>
+  </si>
+  <si>
+    <t>2. 值得做，有价值被。。 -- 主动表被动</t>
+  </si>
+  <si>
+    <t>adj. 做什么是 值得的</t>
+  </si>
+  <si>
+    <t>take sth for granted</t>
+  </si>
+  <si>
+    <t>被认为理所应当</t>
+  </si>
+  <si>
+    <t>take it for granted that （后置宾语从句）</t>
+  </si>
+  <si>
+    <t>continual</t>
+  </si>
+  <si>
+    <t>continuous</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>adj. 持续不断的，经常发生的；习惯性重复</t>
+  </si>
+  <si>
+    <t>adj.连续不断，强调不中断</t>
+  </si>
+  <si>
+    <t>adj. 经常不断，常常，但会有间隔</t>
+  </si>
+  <si>
+    <t>successive</t>
+  </si>
+  <si>
+    <t>This was their fourth successive win. 这是他们连续第四次获胜。</t>
+  </si>
+  <si>
+    <t>adj. 连续的，依次的；逐个的</t>
+  </si>
+  <si>
+    <t>look,feel, smell, sound, taste, hear
+半连系，
+如果可以替换成be且句意不变，则为系动词，否则为实义动词</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>hear</t>
+  </si>
+  <si>
+    <t>感官系动词，表示听见，不可用进行时，表听见这个结果</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>表示听的动作，可用进行时</t>
+  </si>
+  <si>
+    <t>take in</t>
+  </si>
+  <si>
+    <t>欺骗</t>
+  </si>
+  <si>
+    <t>take up</t>
+  </si>
+  <si>
+    <t>占据，开始，从事</t>
+  </si>
+  <si>
+    <t>take down</t>
+  </si>
+  <si>
+    <t>记下来，拆掉</t>
+  </si>
+  <si>
+    <t>take away</t>
+  </si>
+  <si>
+    <t>拿走</t>
+  </si>
+  <si>
+    <t>lie</t>
+  </si>
+  <si>
+    <t>v 躺  -ed lay  -en lain</t>
+  </si>
+  <si>
+    <t>v. 说谎 -ed lied  -en lied</t>
+  </si>
+  <si>
+    <t>lay</t>
+  </si>
+  <si>
+    <t>vt 放置 -ed  laid   -en laid</t>
+  </si>
+  <si>
+    <t>appeal to</t>
+  </si>
+  <si>
+    <t>迎合，引起…兴趣</t>
+  </si>
+  <si>
+    <t>appeal for</t>
+  </si>
+  <si>
+    <t>为…呼吁</t>
+  </si>
+  <si>
+    <t>apply for</t>
+  </si>
+  <si>
+    <t>申请</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apply on </t>
+  </si>
+  <si>
+    <t>涂上，敷上</t>
+  </si>
+  <si>
+    <t>see sb/sth through</t>
+  </si>
+  <si>
+    <t>帮助某人渡过难关</t>
+  </si>
+  <si>
+    <t>see through sb/sth</t>
+  </si>
+  <si>
+    <t>看穿，识破某人</t>
+  </si>
+  <si>
+    <t>bring sb through</t>
+  </si>
+  <si>
+    <t>救活，使…脱险</t>
+  </si>
+  <si>
+    <t>convinced sb of sth</t>
+  </si>
+  <si>
+    <t>使sb确信 sth</t>
+  </si>
+  <si>
+    <t>forbid</t>
+  </si>
+  <si>
+    <t>prohibit</t>
+  </si>
+  <si>
+    <t>不许，禁止</t>
+  </si>
+  <si>
+    <t>禁止，不准</t>
+  </si>
+  <si>
+    <t>prohibit + n.doing</t>
+  </si>
+  <si>
+    <t>forbid +n.doing;
+forbid + sb + to do sth.</t>
+  </si>
+  <si>
+    <t>be partucular about</t>
+  </si>
+  <si>
+    <t>对…很挑剔</t>
+  </si>
+  <si>
+    <t>情态动词</t>
+  </si>
+  <si>
+    <t>含蓄</t>
+  </si>
+  <si>
+    <t>现在完成时</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>will</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>shall</t>
+  </si>
+  <si>
+    <t>must</t>
+  </si>
+  <si>
+    <t>dare</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>might</t>
+  </si>
+  <si>
+    <t>should</t>
+  </si>
+  <si>
+    <t>ought to</t>
+  </si>
+  <si>
+    <t>have done</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>could have done</t>
+  </si>
+  <si>
+    <t>would have done</t>
+  </si>
+  <si>
+    <t>might have done</t>
+  </si>
+  <si>
+    <t>should have done</t>
+  </si>
+  <si>
+    <t>ought to have done</t>
+  </si>
+  <si>
+    <t>本能够，但没做。 强调能力</t>
+  </si>
+  <si>
+    <t>本想要，但是没要。 表示意愿</t>
+  </si>
+  <si>
+    <t>本可以，但是没有实现，表推测</t>
+  </si>
+  <si>
+    <t>本应该去做，但是没做，表义务</t>
+  </si>
+  <si>
+    <t>同上</t>
+  </si>
+  <si>
+    <t>need not have done</t>
+  </si>
+  <si>
+    <t>本不需要，但是做了</t>
+  </si>
+  <si>
+    <t>特殊含蓄虚拟语气</t>
+  </si>
+  <si>
+    <t>he could have passed the exam, but he was too careless.(后句表示 含蓄if从句，~= if he were not)</t>
+  </si>
+  <si>
+    <t>I would have told you the story, but you didn't ask me</t>
+  </si>
+  <si>
+    <t>he might have given you more help, even though he was busy</t>
+  </si>
+  <si>
+    <t>he should have phoned me last night</t>
+  </si>
+  <si>
+    <t>we needn't have booked a table.</t>
+  </si>
+  <si>
+    <t>动词 + 副词</t>
+  </si>
+  <si>
+    <t>1. 人称代词</t>
+  </si>
+  <si>
+    <t>动词 + 人称代词 + 副词</t>
+  </si>
+  <si>
+    <t>2. 实意名词</t>
+  </si>
+  <si>
+    <t>动词 + 副词+ 实意名词</t>
+  </si>
+  <si>
+    <t>by no means</t>
+  </si>
+  <si>
+    <t>绝不能</t>
+  </si>
+  <si>
+    <t>by no means + 部分倒装（助动词+主语+动词+..）</t>
+  </si>
+  <si>
+    <t>look down upon</t>
+  </si>
+  <si>
+    <t>看不起</t>
+  </si>
+  <si>
+    <t>look down on</t>
+  </si>
+  <si>
+    <t>看不起；轻视；蔑视</t>
+  </si>
+  <si>
+    <t>cannot help but do</t>
+  </si>
+  <si>
+    <t>不得不，不由得不</t>
+  </si>
+  <si>
+    <t>在你方便的时候</t>
+  </si>
+  <si>
+    <t>whenever it is convenient to you</t>
+  </si>
+  <si>
+    <t>不要受中式英语影响， convenient不可以做人的表语，人不会是方便的， 只能是这个时间对人是方便的</t>
+  </si>
+  <si>
+    <t>Come and see me whenever it is convenient to you</t>
+  </si>
+  <si>
+    <t>定语从句关系词</t>
+  </si>
+  <si>
+    <t>从句关系词</t>
+  </si>
+  <si>
+    <t>情况</t>
+  </si>
+  <si>
+    <t>附属情况</t>
+  </si>
+  <si>
+    <t>代表先行词</t>
+  </si>
+  <si>
+    <t>each</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>普遍接单数名词</t>
+  </si>
+  <si>
+    <t>单三形式</t>
+  </si>
+  <si>
+    <t>复数形式</t>
+  </si>
+  <si>
+    <t>群体名词，既包含男和女 如each person</t>
+  </si>
+  <si>
+    <t>本身做主语</t>
+  </si>
+  <si>
+    <t>表示复数概念 如 they each</t>
+  </si>
+  <si>
+    <t>句型</t>
+  </si>
+  <si>
+    <t>There is much to be said on both side</t>
+  </si>
+  <si>
+    <t>字面含义</t>
+  </si>
+  <si>
+    <t>解释含义</t>
+  </si>
+  <si>
+    <t>都有很多东西可以被说</t>
+  </si>
+  <si>
+    <t>有很多说的</t>
+  </si>
+  <si>
+    <t>There is ………. To be said for</t>
+  </si>
+  <si>
+    <t>--something</t>
+  </si>
+  <si>
+    <t>--nothing</t>
+  </si>
+  <si>
+    <t>--little</t>
+  </si>
+  <si>
+    <t>--plenty</t>
+  </si>
+  <si>
+    <t>for 对于…有道理</t>
+  </si>
+  <si>
+    <t>有一定道理</t>
+  </si>
+  <si>
+    <t>基本上没有道理</t>
+  </si>
+  <si>
+    <t>几乎没有道理</t>
+  </si>
+  <si>
+    <t>很有</t>
+  </si>
+  <si>
+    <t>one of</t>
+  </si>
+  <si>
+    <t>one of+复数形式</t>
+  </si>
+  <si>
+    <t>not so much as do sth、sb to do</t>
+  </si>
+  <si>
+    <t>甚至连….都不肯做</t>
+  </si>
+  <si>
+    <t>状语，修饰动词</t>
+  </si>
+  <si>
+    <t>he did non so much as ask me to sit down</t>
+  </si>
+  <si>
+    <t>特殊结构</t>
+  </si>
+  <si>
+    <t>trouble</t>
+  </si>
+  <si>
+    <t>struggle</t>
+  </si>
+  <si>
+    <t>have + 名词 + (in) +动名词</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>a difficult time</t>
+  </si>
+  <si>
+    <t>a hard time</t>
+  </si>
+  <si>
+    <t>a good time</t>
+  </si>
+  <si>
+    <t>be+形容词+ (in) +动名词</t>
+  </si>
+  <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>hit me up 联系我</t>
+  </si>
+  <si>
+    <t>on the whole</t>
+  </si>
+  <si>
+    <t>各个方面全部（考虑）</t>
+  </si>
+  <si>
+    <t>as a whole</t>
+  </si>
+  <si>
+    <t>独立状语</t>
+  </si>
+  <si>
+    <t>作为一个整体，而不是各个部分</t>
+  </si>
+  <si>
+    <t>后置修饰语</t>
+  </si>
+  <si>
+    <t>but the year as a whole has been a successful one for us.</t>
+  </si>
+  <si>
+    <t>人+ capacity for；
+物+ capacity of + 数量 ~= 多少数量的能力</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eager to do </t>
+  </si>
+  <si>
+    <t>对…渴望</t>
+  </si>
+  <si>
+    <t>content with</t>
+  </si>
+  <si>
+    <t>对..满足</t>
+  </si>
+  <si>
+    <t>热衷于，喜爱..</t>
+  </si>
+  <si>
+    <t>eager for sth</t>
+  </si>
+  <si>
+    <t>anxious for sth</t>
+  </si>
+  <si>
+    <t>anxious  to do</t>
+  </si>
+  <si>
+    <t>渴望，急切做某事</t>
+  </si>
+  <si>
+    <t>渴望，急切, 为…焦虑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be keen on </t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>no match  for sb</t>
+  </si>
+  <si>
+    <t>比不上sb，  match 是n名词</t>
+  </si>
+  <si>
+    <t>you cannot take  enough care, 怎么小心也不为过</t>
+  </si>
+  <si>
+    <t>怎样…（做）都不过分</t>
+  </si>
+  <si>
+    <t>can not do sth enough (adv)</t>
+  </si>
+  <si>
+    <t>be intent on sth/n.doing</t>
+  </si>
+  <si>
+    <t>执意，下定决心</t>
+  </si>
+  <si>
+    <t>be adequate for</t>
+  </si>
+  <si>
+    <t>充分，足够</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be deficient in </t>
+  </si>
+  <si>
+    <t>欠缺，不足的</t>
+  </si>
+  <si>
+    <t>mine, deny , image, delay, put off， postpone</t>
+  </si>
+  <si>
+    <t>deny sth/n.doing</t>
+  </si>
+  <si>
+    <t>反对某事</t>
+  </si>
+  <si>
+    <t>sympathy for</t>
+  </si>
+  <si>
+    <t>同情 ， 名词+for</t>
+  </si>
+  <si>
+    <t>what on earth</t>
+  </si>
+  <si>
+    <t>究竟，到底</t>
+  </si>
+  <si>
+    <t>on earth 表程度状语</t>
+  </si>
+  <si>
+    <t>come to the conclusion</t>
+  </si>
+  <si>
+    <t>draw the conclusion</t>
+  </si>
+  <si>
+    <t>come  to the point</t>
+  </si>
+  <si>
+    <t>come to the undestanding that</t>
+  </si>
+  <si>
+    <t>得出了结论</t>
+  </si>
+  <si>
+    <t>回到正题</t>
+  </si>
+  <si>
+    <t>达成谅解</t>
+  </si>
+  <si>
+    <t>devote for</t>
+  </si>
+  <si>
+    <t>专注于某事</t>
+  </si>
+  <si>
+    <t>address sb on sth</t>
+  </si>
+  <si>
+    <t>向sb 演讲关于某事</t>
+  </si>
+  <si>
+    <t>call up</t>
+  </si>
+  <si>
+    <t>call off</t>
+  </si>
+  <si>
+    <t>call for</t>
+  </si>
+  <si>
+    <t>call on</t>
+  </si>
+  <si>
+    <t>拜访</t>
+  </si>
+  <si>
+    <t>打电话，召集</t>
+  </si>
+  <si>
+    <t>取消，停止</t>
+  </si>
+  <si>
+    <t>要求，需求</t>
+  </si>
+  <si>
+    <t>in time</t>
+  </si>
+  <si>
+    <t>按时，及时，迟早</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all the time </t>
+  </si>
+  <si>
+    <t>(某段时间）一直，始终</t>
+  </si>
+  <si>
+    <t>at times</t>
+  </si>
+  <si>
+    <t>偶尔，有时</t>
+  </si>
+  <si>
+    <t>on time</t>
+  </si>
+  <si>
+    <t>准时，指定时间</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>in time 按时，及时，迟早，终于</t>
+  </si>
+  <si>
+    <t>at times 偶尔，有时</t>
+  </si>
+  <si>
+    <t>on time 准时，指定时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">think of </t>
+  </si>
+  <si>
+    <t>想起，想到</t>
+  </si>
+  <si>
+    <t xml:space="preserve">think of sb as </t>
+  </si>
+  <si>
+    <t>认为sb是…；把......看作：</t>
+  </si>
+  <si>
+    <t>run across</t>
+  </si>
+  <si>
+    <t>碰巧遇见，</t>
+  </si>
+  <si>
+    <t>something of= sort of 有点， 算是</t>
+  </si>
+  <si>
+    <t>something of</t>
+  </si>
+  <si>
+    <t>有点，算是</t>
+  </si>
+  <si>
+    <t>sort of</t>
+  </si>
+  <si>
+    <t>I  am sonething of a carpenter</t>
+  </si>
+  <si>
+    <t>much of a n.名词</t>
+  </si>
+  <si>
+    <t>称得上，的确是</t>
+  </si>
+  <si>
+    <t>last person [to do sth]/ that 从句</t>
+  </si>
+  <si>
+    <t>1. 最不可能的，= the least likely</t>
+  </si>
+  <si>
+    <t>2. 最后一个人做什么是</t>
+  </si>
+  <si>
+    <t>when it comes to sth</t>
+  </si>
+  <si>
+    <t>当涉及到…</t>
+  </si>
+  <si>
+    <t>被指控为sth</t>
+  </si>
+  <si>
+    <t>be ascused of sth</t>
+  </si>
+  <si>
+    <t>must have done</t>
+  </si>
+  <si>
+    <t>一定做了，表对过去的推测</t>
+  </si>
+  <si>
+    <t>could not</t>
+  </si>
+  <si>
+    <t>could not have done</t>
+  </si>
+  <si>
+    <t>表示不可能做，对过去的推测</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4097,6 +4890,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4199,7 +5000,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4292,7 +5093,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4325,6 +5125,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4369,9 +5172,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4380,6 +5181,79 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4664,8 +5538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4709,7 +5583,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="67.5" customHeight="1">
@@ -4717,7 +5591,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>27</v>
+        <v>802</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>10</v>
@@ -4765,7 +5639,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>11</v>
@@ -4777,7 +5651,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>21</v>
@@ -4816,7 +5690,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F19" s="4"/>
     </row>
@@ -4866,13 +5740,3047 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C86"/>
+  <sheetViews>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="52.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="74" style="15" customWidth="1"/>
+    <col min="2" max="2" width="52.42578125" style="15"/>
+    <col min="3" max="3" width="70.7109375" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="52.42578125" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="27.75">
+      <c r="A2" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45">
+      <c r="A6" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30">
+      <c r="A8" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="27.75">
+      <c r="A9" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30">
+      <c r="A10" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30">
+      <c r="A12" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30">
+      <c r="A19" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="16"/>
+    </row>
+    <row r="20" spans="1:3" ht="30">
+      <c r="A20" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="25.5">
+      <c r="A21" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="60">
+      <c r="A26" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30">
+      <c r="A27" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="25.5">
+      <c r="A28" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="36">
+      <c r="A29" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="25.5">
+      <c r="A30" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="25.5">
+      <c r="A31" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="16"/>
+      <c r="B32" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="45">
+      <c r="A39" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30">
+      <c r="A41" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" s="45" customFormat="1">
+      <c r="A79" s="21" t="s">
+        <v>571</v>
+      </c>
+      <c r="B79" s="45" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="C86" s="45"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E205"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="54.28515625" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="1:5" ht="32.25" customHeight="1">
+      <c r="A4" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:5" ht="30">
+      <c r="A5" s="29" t="s">
+        <v>458</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="23" t="s">
+        <v>743</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>745</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>744</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>747</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="31"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="6" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30">
+      <c r="A29" s="23" t="s">
+        <v>601</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>602</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>607</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>608</v>
+      </c>
+      <c r="E29" s="25"/>
+    </row>
+    <row r="30" spans="1:5" ht="60">
+      <c r="A30" s="29" t="s">
+        <v>603</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>604</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>605</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>612</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>613</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="26" t="s">
+        <v>614</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>615</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>616</v>
+      </c>
+      <c r="D32" s="28"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" s="57" customFormat="1">
+      <c r="A33" s="63"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="64" t="s">
+        <v>617</v>
+      </c>
+      <c r="D33" s="64"/>
+      <c r="E33" s="65" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="57" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A34" s="63"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64" t="s">
+        <v>626</v>
+      </c>
+      <c r="D34" s="64"/>
+      <c r="E34" s="65" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="58" customFormat="1" ht="45">
+      <c r="A35" s="66" t="s">
+        <v>619</v>
+      </c>
+      <c r="B35" s="67" t="s">
+        <v>620</v>
+      </c>
+      <c r="C35" s="67" t="s">
+        <v>950</v>
+      </c>
+      <c r="D35" s="67"/>
+      <c r="E35" s="68" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="58" customFormat="1" ht="30">
+      <c r="A36" s="69" t="s">
+        <v>622</v>
+      </c>
+      <c r="B36" s="70" t="s">
+        <v>623</v>
+      </c>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="71" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="58" customFormat="1"/>
+    <row r="38" spans="1:5" s="58" customFormat="1" ht="60">
+      <c r="A38" s="72" t="s">
+        <v>643</v>
+      </c>
+      <c r="B38" s="73" t="s">
+        <v>649</v>
+      </c>
+      <c r="C38" s="73" t="s">
+        <v>646</v>
+      </c>
+      <c r="D38" s="73"/>
+      <c r="E38" s="74" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="58" customFormat="1" ht="90">
+      <c r="A39" s="69" t="s">
+        <v>645</v>
+      </c>
+      <c r="B39" s="70" t="s">
+        <v>648</v>
+      </c>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="71" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="58" customFormat="1"/>
+    <row r="41" spans="1:5" s="58" customFormat="1">
+      <c r="A41" s="58" t="s">
+        <v>793</v>
+      </c>
+      <c r="B41" s="58" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="58" customFormat="1">
+      <c r="A42" s="58" t="s">
+        <v>794</v>
+      </c>
+      <c r="B42" s="58" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="58" customFormat="1">
+      <c r="A43" s="58" t="s">
+        <v>795</v>
+      </c>
+      <c r="B43" s="58" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="58" customFormat="1" ht="30">
+      <c r="A44" s="58" t="s">
+        <v>799</v>
+      </c>
+      <c r="B44" s="58" t="s">
+        <v>801</v>
+      </c>
+      <c r="E44" s="58" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="58" customFormat="1"/>
+    <row r="46" spans="1:5" s="58" customFormat="1"/>
+    <row r="47" spans="1:5" s="58" customFormat="1">
+      <c r="A47" s="58" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="58" customFormat="1" ht="30">
+      <c r="A48" s="58" t="s">
+        <v>628</v>
+      </c>
+      <c r="B48" s="58" t="s">
+        <v>630</v>
+      </c>
+      <c r="C48" s="58" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="58" customFormat="1" ht="30">
+      <c r="A49" s="58" t="s">
+        <v>631</v>
+      </c>
+      <c r="B49" s="58" t="s">
+        <v>632</v>
+      </c>
+      <c r="C49" s="58" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="58" customFormat="1"/>
+    <row r="51" spans="1:4" s="58" customFormat="1"/>
+    <row r="52" spans="1:4" s="58" customFormat="1"/>
+    <row r="53" spans="1:4" s="58" customFormat="1"/>
+    <row r="54" spans="1:4" s="58" customFormat="1"/>
+    <row r="55" spans="1:4" s="58" customFormat="1"/>
+    <row r="56" spans="1:4">
+      <c r="A56" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="C60" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="C61" s="51"/>
+      <c r="D61" s="6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C62" s="51"/>
+      <c r="D62" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C63" s="51"/>
+      <c r="D63" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="6" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="30">
+      <c r="A70" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="6" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="6" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="30">
+      <c r="A82" s="23" t="s">
+        <v>804</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>805</v>
+      </c>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="25"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="29" t="s">
+        <v>806</v>
+      </c>
+      <c r="B83" s="30" t="s">
+        <v>807</v>
+      </c>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="31"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="6" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="23" t="s">
+        <v>764</v>
+      </c>
+      <c r="B90" s="24" t="s">
+        <v>765</v>
+      </c>
+      <c r="C90" s="24" t="s">
+        <v>766</v>
+      </c>
+      <c r="D90" s="24"/>
+      <c r="E90" s="25"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="29" t="s">
+        <v>767</v>
+      </c>
+      <c r="B91" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="C91" s="30" t="s">
+        <v>770</v>
+      </c>
+      <c r="D91" s="75" t="s">
+        <v>769</v>
+      </c>
+      <c r="E91" s="31"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="6" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="30">
+      <c r="A99" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="45">
+      <c r="A102" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="45">
+      <c r="A103" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="60">
+      <c r="A115" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="60">
+      <c r="A116" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="B117" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="C117" s="24"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="25"/>
+    </row>
+    <row r="118" spans="1:5" ht="30">
+      <c r="A118" s="26"/>
+      <c r="B118" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="C118" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="D118" s="28"/>
+      <c r="E118" s="22" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="26"/>
+      <c r="B119" s="28" t="s">
+        <v>788</v>
+      </c>
+      <c r="C119" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="D119" s="28"/>
+      <c r="E119" s="22" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="30">
+      <c r="A120" s="26"/>
+      <c r="B120" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="C120" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="D120" s="28"/>
+      <c r="E120" s="22" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="30">
+      <c r="A121" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="B121" s="28" t="s">
+        <v>789</v>
+      </c>
+      <c r="C121" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="D121" s="28"/>
+      <c r="E121" s="22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="26"/>
+      <c r="B122" s="28"/>
+      <c r="C122" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="D122" s="28"/>
+      <c r="E122" s="22"/>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="B123" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="C123" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="D123" s="30"/>
+      <c r="E123" s="31" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="30">
+      <c r="A127" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="30">
+      <c r="A128" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="30">
+      <c r="A129" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="45">
+      <c r="A130" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="30">
+      <c r="A136" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="B155" s="24" t="s">
+        <v>750</v>
+      </c>
+      <c r="C155" s="25"/>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="26"/>
+      <c r="B156" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="C156" s="22" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="30">
+      <c r="A157" s="26"/>
+      <c r="B157" s="28" t="s">
+        <v>752</v>
+      </c>
+      <c r="C157" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="30">
+      <c r="A158" s="26"/>
+      <c r="B158" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="C158" s="22" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="B159" s="28" t="s">
+        <v>751</v>
+      </c>
+      <c r="C159" s="22"/>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="26"/>
+      <c r="B160" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="C160" s="22" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="29"/>
+      <c r="B161" s="30" t="s">
+        <v>753</v>
+      </c>
+      <c r="C161" s="31" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="45">
+      <c r="A163" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="45">
+      <c r="A171" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A193" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="30">
+      <c r="A195" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="51"/>
+      <c r="B196" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="E196" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="51"/>
+      <c r="B197" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="51"/>
+      <c r="B198" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="E198" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="51"/>
+      <c r="B199" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E199" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="51"/>
+      <c r="B200" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="E200" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="51"/>
+      <c r="B201" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E201" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="51"/>
+      <c r="B202" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="E202" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="51"/>
+      <c r="B203" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="E203" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="51"/>
+      <c r="B204" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="E204" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="51"/>
+      <c r="B205" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="A195:A205"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23:XFD30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="B127" s="2" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="79" t="s">
+        <v>704</v>
+      </c>
+      <c r="B156" s="80" t="s">
+        <v>711</v>
+      </c>
+      <c r="C156" s="80"/>
+      <c r="D156" s="80"/>
+      <c r="E156" s="81"/>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="82" t="s">
+        <v>705</v>
+      </c>
+      <c r="B157" s="83" t="s">
+        <v>706</v>
+      </c>
+      <c r="C157" s="83"/>
+      <c r="D157" s="83"/>
+      <c r="E157" s="84"/>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="82" t="s">
+        <v>710</v>
+      </c>
+      <c r="B158" s="83" t="s">
+        <v>707</v>
+      </c>
+      <c r="C158" s="83"/>
+      <c r="D158" s="83"/>
+      <c r="E158" s="84"/>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="82" t="s">
+        <v>708</v>
+      </c>
+      <c r="B159" s="83" t="s">
+        <v>709</v>
+      </c>
+      <c r="C159" s="83"/>
+      <c r="D159" s="83"/>
+      <c r="E159" s="84"/>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="85"/>
+      <c r="B160" s="86"/>
+      <c r="C160" s="86"/>
+      <c r="D160" s="86"/>
+      <c r="E160" s="87"/>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="105">
+      <c r="A197" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="79" t="s">
+        <v>943</v>
+      </c>
+      <c r="B198" s="80" t="s">
+        <v>944</v>
+      </c>
+      <c r="C198" s="80" t="s">
+        <v>946</v>
+      </c>
+      <c r="D198" s="81"/>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="85" t="s">
+        <v>945</v>
+      </c>
+      <c r="B199" s="86" t="s">
+        <v>947</v>
+      </c>
+      <c r="C199" s="86" t="s">
+        <v>948</v>
+      </c>
+      <c r="D199" s="87" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>981</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E48" sqref="E48"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4889,426 +8797,426 @@
   <sheetData>
     <row r="1" spans="1:7" s="52" customFormat="1">
       <c r="A1" s="52" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="45">
       <c r="A2" s="52" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="52" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="52" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="C5" s="45" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="52" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="C7" s="45" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="52" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="45"/>
       <c r="B9" s="52" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="C10" s="45" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E10" s="45" t="s">
+        <v>544</v>
+      </c>
+      <c r="F10" s="45" t="s">
         <v>548</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" s="52" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" s="52" t="s">
+        <v>532</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>534</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>535</v>
+      </c>
+      <c r="F12" s="45" t="s">
         <v>536</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>538</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>539</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="144.75" customHeight="1">
       <c r="A13" s="52" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="B14" s="52" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="C15" s="45" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="C16" s="45" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="56" customFormat="1" ht="135">
       <c r="A17" s="55"/>
       <c r="B17" s="55"/>
       <c r="C17" s="56" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E17" s="56" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="C18" s="45" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="C19" s="45" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="B20" s="52" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="C21" s="45" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="C22" s="45" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="C23" s="45" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="B24" s="52" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="C25" s="45" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="C26" s="45" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F26" s="45" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="C27" s="45" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="C28" s="45" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="C29" s="45" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="C30" s="45" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="B31" s="52" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="C32" s="45" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="C33" s="45" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="C34" s="45" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="C35" s="45" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="B36" s="52" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C36" s="45" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D36" s="45" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="C37" s="45" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D37" s="45" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="C38" s="45" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D38" s="45" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="C39" s="45" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D39" s="45" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="C40" s="45" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D40" s="45" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="B41" s="52" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D41" s="45" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="C42" s="45" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D42" s="45" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="C43" s="45" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="C44" s="45" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="B45" s="52" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C45" s="45" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="B46" s="52" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C46" s="45" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="255">
       <c r="A47" s="52" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E47" s="45" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F47" s="45" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G47" s="53" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -5320,12 +9228,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5339,125 +9247,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="33"/>
-      <c r="B1" s="42" t="s">
+      <c r="A1" s="32"/>
+      <c r="B1" s="41" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>418</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="84" customHeight="1">
+      <c r="A2" s="35" t="s">
         <v>420</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="B2" s="36" t="s">
         <v>421</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="C2" s="36" t="s">
         <v>422</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="D2" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="45" customFormat="1" ht="84" customHeight="1">
+      <c r="A3" s="35" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E3" s="37"/>
+    </row>
+    <row r="4" spans="1:5" ht="135">
+      <c r="A4" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="D4" s="36" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="84" customHeight="1">
-      <c r="A2" s="36" t="s">
-        <v>423</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>424</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>425</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>426</v>
-      </c>
-      <c r="E2" s="38" t="s">
+      <c r="E4" s="37" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="38" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="135">
-      <c r="A3" s="36" t="s">
-        <v>427</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>428</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>429</v>
-      </c>
-      <c r="D3" s="37" t="s">
+      <c r="B5" s="39" t="s">
+        <v>432</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39" t="s">
         <v>433</v>
       </c>
-      <c r="E3" s="38" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="39" t="s">
+      <c r="E5" s="40"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="32"/>
+      <c r="B8" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>434</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="D8" s="34" t="s">
         <v>435</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40" t="s">
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="E4" s="41"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="C7" s="34" t="s">
+      <c r="B9" s="36" t="s">
+        <v>439</v>
+      </c>
+      <c r="C9" s="36" t="s">
         <v>437</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D9" s="37" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="35" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="36" t="s">
-        <v>439</v>
-      </c>
-      <c r="B8" s="37" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="36" t="s">
+        <v>440</v>
+      </c>
+      <c r="D12" s="37" t="s">
         <v>442</v>
       </c>
-      <c r="C8" s="37" t="s">
-        <v>440</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="36"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="36" t="s">
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39" t="s">
         <v>441</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40" t="s">
+      <c r="D13" s="40" t="s">
         <v>444</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -5467,10 +9390,279 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="37.28515625" customWidth="1"/>
+    <col min="6" max="6" width="115.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>845</v>
+      </c>
+      <c r="B2" t="s">
+        <v>846</v>
+      </c>
+      <c r="C2" t="s">
+        <v>847</v>
+      </c>
+      <c r="E2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>848</v>
+      </c>
+      <c r="B3" t="s">
+        <v>854</v>
+      </c>
+      <c r="C3" t="s">
+        <v>859</v>
+      </c>
+      <c r="D3" t="s">
+        <v>861</v>
+      </c>
+      <c r="E3" t="s">
+        <v>866</v>
+      </c>
+      <c r="F3" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C4" t="s">
+        <v>859</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>849</v>
+      </c>
+      <c r="B5" t="s">
+        <v>855</v>
+      </c>
+      <c r="C5" t="s">
+        <v>859</v>
+      </c>
+      <c r="D5" t="s">
+        <v>862</v>
+      </c>
+      <c r="E5" t="s">
+        <v>867</v>
+      </c>
+      <c r="F5" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>850</v>
+      </c>
+      <c r="B6" t="s">
+        <v>856</v>
+      </c>
+      <c r="C6" t="s">
+        <v>859</v>
+      </c>
+      <c r="D6" t="s">
+        <v>863</v>
+      </c>
+      <c r="E6" t="s">
+        <v>868</v>
+      </c>
+      <c r="F6" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>851</v>
+      </c>
+      <c r="B7" t="s">
+        <v>857</v>
+      </c>
+      <c r="C7" t="s">
+        <v>859</v>
+      </c>
+      <c r="D7" t="s">
+        <v>864</v>
+      </c>
+      <c r="E7" t="s">
+        <v>869</v>
+      </c>
+      <c r="F7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" t="s">
+        <v>858</v>
+      </c>
+      <c r="C8" t="s">
+        <v>859</v>
+      </c>
+      <c r="D8" t="s">
+        <v>865</v>
+      </c>
+      <c r="E8" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>852</v>
+      </c>
+      <c r="C9" t="s">
+        <v>859</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B10" t="s">
+        <v>860</v>
+      </c>
+      <c r="C10" t="s">
+        <v>859</v>
+      </c>
+      <c r="D10" t="s">
+        <v>871</v>
+      </c>
+      <c r="E10" t="s">
+        <v>872</v>
+      </c>
+      <c r="F10" t="s">
+        <v>878</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="4" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75">
+      <c r="A1" s="76" t="s">
+        <v>910</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>912</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>911</v>
+      </c>
+      <c r="B2" t="s">
+        <v>914</v>
+      </c>
+      <c r="C2" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>916</v>
+      </c>
+      <c r="B3" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="59" t="s">
+        <v>917</v>
+      </c>
+      <c r="B4" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="59" t="s">
+        <v>918</v>
+      </c>
+      <c r="B5" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="59" t="s">
+        <v>919</v>
+      </c>
+      <c r="B6" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="59" t="s">
+        <v>920</v>
+      </c>
+      <c r="B7" t="s">
+        <v>925</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5481,64 +9673,64 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4" t="s">
         <v>307</v>
-      </c>
-      <c r="C4" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" t="s">
         <v>309</v>
-      </c>
-      <c r="C6" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B9" s="47"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B12" s="47"/>
     </row>
@@ -5551,131 +9743,47 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="B1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C1" t="s">
-        <v>390</v>
+      <c r="D1" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>879</v>
+      </c>
       <c r="B2" t="s">
-        <v>389</v>
+        <v>880</v>
       </c>
       <c r="C2" t="s">
-        <v>391</v>
+        <v>881</v>
       </c>
     </row>
     <row r="3" spans="1:4">
+      <c r="B3" t="s">
+        <v>882</v>
+      </c>
       <c r="C3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="C4" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="C5" t="s">
-        <v>394</v>
-      </c>
-      <c r="D5" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="32" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="32" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="32" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="32" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="32" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="32" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="32" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="32" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
-        <v>410</v>
+        <v>883</v>
+      </c>
+      <c r="D3" t="s">
+        <v>942</v>
       </c>
     </row>
   </sheetData>
@@ -5683,12 +9791,195 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:E14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" style="78" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="78" t="s">
+        <v>385</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="C3" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="C5" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="78" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="78" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="78" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="78" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="2" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="78" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="78" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" s="78" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" s="78" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="78" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" s="78" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" s="77" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" s="77" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" s="77" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" s="77" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" s="77" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" s="77" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" s="78" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="77" t="s">
+        <v>941</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5703,198 +9994,215 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="48" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C1" s="48"/>
       <c r="D1" s="48" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="46" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="D4" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="A6" s="46" t="s">
+        <v>372</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>376</v>
-      </c>
       <c r="F6" s="51" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F7" s="51"/>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>379</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>381</v>
       </c>
       <c r="F8" s="51"/>
     </row>
     <row r="9" spans="1:6" ht="30">
       <c r="B9" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F9" s="51"/>
     </row>
     <row r="10" spans="1:6" ht="30">
       <c r="B10" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F10" s="51"/>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F11" s="51"/>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F12" s="51"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" ht="40.5" customHeight="1">
-      <c r="B14" s="49" t="s">
-        <v>419</v>
-      </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
+      <c r="E13" s="43" t="s">
+        <v>927</v>
+      </c>
+      <c r="F13" s="45"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="D14" s="50" t="s">
+        <v>1019</v>
+      </c>
       <c r="E14" s="50"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="46" t="s">
+      <c r="F14" s="45"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" ht="40.5" customHeight="1">
+      <c r="B16" s="49" t="s">
+        <v>416</v>
+      </c>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="46" t="s">
+        <v>447</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="46" t="s">
+        <v>450</v>
+      </c>
+      <c r="B21" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="46" t="s">
-        <v>454</v>
-      </c>
-      <c r="B19" s="50" t="s">
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+    </row>
+    <row r="24" spans="1:5" ht="60">
+      <c r="A24" s="46" t="s">
         <v>455</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-    </row>
-    <row r="22" spans="1:5" ht="60">
-      <c r="A22" s="46" t="s">
-        <v>459</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>460</v>
+      <c r="D24" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="F6:F12"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5907,70 +10215,177 @@
     <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30">
+    <row r="1" spans="1:5">
       <c r="B1" s="44" t="s">
-        <v>374</v>
+        <v>899</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>741</v>
+        <v>477</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>742</v>
+        <v>900</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1">
       <c r="A2" s="61" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>744</v>
+        <v>738</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>736</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1">
       <c r="A3" s="61"/>
       <c r="B3" s="6" t="s">
-        <v>746</v>
+        <v>740</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>736</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>745</v>
+        <v>739</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1">
       <c r="A4" s="61"/>
       <c r="B4" s="6" t="s">
-        <v>747</v>
+        <v>741</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>736</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>745</v>
-      </c>
+        <v>739</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="C5" s="60"/>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="62" t="s">
-        <v>767</v>
+        <v>761</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>736</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="62"/>
+      <c r="C7" s="60" t="s">
+        <v>736</v>
+      </c>
       <c r="D7" s="6" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="6" t="s">
+        <v>926</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>903</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>901</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="D15" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30">
+      <c r="C18" s="6" t="s">
+        <v>903</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45">
+      <c r="C19" s="6" t="s">
+        <v>903</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>907</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30">
+      <c r="D20" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>906</v>
       </c>
     </row>
   </sheetData>
@@ -5983,12 +10398,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6002,2487 +10417,197 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30">
       <c r="A1" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>255</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C83"/>
-  <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="52.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="74" style="15" customWidth="1"/>
-    <col min="2" max="2" width="52.42578125" style="15"/>
-    <col min="3" max="3" width="70.7109375" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="52.42578125" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="27.75">
-      <c r="A2" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="45">
-      <c r="A6" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30">
-      <c r="A8" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="27.75">
-      <c r="A9" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30">
-      <c r="A10" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30">
-      <c r="A12" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="30">
-      <c r="A19" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="16"/>
-    </row>
-    <row r="20" spans="1:3" ht="30">
-      <c r="A20" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="25.5">
-      <c r="A21" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="60">
-      <c r="A26" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="30">
-      <c r="A27" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="25.5">
-      <c r="A28" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="36">
-      <c r="A29" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="25.5">
-      <c r="A30" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="25.5">
-      <c r="A31" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="45">
-      <c r="A39" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="30">
-      <c r="A41" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="21" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="21" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="20" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="20" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="B78" s="15" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" s="45" customFormat="1">
-      <c r="A79" s="21" t="s">
-        <v>575</v>
-      </c>
-      <c r="B79" s="45" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="20" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="B81" s="15" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="B83" s="15" t="s">
-        <v>210</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E157"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B58" sqref="B58"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="21.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="52.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="54.28515625" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="32.25" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="6" t="s">
-        <v>749</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>750</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="6" t="s">
-        <v>752</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>750</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="60">
-      <c r="A14" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="6" t="s">
-        <v>618</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="57" customFormat="1">
-      <c r="C18" s="57" t="s">
-        <v>621</v>
-      </c>
-      <c r="E18" s="57" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="57" customFormat="1" ht="32.25" customHeight="1">
-      <c r="C19" s="57" t="s">
-        <v>631</v>
-      </c>
-      <c r="E19" s="57" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="58" customFormat="1">
-      <c r="A20" s="58" t="s">
-        <v>623</v>
-      </c>
-      <c r="B20" s="58" t="s">
-        <v>624</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>625</v>
-      </c>
-      <c r="E20" s="58" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="58" customFormat="1" ht="30">
-      <c r="A21" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="B21" s="58" t="s">
-        <v>628</v>
-      </c>
-      <c r="E21" s="58" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="58" customFormat="1"/>
-    <row r="23" spans="1:5" s="58" customFormat="1" ht="60">
-      <c r="A23" s="58" t="s">
-        <v>648</v>
-      </c>
-      <c r="B23" s="58" t="s">
-        <v>654</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>651</v>
-      </c>
-      <c r="E23" s="59" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="58" customFormat="1" ht="90">
-      <c r="A24" s="58" t="s">
-        <v>650</v>
-      </c>
-      <c r="B24" s="58" t="s">
-        <v>653</v>
-      </c>
-      <c r="E24" s="58" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="58" customFormat="1"/>
-    <row r="26" spans="1:5" s="58" customFormat="1"/>
-    <row r="27" spans="1:5" s="58" customFormat="1">
-      <c r="A27" s="58" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="58" customFormat="1" ht="30">
-      <c r="A28" s="58" t="s">
-        <v>633</v>
-      </c>
-      <c r="B28" s="58" t="s">
-        <v>635</v>
-      </c>
-      <c r="C28" s="58" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="58" customFormat="1" ht="30">
-      <c r="A29" s="58" t="s">
-        <v>636</v>
-      </c>
-      <c r="B29" s="58" t="s">
-        <v>637</v>
-      </c>
-      <c r="C29" s="58" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="58" customFormat="1"/>
-    <row r="31" spans="1:5" s="58" customFormat="1"/>
-    <row r="32" spans="1:5" s="58" customFormat="1"/>
-    <row r="33" spans="1:4" s="58" customFormat="1"/>
-    <row r="34" spans="1:4" s="58" customFormat="1"/>
-    <row r="35" spans="1:4" s="58" customFormat="1"/>
-    <row r="36" spans="1:4">
-      <c r="A36" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="C40" s="51" t="s">
-        <v>293</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="6" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="6" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="6" t="s">
-        <v>718</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="6" t="s">
-        <v>721</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="6" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>771</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="6" t="s">
-        <v>773</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>777</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="6" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="30">
-      <c r="A65" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="45">
-      <c r="A68" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="45">
-      <c r="A69" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="60">
-      <c r="A76" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="60">
-      <c r="A77" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="30">
-      <c r="B79" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="B80" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="30">
-      <c r="B81" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="30">
-      <c r="A82" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="C83" s="6" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="6" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="30">
-      <c r="A88" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="30">
-      <c r="A89" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="30">
-      <c r="A90" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="45">
-      <c r="A91" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="6" t="s">
-        <v>657</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>658</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="6" t="s">
-        <v>660</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="6" t="s">
-        <v>681</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="30">
-      <c r="A97" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="6" t="s">
-        <v>728</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="6" t="s">
-        <v>730</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="B116" s="24" t="s">
-        <v>756</v>
-      </c>
-      <c r="C116" s="25"/>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="26"/>
-      <c r="B117" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="C117" s="22" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="30">
-      <c r="A118" s="26"/>
-      <c r="B118" s="28" t="s">
-        <v>758</v>
-      </c>
-      <c r="C118" s="22" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="30">
-      <c r="A119" s="26"/>
-      <c r="B119" s="28" t="s">
-        <v>327</v>
-      </c>
-      <c r="C119" s="22" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="B120" s="28" t="s">
-        <v>757</v>
-      </c>
-      <c r="C120" s="22"/>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="26"/>
-      <c r="B121" s="28" t="s">
-        <v>323</v>
-      </c>
-      <c r="C121" s="22" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="29"/>
-      <c r="B122" s="30" t="s">
-        <v>759</v>
-      </c>
-      <c r="C122" s="31" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="45">
-      <c r="A124" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>754</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A145" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="30">
-      <c r="A147" s="51" t="s">
-        <v>329</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="51"/>
-      <c r="B148" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="E148" s="6" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="51"/>
-      <c r="B149" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="E149" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="51"/>
-      <c r="B150" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="D150" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="E150" s="6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="51"/>
-      <c r="B151" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="E151" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="51"/>
-      <c r="B152" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="E152" s="6" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="51"/>
-      <c r="B153" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="E153" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="51"/>
-      <c r="B154" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="D154" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="E154" s="6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155" s="51"/>
-      <c r="B155" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="E155" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="51"/>
-      <c r="B156" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="E156" s="6" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="51"/>
-      <c r="B157" s="6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="A147:A157"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D88"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>578</v>
-      </c>
-      <c r="B1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C1" t="s">
-        <v>579</v>
-      </c>
-      <c r="D1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>664</v>
-      </c>
-      <c r="B3" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>666</v>
-      </c>
-      <c r="B4" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>690</v>
-      </c>
-      <c r="B6" t="s">
-        <v>691</v>
-      </c>
-      <c r="C6" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>692</v>
-      </c>
-      <c r="B7" t="s">
-        <v>693</v>
-      </c>
-      <c r="C7" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>582</v>
-      </c>
-      <c r="B13" t="s">
-        <v>583</v>
-      </c>
-      <c r="C13" t="s">
-        <v>584</v>
-      </c>
-      <c r="D13" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>676</v>
-      </c>
-      <c r="B14" t="s">
-        <v>677</v>
-      </c>
-      <c r="D14" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>696</v>
-      </c>
-      <c r="B16" t="s">
-        <v>695</v>
-      </c>
-      <c r="C16" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>697</v>
-      </c>
-      <c r="B17" t="s">
-        <v>698</v>
-      </c>
-      <c r="C17" t="s">
-        <v>694</v>
-      </c>
-      <c r="D17" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>700</v>
-      </c>
-      <c r="B18" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>702</v>
-      </c>
-      <c r="B19" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>704</v>
-      </c>
-      <c r="B20" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>722</v>
-      </c>
-      <c r="B23" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>779</v>
-      </c>
-      <c r="B24" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>737</v>
-      </c>
-      <c r="B29" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>668</v>
-      </c>
-      <c r="B31" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>670</v>
-      </c>
-      <c r="B32" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>671</v>
-      </c>
-      <c r="B33" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>672</v>
-      </c>
-      <c r="B34" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>735</v>
-      </c>
-      <c r="B36" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="C40" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="B41" t="s">
-        <v>686</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="B42" t="s">
-        <v>688</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2"/>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2"/>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="B46" t="s">
-        <v>708</v>
-      </c>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="2"/>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="C54" s="2"/>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>722</v>
-      </c>
-      <c r="B62" t="s">
-        <v>723</v>
-      </c>
-      <c r="C62" s="2"/>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="C63" s="2"/>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="D65" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
-        <v>587</v>
-      </c>
-      <c r="B73" t="s">
-        <v>588</v>
-      </c>
-      <c r="C73" t="s">
-        <v>589</v>
-      </c>
-      <c r="D73" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
-        <v>709</v>
-      </c>
-      <c r="B74" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
-        <v>710</v>
-      </c>
-      <c r="B75" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
-        <v>715</v>
-      </c>
-      <c r="B76" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>713</v>
-      </c>
-      <c r="B77" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>639</v>
-      </c>
-      <c r="B83" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>655</v>
-      </c>
-      <c r="B84" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>683</v>
-      </c>
-      <c r="B88" t="s">
-        <v>684</v>
       </c>
     </row>
   </sheetData>

--- a/语法总结.xlsx
+++ b/语法总结.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="2550" tabRatio="736" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="2550" tabRatio="736" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="系动词" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="1343">
   <si>
     <t xml:space="preserve">状态系动词 </t>
   </si>
@@ -2225,12 +2225,6 @@
     <t>Australia had 15 times sheep more than it had people</t>
   </si>
   <si>
-    <t>4. increase/decrease N times/fold</t>
-  </si>
-  <si>
-    <t>4. increase/decrease N / double/triple</t>
-  </si>
-  <si>
     <t>含义</t>
   </si>
   <si>
@@ -2379,12 +2373,6 @@
   </si>
   <si>
     <t>1. 值多少钱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">worth sth/ doing sth </t>
-  </si>
-  <si>
-    <t>worth a visit / worth condering</t>
   </si>
   <si>
     <t xml:space="preserve">xxx(金额，时间) worth of sth </t>
@@ -3091,9 +3079,6 @@
   </si>
   <si>
     <t>but</t>
-  </si>
-  <si>
-    <t>to add an oppsite idea</t>
   </si>
   <si>
     <t>most of my fridends have dogs, but Ann has a cat</t>
@@ -3772,9 +3757,6 @@
     <t>pull in + sth</t>
   </si>
   <si>
-    <t>脱离危险，恢复健康</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
@@ -4017,9 +3999,6 @@
     <t>特别地</t>
   </si>
   <si>
-    <t>2. 值得做，有价值被。。 -- 主动表被动</t>
-  </si>
-  <si>
     <t>adj. 做什么是 值得的</t>
   </si>
   <si>
@@ -4341,9 +4320,6 @@
     <t>whenever it is convenient to you</t>
   </si>
   <si>
-    <t>不要受中式英语影响， convenient不可以做人的表语，人不会是方便的， 只能是这个时间对人是方便的</t>
-  </si>
-  <si>
     <t>Come and see me whenever it is convenient to you</t>
   </si>
   <si>
@@ -4440,16 +4416,7 @@
     <t>one of+复数形式</t>
   </si>
   <si>
-    <t>not so much as do sth、sb to do</t>
-  </si>
-  <si>
-    <t>甚至连….都不肯做</t>
-  </si>
-  <si>
     <t>状语，修饰动词</t>
-  </si>
-  <si>
-    <t>he did non so much as ask me to sit down</t>
   </si>
   <si>
     <t>特殊结构</t>
@@ -4579,9 +4546,6 @@
     <t>欠缺，不足的</t>
   </si>
   <si>
-    <t>mine, deny , image, delay, put off， postpone</t>
-  </si>
-  <si>
     <t>deny sth/n.doing</t>
   </si>
   <si>
@@ -4663,9 +4627,6 @@
     <t>in time</t>
   </si>
   <si>
-    <t>按时，及时，迟早</t>
-  </si>
-  <si>
     <t xml:space="preserve">all the time </t>
   </si>
   <si>
@@ -4708,9 +4669,6 @@
     <t>认为sb是…；把......看作：</t>
   </si>
   <si>
-    <t>run across</t>
-  </si>
-  <si>
     <t>碰巧遇见，</t>
   </si>
   <si>
@@ -4769,6 +4727,968 @@
   </si>
   <si>
     <t>表示不可能做，对过去的推测</t>
+  </si>
+  <si>
+    <t>be bound to sth</t>
+  </si>
+  <si>
+    <t>与…绑定，受…约束</t>
+  </si>
+  <si>
+    <t>be bound to do  sth</t>
+  </si>
+  <si>
+    <t>一定，肯定会</t>
+  </si>
+  <si>
+    <t>allow for</t>
+  </si>
+  <si>
+    <t>考虑到，允许</t>
+  </si>
+  <si>
+    <t>对…负责</t>
+  </si>
+  <si>
+    <t>account for</t>
+  </si>
+  <si>
+    <t>responsible for</t>
+  </si>
+  <si>
+    <t>为…负责</t>
+  </si>
+  <si>
+    <t>leave off</t>
+  </si>
+  <si>
+    <t>省略，漏掉</t>
+  </si>
+  <si>
+    <t>leave out</t>
+  </si>
+  <si>
+    <t>leave behind</t>
+  </si>
+  <si>
+    <t>留下，遗漏，忘了带</t>
+  </si>
+  <si>
+    <t>leave sth with sb</t>
+  </si>
+  <si>
+    <t>将sth留给sb</t>
+  </si>
+  <si>
+    <t>（天气）停止，中断</t>
+  </si>
+  <si>
+    <t>go with</t>
+  </si>
+  <si>
+    <t>与..匹配，与…合适</t>
+  </si>
+  <si>
+    <t>go into</t>
+  </si>
+  <si>
+    <t>研究，调查</t>
+  </si>
+  <si>
+    <t xml:space="preserve">go after </t>
+  </si>
+  <si>
+    <t>追求，追逐</t>
+  </si>
+  <si>
+    <t>go by</t>
+  </si>
+  <si>
+    <t>(时间）过去，经过，遵守</t>
+  </si>
+  <si>
+    <t>on seconds thoughts</t>
+  </si>
+  <si>
+    <t>he rejected the offer on second thoughts</t>
+  </si>
+  <si>
+    <t>慎重考虑后,转念一想</t>
+  </si>
+  <si>
+    <t>think over</t>
+  </si>
+  <si>
+    <t>仔细考虑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hang about </t>
+  </si>
+  <si>
+    <t>闲荡</t>
+  </si>
+  <si>
+    <t>hang up</t>
+  </si>
+  <si>
+    <t>挂断电话</t>
+  </si>
+  <si>
+    <t>hang on</t>
+  </si>
+  <si>
+    <t>坚持，抓住</t>
+  </si>
+  <si>
+    <t>hang off/back</t>
+  </si>
+  <si>
+    <t>畏缩，迟疑</t>
+  </si>
+  <si>
+    <t>不要受中式英语影响， convenient不可以做人的表语，人不会是方便的， 只能是这个时间对人是方便的， 
+可以是 at sb's convenience</t>
+  </si>
+  <si>
+    <t>not… at all</t>
+  </si>
+  <si>
+    <t>根本（不）</t>
+  </si>
+  <si>
+    <t>at all 只能在否定句中</t>
+  </si>
+  <si>
+    <t>above all</t>
+  </si>
+  <si>
+    <t>优先，所有条件之前</t>
+  </si>
+  <si>
+    <t>after all</t>
+  </si>
+  <si>
+    <t>毕竟，结果</t>
+  </si>
+  <si>
+    <t>in all</t>
+  </si>
+  <si>
+    <t>总共</t>
+  </si>
+  <si>
+    <t>I don’t know him at all</t>
+  </si>
+  <si>
+    <t>never waste anything, but above all vener waste time</t>
+  </si>
+  <si>
+    <t>句首做状语</t>
+  </si>
+  <si>
+    <t>状语，中间插入</t>
+  </si>
+  <si>
+    <t>but slanders, after all, cannot conceal the true state of affairs (事情的)</t>
+  </si>
+  <si>
+    <t>how many are there in all</t>
+  </si>
+  <si>
+    <t>expect sb to do</t>
+  </si>
+  <si>
+    <t>wait for sb/sth</t>
+  </si>
+  <si>
+    <t>await sb/sth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hope to do </t>
+  </si>
+  <si>
+    <t>主语希望自己去做</t>
+  </si>
+  <si>
+    <t>主语希望别人去做什么</t>
+  </si>
+  <si>
+    <t>hope that 其他人的从句</t>
+  </si>
+  <si>
+    <t>盼望sth</t>
+  </si>
+  <si>
+    <t>期待sth ，基本同上</t>
+  </si>
+  <si>
+    <t>I hop to be a teacher in the future.</t>
+  </si>
+  <si>
+    <t>my mother hopes that I will be a teacher in the future.</t>
+  </si>
+  <si>
+    <t>waiting for that</t>
+  </si>
+  <si>
+    <t>await further developments</t>
+  </si>
+  <si>
+    <t>期望某人做什么事</t>
+  </si>
+  <si>
+    <t>需求，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be in want of </t>
+  </si>
+  <si>
+    <t>I am badly in want of a paire of new shoes.</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>确定的，</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>utterly</t>
+  </si>
+  <si>
+    <t>完全地</t>
+  </si>
+  <si>
+    <t>副词状语~= completely</t>
+  </si>
+  <si>
+    <t>be in the dark about /as to sth</t>
+  </si>
+  <si>
+    <t>完全不知道，</t>
+  </si>
+  <si>
+    <t>worth a visit / worth condering， 
+Show the boy you worth his love. 
+给那个男生看你值得他爱你。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sth/sb be worth sth/ doing sth </t>
+  </si>
+  <si>
+    <t>2. 值得做，有价值被。Sth/sb 是值得 sthb的。 -- 主动表被动</t>
+  </si>
+  <si>
+    <t>go about</t>
+  </si>
+  <si>
+    <t>从事，做</t>
+  </si>
+  <si>
+    <t>go on</t>
+  </si>
+  <si>
+    <t>继续</t>
+  </si>
+  <si>
+    <t>go for</t>
+  </si>
+  <si>
+    <t>as its option</t>
+  </si>
+  <si>
+    <t>插入状语</t>
+  </si>
+  <si>
+    <t>可能，其中一种选择</t>
+  </si>
+  <si>
+    <t>帮助</t>
+  </si>
+  <si>
+    <t>assist</t>
+  </si>
+  <si>
+    <t>resist</t>
+  </si>
+  <si>
+    <t>抵抗，抵制</t>
+  </si>
+  <si>
+    <t>persist in</t>
+  </si>
+  <si>
+    <t>insist on</t>
+  </si>
+  <si>
+    <t>get through</t>
+  </si>
+  <si>
+    <t>get on</t>
+  </si>
+  <si>
+    <t>完成，度过</t>
+  </si>
+  <si>
+    <t>上交通工具</t>
+  </si>
+  <si>
+    <t>get at</t>
+  </si>
+  <si>
+    <t>得到，查明</t>
+  </si>
+  <si>
+    <t>get by</t>
+  </si>
+  <si>
+    <t>通过，逃脱</t>
+  </si>
+  <si>
+    <t>迟早</t>
+  </si>
+  <si>
+    <t>sooner or later</t>
+  </si>
+  <si>
+    <t>run/come across</t>
+  </si>
+  <si>
+    <t>come across</t>
+  </si>
+  <si>
+    <t>come to</t>
+  </si>
+  <si>
+    <t>come up</t>
+  </si>
+  <si>
+    <t>come over</t>
+  </si>
+  <si>
+    <t>偶然碰见</t>
+  </si>
+  <si>
+    <t>苏醒，说到，达到，总数为</t>
+  </si>
+  <si>
+    <t>发生，走上来</t>
+  </si>
+  <si>
+    <t>过来，拜访，改变立场</t>
+  </si>
+  <si>
+    <t>按时，及时;  迟早</t>
+  </si>
+  <si>
+    <t>be no proof that 从句</t>
+  </si>
+  <si>
+    <t>并不能证明，说明</t>
+  </si>
+  <si>
+    <t>intended to</t>
+  </si>
+  <si>
+    <t>本打算做，但实际没做</t>
+  </si>
+  <si>
+    <t>intended to have done</t>
+  </si>
+  <si>
+    <t>doing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intended doing </t>
+  </si>
+  <si>
+    <t>mine, deny , object to，image, delay, put off， postpone</t>
+  </si>
+  <si>
+    <t>前置定语时与分词的区别</t>
+  </si>
+  <si>
+    <t>动名词</t>
+  </si>
+  <si>
+    <t>表示名词的功能或用途</t>
+  </si>
+  <si>
+    <t>可以改成 for doing动名词</t>
+  </si>
+  <si>
+    <t>分词</t>
+  </si>
+  <si>
+    <t>表示动作是由名词发出的或者承受的</t>
+  </si>
+  <si>
+    <t>可以改成定语从句</t>
+  </si>
+  <si>
+    <t>a swimming pool</t>
+  </si>
+  <si>
+    <t>a swimming girl</t>
+  </si>
+  <si>
+    <t>the pool for swimming</t>
+  </si>
+  <si>
+    <t>a girl who is swimming.</t>
+  </si>
+  <si>
+    <t>he did not so much as ask me to sit down</t>
+  </si>
+  <si>
+    <t>not so much as do sth  /  sb to do</t>
+  </si>
+  <si>
+    <t>甚至连….都不肯做 / 没有</t>
+  </si>
+  <si>
+    <t>pick out</t>
+  </si>
+  <si>
+    <t>挑出</t>
+  </si>
+  <si>
+    <t>推迟</t>
+  </si>
+  <si>
+    <t>Could you pick out the red kites? 
+你能挑选出红色的风筝吗？</t>
+  </si>
+  <si>
+    <t>We've had to put off our wedding until September. 
+我们只得把婚期推迟到九月。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">put off </t>
+  </si>
+  <si>
+    <t>In addition to sth</t>
+  </si>
+  <si>
+    <t>除了…之外</t>
+  </si>
+  <si>
+    <t xml:space="preserve">later </t>
+  </si>
+  <si>
+    <t>以后，</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>最后一个，刚刚过去的</t>
+  </si>
+  <si>
+    <t>形容词，与next相对应</t>
+  </si>
+  <si>
+    <t>latter</t>
+  </si>
+  <si>
+    <t>(一段时间）的末尾</t>
+  </si>
+  <si>
+    <t>晚期</t>
+  </si>
+  <si>
+    <t>代词，形容词the former 前者，the latter 后者</t>
+  </si>
+  <si>
+    <t>adj，修饰时间，季节等</t>
+  </si>
+  <si>
+    <t>说明； 占百分之… （~=make up）</t>
+  </si>
+  <si>
+    <t>make up</t>
+  </si>
+  <si>
+    <t>组成，占…百分比</t>
+  </si>
+  <si>
+    <t>….ization drive</t>
+  </si>
+  <si>
+    <t>….化的进程中</t>
+  </si>
+  <si>
+    <t>In  china'a modernization drive…</t>
+  </si>
+  <si>
+    <t>capital construction project</t>
+  </si>
+  <si>
+    <t>基础项目建设</t>
+  </si>
+  <si>
+    <t>in line with</t>
+  </si>
+  <si>
+    <t>符合，与…一致</t>
+  </si>
+  <si>
+    <t>step up</t>
+  </si>
+  <si>
+    <t>逐步提高</t>
+  </si>
+  <si>
+    <t>look on</t>
+  </si>
+  <si>
+    <t>旁观</t>
+  </si>
+  <si>
+    <t>look on with folded arms 袖手旁观</t>
+  </si>
+  <si>
+    <t>look in</t>
+  </si>
+  <si>
+    <t>顺便拜访</t>
+  </si>
+  <si>
+    <t>desperate</t>
+  </si>
+  <si>
+    <t>adj. 不顾一切的，拼命的；</t>
+  </si>
+  <si>
+    <t>desperately</t>
+  </si>
+  <si>
+    <t>adv. 拼命地</t>
+  </si>
+  <si>
+    <t>part with</t>
+  </si>
+  <si>
+    <t>花掉（钱），卖掉</t>
+  </si>
+  <si>
+    <t>part from</t>
+  </si>
+  <si>
+    <t>离开，向…告别</t>
+  </si>
+  <si>
+    <t>set off</t>
+  </si>
+  <si>
+    <t>触发，动身</t>
+  </si>
+  <si>
+    <t>set up</t>
+  </si>
+  <si>
+    <t>建立，树立</t>
+  </si>
+  <si>
+    <t>set back</t>
+  </si>
+  <si>
+    <t>阻碍，推迟</t>
+  </si>
+  <si>
+    <t>4. increase/decrease (to) N times/fold</t>
+  </si>
+  <si>
+    <t>4. increase/decrease  (to) N / double/triple</t>
+  </si>
+  <si>
+    <t>on the decline</t>
+  </si>
+  <si>
+    <t>减少，降低</t>
+  </si>
+  <si>
+    <t>bring about</t>
+  </si>
+  <si>
+    <t>bring down</t>
+  </si>
+  <si>
+    <t>造成，引起，做</t>
+  </si>
+  <si>
+    <t>使...倒下</t>
+  </si>
+  <si>
+    <t>bring up</t>
+  </si>
+  <si>
+    <t>提出，教育，</t>
+  </si>
+  <si>
+    <t>bring out</t>
+  </si>
+  <si>
+    <t>显示，出版</t>
+  </si>
+  <si>
+    <t>只能做表语，且主语必须是人，不能是不定式，从句等其他结果</t>
+  </si>
+  <si>
+    <t>predict</t>
+  </si>
+  <si>
+    <t>预测</t>
+  </si>
+  <si>
+    <t>v.</t>
+  </si>
+  <si>
+    <t>推断</t>
+  </si>
+  <si>
+    <t>claim</t>
+  </si>
+  <si>
+    <t>声称，声名</t>
+  </si>
+  <si>
+    <t>anticipate</t>
+  </si>
+  <si>
+    <t>预料</t>
+  </si>
+  <si>
+    <t>acknowledge</t>
+  </si>
+  <si>
+    <t>承认</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a number of </t>
+  </si>
+  <si>
+    <t>群体名词 people</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>同意，赞同</t>
+  </si>
+  <si>
+    <t>favor</t>
+  </si>
+  <si>
+    <t>赞同</t>
+  </si>
+  <si>
+    <t>+ with 、on、 to</t>
+  </si>
+  <si>
+    <t>consent</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>approve</t>
+  </si>
+  <si>
+    <t>put away</t>
+  </si>
+  <si>
+    <t>+ sth/n. doing</t>
+  </si>
+  <si>
+    <t>put sth away</t>
+  </si>
+  <si>
+    <t>把…收起来</t>
+  </si>
+  <si>
+    <t>送进监狱</t>
+  </si>
+  <si>
+    <t>put sb away</t>
+  </si>
+  <si>
+    <t>存钱</t>
+  </si>
+  <si>
+    <t>put money away</t>
+  </si>
+  <si>
+    <t>大吃大喝</t>
+  </si>
+  <si>
+    <t>put away （food or drink）</t>
+  </si>
+  <si>
+    <t>最好</t>
+  </si>
+  <si>
+    <t>助动词，不影响动词时态</t>
+  </si>
+  <si>
+    <t>Had better</t>
+  </si>
+  <si>
+    <t>in the habit of sth</t>
+  </si>
+  <si>
+    <t>习惯于</t>
+  </si>
+  <si>
+    <t>It occurred to sb that</t>
+  </si>
+  <si>
+    <t>sb突然想到，意识到</t>
+  </si>
+  <si>
+    <t>固定语句，it形主，that后是主语从句</t>
+  </si>
+  <si>
+    <t>get rid of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get away with </t>
+  </si>
+  <si>
+    <t>去除，治愈</t>
+  </si>
+  <si>
+    <t>摆脱惩罚，不受批评</t>
+  </si>
+  <si>
+    <t>get out of</t>
+  </si>
+  <si>
+    <t>逃避，回避</t>
+  </si>
+  <si>
+    <t>没有 hope sb to do sth</t>
+  </si>
+  <si>
+    <t>脱离危险，恢复健康，度过困难</t>
+  </si>
+  <si>
+    <t>pull over</t>
+  </si>
+  <si>
+    <t>将车开到路边</t>
+  </si>
+  <si>
+    <t>pull out</t>
+  </si>
+  <si>
+    <t>驶出</t>
+  </si>
+  <si>
+    <t>pull off</t>
+  </si>
+  <si>
+    <t>获得成功，赢得</t>
+  </si>
+  <si>
+    <t>set aside</t>
+  </si>
+  <si>
+    <t>留出（空间，时间)</t>
+  </si>
+  <si>
+    <t>set down</t>
+  </si>
+  <si>
+    <t>写下</t>
+  </si>
+  <si>
+    <t>set about</t>
+  </si>
+  <si>
+    <t>着手做</t>
+  </si>
+  <si>
+    <t>can not do sth enough + (adv)</t>
+  </si>
+  <si>
+    <t>I can't speak too highly of him</t>
+  </si>
+  <si>
+    <t>can not do too +adv.</t>
+  </si>
+  <si>
+    <t>not the least + n.</t>
+  </si>
+  <si>
+    <t>根本没，， 一点也不</t>
+  </si>
+  <si>
+    <t>He has not the least intention of giving up his research.</t>
+  </si>
+  <si>
+    <t>every day</t>
+  </si>
+  <si>
+    <t>每天</t>
+  </si>
+  <si>
+    <t>副词，作状语</t>
+  </si>
+  <si>
+    <t>everyday</t>
+  </si>
+  <si>
+    <t>日常，平常的</t>
+  </si>
+  <si>
+    <t>形容词</t>
+  </si>
+  <si>
+    <t>In everyday life</t>
+  </si>
+  <si>
+    <t>one day</t>
+  </si>
+  <si>
+    <t>一天</t>
+  </si>
+  <si>
+    <t>someday</t>
+  </si>
+  <si>
+    <t>将来某一天</t>
+  </si>
+  <si>
+    <t xml:space="preserve">borrow </t>
+  </si>
+  <si>
+    <t>从第一视角，从他人处借东西</t>
+  </si>
+  <si>
+    <t>lend</t>
+  </si>
+  <si>
+    <t>从主语角度，将东西借给别人</t>
+  </si>
+  <si>
+    <t>May I borrow your pen</t>
+  </si>
+  <si>
+    <t>Please (you) lend me your pen</t>
+  </si>
+  <si>
+    <t>因此，可接句子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a result of </t>
+  </si>
+  <si>
+    <t>to add an oppsite idea， 可置于句子最后，表示虽然</t>
+  </si>
+  <si>
+    <t>由于，只能做介词， 在这里做补充说明， 不是副词内容</t>
+  </si>
+  <si>
+    <t>是否有标点都可以</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infer </t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>推理</t>
+  </si>
+  <si>
+    <t>vi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v. </t>
+  </si>
+  <si>
+    <t>断定，推断出；</t>
+  </si>
+  <si>
+    <t>conclude</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>senior</t>
+  </si>
+  <si>
+    <t>资深的</t>
+  </si>
+  <si>
+    <t>adj</t>
+  </si>
+  <si>
+    <t>vet</t>
+  </si>
+  <si>
+    <t>兽医</t>
+  </si>
+  <si>
+    <t>vereran</t>
+  </si>
+  <si>
+    <t>老练的人</t>
+  </si>
+  <si>
+    <t>a portion of</t>
+  </si>
+  <si>
+    <t>a kind of</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>most of</t>
+  </si>
+  <si>
+    <t>大多数的</t>
+  </si>
+  <si>
+    <t>adj 后直接加名词</t>
+  </si>
+  <si>
+    <t xml:space="preserve">需要接有范围的 the + 名词或代词 </t>
+  </si>
+  <si>
+    <t>复合词</t>
+  </si>
+  <si>
+    <t>数词</t>
+  </si>
+  <si>
+    <t>名词(必须是单数)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It’s 形容词+ for/of sb to do </t>
+  </si>
+  <si>
+    <t>如何判断是for 还是 of</t>
+  </si>
+  <si>
+    <t>形容词+of+sb可以是否可以写成 主系表 即 sb is 形容词的结构</t>
+  </si>
+  <si>
+    <t>it’s very kind of you = you are very kind.</t>
+  </si>
+  <si>
+    <t>It's dangerous for a girl</t>
+  </si>
+  <si>
+    <t>the onlyy one of</t>
+  </si>
+  <si>
+    <t>名词复数/群体复数</t>
   </si>
 </sst>
 </file>
@@ -5000,7 +5920,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5138,21 +6058,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5175,12 +6080,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5254,6 +6153,43 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5538,8 +6474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5591,7 +6527,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>10</v>
@@ -5742,8 +6678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="52.42578125" defaultRowHeight="15"/>
@@ -6372,10 +7308,10 @@
     </row>
     <row r="79" spans="1:2" s="45" customFormat="1">
       <c r="A79" s="21" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B79" s="45" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -6417,13 +7353,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E205"/>
+  <dimension ref="A1:E244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomRight" activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6490,7 +7426,7 @@
     </row>
     <row r="5" spans="1:5" ht="30">
       <c r="A5" s="29" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>230</v>
@@ -6507,241 +7443,318 @@
     </row>
     <row r="7" spans="1:5" ht="30">
       <c r="A7" s="23" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="29" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="D8" s="30"/>
       <c r="E8" s="31"/>
     </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="23" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C10" s="90" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="26" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="26" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>423</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="29" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>1305</v>
+      </c>
+    </row>
     <row r="28" spans="1:5">
       <c r="A28" s="6" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30">
       <c r="A29" s="23" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B29" s="24" t="s">
+        <v>597</v>
+      </c>
+      <c r="C29" s="24" t="s">
         <v>602</v>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>607</v>
-      </c>
       <c r="D29" s="24" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="E29" s="25"/>
     </row>
     <row r="30" spans="1:5" ht="60">
       <c r="A30" s="29" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="D30" s="30"/>
       <c r="E30" s="31" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="23" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="25"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="26" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D32" s="28"/>
       <c r="E32" s="22"/>
     </row>
-    <row r="33" spans="1:5" s="57" customFormat="1">
-      <c r="A33" s="63"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="64" t="s">
+    <row r="33" spans="1:5" s="52" customFormat="1">
+      <c r="A33" s="56"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57" t="s">
+        <v>612</v>
+      </c>
+      <c r="D33" s="57"/>
+      <c r="E33" s="58" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="52" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A34" s="56"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57" t="s">
+        <v>621</v>
+      </c>
+      <c r="D34" s="57"/>
+      <c r="E34" s="58" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="53" customFormat="1" ht="45">
+      <c r="A35" s="59" t="s">
+        <v>614</v>
+      </c>
+      <c r="B35" s="60" t="s">
+        <v>615</v>
+      </c>
+      <c r="C35" s="60" t="s">
+        <v>939</v>
+      </c>
+      <c r="D35" s="60"/>
+      <c r="E35" s="61" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="53" customFormat="1" ht="30">
+      <c r="A36" s="62" t="s">
         <v>617</v>
       </c>
-      <c r="D33" s="64"/>
-      <c r="E33" s="65" t="s">
+      <c r="B36" s="63" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" s="57" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A34" s="63"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="64" t="s">
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="64" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="53" customFormat="1"/>
+    <row r="38" spans="1:5" s="53" customFormat="1" ht="60">
+      <c r="A38" s="65" t="s">
+        <v>638</v>
+      </c>
+      <c r="B38" s="66" t="s">
+        <v>644</v>
+      </c>
+      <c r="C38" s="66" t="s">
+        <v>641</v>
+      </c>
+      <c r="D38" s="66"/>
+      <c r="E38" s="67" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="53" customFormat="1" ht="90">
+      <c r="A39" s="62" t="s">
+        <v>640</v>
+      </c>
+      <c r="B39" s="63" t="s">
+        <v>643</v>
+      </c>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="64" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="53" customFormat="1"/>
+    <row r="41" spans="1:5" s="53" customFormat="1">
+      <c r="A41" s="53" t="s">
+        <v>786</v>
+      </c>
+      <c r="B41" s="53" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="53" customFormat="1">
+      <c r="A42" s="53" t="s">
+        <v>787</v>
+      </c>
+      <c r="B42" s="53" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="53" customFormat="1">
+      <c r="A43" s="53" t="s">
+        <v>788</v>
+      </c>
+      <c r="B43" s="53" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="53" customFormat="1" ht="30">
+      <c r="A44" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="B44" s="53" t="s">
+        <v>794</v>
+      </c>
+      <c r="E44" s="53" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="53" customFormat="1"/>
+    <row r="46" spans="1:5" s="53" customFormat="1"/>
+    <row r="47" spans="1:5" s="53" customFormat="1">
+      <c r="A47" s="53" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="53" customFormat="1" ht="30">
+      <c r="A48" s="53" t="s">
+        <v>623</v>
+      </c>
+      <c r="B48" s="53" t="s">
+        <v>625</v>
+      </c>
+      <c r="C48" s="53" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="53" customFormat="1" ht="30">
+      <c r="A49" s="53" t="s">
         <v>626</v>
       </c>
-      <c r="D34" s="64"/>
-      <c r="E34" s="65" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="58" customFormat="1" ht="45">
-      <c r="A35" s="66" t="s">
-        <v>619</v>
-      </c>
-      <c r="B35" s="67" t="s">
-        <v>620</v>
-      </c>
-      <c r="C35" s="67" t="s">
-        <v>950</v>
-      </c>
-      <c r="D35" s="67"/>
-      <c r="E35" s="68" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="58" customFormat="1" ht="30">
-      <c r="A36" s="69" t="s">
-        <v>622</v>
-      </c>
-      <c r="B36" s="70" t="s">
-        <v>623</v>
-      </c>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="71" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="58" customFormat="1"/>
-    <row r="38" spans="1:5" s="58" customFormat="1" ht="60">
-      <c r="A38" s="72" t="s">
-        <v>643</v>
-      </c>
-      <c r="B38" s="73" t="s">
-        <v>649</v>
-      </c>
-      <c r="C38" s="73" t="s">
-        <v>646</v>
-      </c>
-      <c r="D38" s="73"/>
-      <c r="E38" s="74" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="58" customFormat="1" ht="90">
-      <c r="A39" s="69" t="s">
-        <v>645</v>
-      </c>
-      <c r="B39" s="70" t="s">
-        <v>648</v>
-      </c>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="71" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="58" customFormat="1"/>
-    <row r="41" spans="1:5" s="58" customFormat="1">
-      <c r="A41" s="58" t="s">
-        <v>793</v>
-      </c>
-      <c r="B41" s="58" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="58" customFormat="1">
-      <c r="A42" s="58" t="s">
-        <v>794</v>
-      </c>
-      <c r="B42" s="58" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="58" customFormat="1">
-      <c r="A43" s="58" t="s">
-        <v>795</v>
-      </c>
-      <c r="B43" s="58" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="58" customFormat="1" ht="30">
-      <c r="A44" s="58" t="s">
-        <v>799</v>
-      </c>
-      <c r="B44" s="58" t="s">
-        <v>801</v>
-      </c>
-      <c r="E44" s="58" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="58" customFormat="1"/>
-    <row r="46" spans="1:5" s="58" customFormat="1"/>
-    <row r="47" spans="1:5" s="58" customFormat="1">
-      <c r="A47" s="58" t="s">
+      <c r="B49" s="53" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" s="58" customFormat="1" ht="30">
-      <c r="A48" s="58" t="s">
+      <c r="C49" s="53" t="s">
         <v>628</v>
       </c>
-      <c r="B48" s="58" t="s">
-        <v>630</v>
-      </c>
-      <c r="C48" s="58" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="58" customFormat="1" ht="30">
-      <c r="A49" s="58" t="s">
-        <v>631</v>
-      </c>
-      <c r="B49" s="58" t="s">
-        <v>632</v>
-      </c>
-      <c r="C49" s="58" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="58" customFormat="1"/>
-    <row r="51" spans="1:4" s="58" customFormat="1"/>
-    <row r="52" spans="1:4" s="58" customFormat="1"/>
-    <row r="53" spans="1:4" s="58" customFormat="1"/>
-    <row r="54" spans="1:4" s="58" customFormat="1"/>
-    <row r="55" spans="1:4" s="58" customFormat="1"/>
+    </row>
+    <row r="50" spans="1:4" s="53" customFormat="1"/>
+    <row r="51" spans="1:4" s="53" customFormat="1"/>
+    <row r="52" spans="1:4" s="53" customFormat="1"/>
+    <row r="53" spans="1:4" s="53" customFormat="1"/>
+    <row r="54" spans="1:4" s="53" customFormat="1"/>
+    <row r="55" spans="1:4" s="53" customFormat="1"/>
     <row r="56" spans="1:4">
       <c r="A56" s="6" t="s">
         <v>211</v>
@@ -6779,9 +7792,9 @@
         <v>279</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="C60" s="51" t="s">
+        <v>448</v>
+      </c>
+      <c r="C60" s="85" t="s">
         <v>292</v>
       </c>
       <c r="D60" s="6" t="s">
@@ -6793,11 +7806,11 @@
         <v>280</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="C61" s="51"/>
+        <v>449</v>
+      </c>
+      <c r="C61" s="85"/>
       <c r="D61" s="6" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -6807,7 +7820,7 @@
       <c r="B62" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C62" s="51"/>
+      <c r="C62" s="85"/>
       <c r="D62" s="6" t="s">
         <v>288</v>
       </c>
@@ -6819,7 +7832,7 @@
       <c r="B63" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C63" s="51"/>
+      <c r="C63" s="85"/>
       <c r="D63" s="6" t="s">
         <v>289</v>
       </c>
@@ -6838,858 +7851,1102 @@
         <v>290</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:4">
       <c r="A66" s="6" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>1289</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="6" t="s">
-        <v>588</v>
+        <v>1292</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>589</v>
+        <v>1293</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="30">
-      <c r="A70" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>839</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>840</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>1294</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="6" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="6" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="6" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="6" t="s">
-        <v>713</v>
+        <v>583</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="6" t="s">
-        <v>716</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>584</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="30">
       <c r="A81" s="6" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="30">
-      <c r="A82" s="23" t="s">
-        <v>804</v>
-      </c>
-      <c r="B82" s="24" t="s">
-        <v>805</v>
-      </c>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="25"/>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="29" t="s">
-        <v>806</v>
-      </c>
-      <c r="B83" s="30" t="s">
-        <v>807</v>
-      </c>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="31"/>
+        <v>830</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="6" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="6" t="s">
-        <v>758</v>
+        <v>707</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="23" t="s">
-        <v>764</v>
-      </c>
-      <c r="B90" s="24" t="s">
-        <v>765</v>
-      </c>
-      <c r="C90" s="24" t="s">
-        <v>766</v>
-      </c>
-      <c r="D90" s="24"/>
-      <c r="E90" s="25"/>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="29" t="s">
-        <v>767</v>
-      </c>
-      <c r="B91" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="C91" s="30" t="s">
-        <v>770</v>
-      </c>
-      <c r="D91" s="75" t="s">
-        <v>769</v>
-      </c>
-      <c r="E91" s="31"/>
+      <c r="A90" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="6" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="6" t="s">
-        <v>816</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>817</v>
-      </c>
+        <v>796</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="30">
+      <c r="A93" s="23" t="s">
+        <v>797</v>
+      </c>
+      <c r="B93" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="25"/>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="6" t="s">
-        <v>816</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="6" t="s">
-        <v>819</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="30">
-      <c r="A99" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>263</v>
+      <c r="A94" s="29" t="s">
+        <v>799</v>
+      </c>
+      <c r="B94" s="30" t="s">
+        <v>800</v>
+      </c>
+      <c r="C94" s="30"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="31"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="6" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="45">
-      <c r="A102" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="45">
+      <c r="A101" s="23" t="s">
+        <v>758</v>
+      </c>
+      <c r="B101" s="24" t="s">
+        <v>759</v>
+      </c>
+      <c r="C101" s="24" t="s">
+        <v>760</v>
+      </c>
+      <c r="D101" s="24"/>
+      <c r="E101" s="25"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="29" t="s">
+        <v>761</v>
+      </c>
+      <c r="B102" s="30" t="s">
+        <v>765</v>
+      </c>
+      <c r="C102" s="30" t="s">
+        <v>764</v>
+      </c>
+      <c r="D102" s="68" t="s">
+        <v>763</v>
+      </c>
+      <c r="E102" s="31"/>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>277</v>
+        <v>762</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="6" t="s">
-        <v>273</v>
+        <v>1171</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>274</v>
+        <v>1172</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="6" t="s">
-        <v>275</v>
+        <v>1173</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>276</v>
+        <v>1174</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="30">
+      <c r="A106" s="6" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="6" t="s">
-        <v>774</v>
+        <v>930</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="6" t="s">
-        <v>775</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>776</v>
-      </c>
+        <v>1178</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="28" t="s">
+        <v>809</v>
+      </c>
+      <c r="B111" s="28" t="s">
+        <v>810</v>
+      </c>
+      <c r="C111" s="28"/>
+      <c r="D111" s="28"/>
+      <c r="E111" s="28"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="28" t="s">
+        <v>809</v>
+      </c>
+      <c r="B112" s="28" t="s">
+        <v>811</v>
+      </c>
+      <c r="C112" s="28"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="28"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="60">
-      <c r="A115" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="60">
+      <c r="A113" s="30" t="s">
+        <v>812</v>
+      </c>
+      <c r="B113" s="30" t="s">
+        <v>813</v>
+      </c>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>241</v>
+        <v>951</v>
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="B117" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="C117" s="24"/>
-      <c r="D117" s="24"/>
-      <c r="E117" s="25"/>
-    </row>
-    <row r="118" spans="1:5" ht="30">
-      <c r="A118" s="26"/>
-      <c r="B118" s="28" t="s">
-        <v>360</v>
-      </c>
-      <c r="C118" s="28" t="s">
-        <v>359</v>
-      </c>
-      <c r="D118" s="28"/>
-      <c r="E118" s="22" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="26"/>
-      <c r="B119" s="28" t="s">
-        <v>788</v>
-      </c>
-      <c r="C119" s="28" t="s">
-        <v>361</v>
-      </c>
-      <c r="D119" s="28"/>
-      <c r="E119" s="22" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="30">
-      <c r="A120" s="26"/>
-      <c r="B120" s="28" t="s">
-        <v>365</v>
-      </c>
-      <c r="C120" s="28" t="s">
-        <v>363</v>
-      </c>
-      <c r="D120" s="28"/>
-      <c r="E120" s="22" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="30">
-      <c r="A121" s="26" t="s">
-        <v>356</v>
-      </c>
-      <c r="B121" s="28" t="s">
-        <v>789</v>
-      </c>
-      <c r="C121" s="28" t="s">
-        <v>445</v>
-      </c>
-      <c r="D121" s="28"/>
-      <c r="E121" s="22" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="26"/>
-      <c r="B122" s="28"/>
-      <c r="C122" s="28" t="s">
-        <v>446</v>
-      </c>
-      <c r="D122" s="28"/>
-      <c r="E122" s="22"/>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="29" t="s">
-        <v>367</v>
-      </c>
-      <c r="B123" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="C123" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="D123" s="30"/>
-      <c r="E123" s="31" t="s">
-        <v>370</v>
+      <c r="A117" s="6" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="6" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="6" t="s">
-        <v>459</v>
+        <v>257</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="30">
       <c r="A127" s="6" t="s">
-        <v>466</v>
+        <v>260</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>554</v>
+        <v>262</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>563</v>
+        <v>261</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="30">
-      <c r="A128" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="30">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="E129" s="6" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="45">
-      <c r="A130" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="E130" s="6" t="s">
-        <v>559</v>
-      </c>
+        <v>577</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="23" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B130" s="24" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C130" s="24" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D130" s="24"/>
+      <c r="E130" s="25"/>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="26" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B131" s="28" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C131" s="28" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D131" s="28"/>
+      <c r="E131" s="22"/>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>654</v>
-      </c>
+      <c r="A132" s="26" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B132" s="28" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C132" s="28" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D132" s="28"/>
+      <c r="E132" s="22"/>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="6" t="s">
-        <v>655</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>657</v>
-      </c>
+      <c r="A133" s="26" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B133" s="28" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C133" s="28" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D133" s="28"/>
+      <c r="E133" s="22"/>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="26" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B134" s="28" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C134" s="28"/>
+      <c r="D134" s="28"/>
+      <c r="E134" s="22"/>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="30">
-      <c r="A136" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="6" t="s">
-        <v>722</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="6" t="s">
-        <v>723</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="6" t="s">
-        <v>724</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>728</v>
-      </c>
+      <c r="A135" s="26" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B135" s="28" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C135" s="28"/>
+      <c r="D135" s="28"/>
+      <c r="E135" s="22"/>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="29" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B136" s="30" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C136" s="30"/>
+      <c r="D136" s="30"/>
+      <c r="E136" s="31"/>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="6" t="s">
-        <v>725</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="30">
+      <c r="A143" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="30">
+      <c r="A144" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="30">
+      <c r="A145" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="45">
+      <c r="A146" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="30">
+      <c r="A152" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="6" t="s">
+    <row r="166" spans="1:3">
+      <c r="A166" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C150" s="6" t="s">
+      <c r="C166" s="6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="6" t="s">
+    <row r="167" spans="1:3">
+      <c r="A167" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C151" s="6" t="s">
+      <c r="C167" s="6" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="6" t="s">
+    <row r="169" spans="1:3">
+      <c r="A169" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C153" s="6" t="s">
+      <c r="C169" s="6" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="6" t="s">
+    <row r="170" spans="1:3">
+      <c r="A170" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C154" s="6" t="s">
+      <c r="C170" s="6" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="23" t="s">
+    <row r="171" spans="1:3">
+      <c r="A171" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="B171" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="C171" s="25"/>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="26"/>
+      <c r="B172" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="B155" s="24" t="s">
-        <v>750</v>
-      </c>
-      <c r="C155" s="25"/>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="26"/>
-      <c r="B156" s="27" t="s">
+      <c r="C172" s="22" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="30">
+      <c r="A173" s="26"/>
+      <c r="B173" s="28" t="s">
+        <v>746</v>
+      </c>
+      <c r="C173" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="C156" s="22" t="s">
+    </row>
+    <row r="174" spans="1:3" ht="30">
+      <c r="A174" s="26"/>
+      <c r="B174" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="C174" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B175" s="28" t="s">
+        <v>745</v>
+      </c>
+      <c r="C175" s="22"/>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="26"/>
+      <c r="B176" s="28" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" ht="30">
-      <c r="A157" s="26"/>
-      <c r="B157" s="28" t="s">
-        <v>752</v>
-      </c>
-      <c r="C157" s="22" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="30">
-      <c r="A158" s="26"/>
-      <c r="B158" s="28" t="s">
+      <c r="C176" s="22" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="29"/>
+      <c r="B177" s="30" t="s">
+        <v>747</v>
+      </c>
+      <c r="C177" s="31" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="45">
+      <c r="A179" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E179" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="45">
+      <c r="A187" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="6" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="6" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="6" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="6" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="45">
+      <c r="A207" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="E207" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="45">
+      <c r="A208" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E208" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="60">
+      <c r="A220" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D220" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E220" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="60">
+      <c r="A221" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D221" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="B222" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="C222" s="24"/>
+      <c r="D222" s="24"/>
+      <c r="E222" s="25"/>
+    </row>
+    <row r="223" spans="1:5" ht="30">
+      <c r="A223" s="26"/>
+      <c r="B223" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="C223" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="D223" s="28"/>
+      <c r="E223" s="22" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="45">
+      <c r="A224" s="26"/>
+      <c r="B224" s="28" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C224" s="28" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D224" s="28"/>
+      <c r="E224" s="22" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="30">
+      <c r="A225" s="26"/>
+      <c r="B225" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="C225" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="D225" s="28"/>
+      <c r="E225" s="22" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="30">
+      <c r="A226" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="B226" s="28" t="s">
+        <v>782</v>
+      </c>
+      <c r="C226" s="28" t="s">
+        <v>441</v>
+      </c>
+      <c r="D226" s="28"/>
+      <c r="E226" s="22" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="26"/>
+      <c r="B227" s="28"/>
+      <c r="C227" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="D227" s="28"/>
+      <c r="E227" s="22"/>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="B228" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="C228" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="D228" s="30"/>
+      <c r="E228" s="31" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A232" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="30">
+      <c r="A234" s="85" t="s">
         <v>326</v>
       </c>
-      <c r="C158" s="22" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="B159" s="28" t="s">
-        <v>751</v>
-      </c>
-      <c r="C159" s="22"/>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="26"/>
-      <c r="B160" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="C160" s="22" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="29"/>
-      <c r="B161" s="30" t="s">
-        <v>753</v>
-      </c>
-      <c r="C161" s="31" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="45">
-      <c r="A163" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="D163" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="E163" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="A165" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="A166" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="B166" s="6" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="A169" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="B169" s="2"/>
-      <c r="C169" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="45">
-      <c r="A171" s="6" t="s">
-        <v>778</v>
-      </c>
-      <c r="B171" s="6" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
-      <c r="A172" s="6" t="s">
-        <v>779</v>
-      </c>
-      <c r="B172" s="6" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
-      <c r="A174" s="6" t="s">
-        <v>829</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="A175" s="6" t="s">
-        <v>831</v>
-      </c>
-      <c r="B175" s="6" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="A176" s="6" t="s">
-        <v>833</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="B181" s="6" t="s">
-        <v>748</v>
-      </c>
-      <c r="C181" s="6" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A193" s="6" t="s">
+      <c r="B234" s="6" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" ht="30">
-      <c r="A195" s="51" t="s">
+      <c r="C234" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="85"/>
+      <c r="B235" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="E235" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B195" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C195" s="6" t="s">
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="85"/>
+      <c r="B236" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="E236" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="85"/>
+      <c r="B237" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D237" s="6" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196" s="51"/>
-      <c r="B196" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="E196" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="A197" s="51"/>
-      <c r="B197" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="E197" s="6" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
-      <c r="A198" s="51"/>
-      <c r="B198" s="6" t="s">
+      <c r="E237" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="D198" s="6" t="s">
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="85"/>
+      <c r="B238" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E238" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="E198" s="6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199" s="51"/>
-      <c r="B199" s="6" t="s">
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="85"/>
+      <c r="B239" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="E239" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="D199" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E199" s="6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
-      <c r="A200" s="51"/>
-      <c r="B200" s="6" t="s">
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="85"/>
+      <c r="B240" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="E200" s="6" t="s">
+      <c r="E240" s="6" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
-      <c r="A201" s="51"/>
-      <c r="B201" s="6" t="s">
+    <row r="241" spans="1:5">
+      <c r="A241" s="85"/>
+      <c r="B241" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="D241" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="E201" s="6" t="s">
+      <c r="E241" s="6" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
-      <c r="A202" s="51"/>
-      <c r="B202" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="C202" s="6" t="s">
+    <row r="242" spans="1:5">
+      <c r="A242" s="85"/>
+      <c r="B242" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E242" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="D202" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="E202" s="6" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203" s="51"/>
-      <c r="B203" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="C203" s="6" t="s">
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="85"/>
+      <c r="B243" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="E203" s="6" t="s">
+      <c r="C243" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="E243" s="6" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
-      <c r="A204" s="51"/>
-      <c r="B204" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="C204" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="E204" s="6" t="s">
+    <row r="244" spans="1:5">
+      <c r="A244" s="85"/>
+      <c r="B244" s="6" t="s">
         <v>352</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="A205" s="51"/>
-      <c r="B205" s="6" t="s">
-        <v>354</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C60:C63"/>
-    <mergeCell ref="A195:A205"/>
+    <mergeCell ref="A234:A244"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7698,36 +8955,36 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B311" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23:XFD30"/>
+      <selection pane="bottomRight" activeCell="A335" sqref="A335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="45.140625" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7737,1033 +8994,1930 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>957</v>
+        <v>946</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>960</v>
+        <v>949</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>970</v>
+        <v>959</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>992</v>
+        <v>980</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
         <v>1032</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>1031</v>
+      <c r="B26" s="2" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>581</v>
+        <v>1071</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>671</v>
+        <v>1112</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>689</v>
+        <v>1114</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>694</v>
+        <v>572</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>695</v>
+        <v>573</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>696</v>
+        <v>574</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>698</v>
+        <v>685</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>700</v>
+        <v>688</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>884</v>
+        <v>690</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="2" t="s">
-        <v>600</v>
+        <v>691</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>717</v>
+        <v>666</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>667</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>773</v>
+        <v>1216</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>835</v>
+        <v>1217</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>891</v>
+        <v>1220</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>953</v>
+        <v>1222</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="2" t="s">
+    <row r="68" spans="1:4">
+      <c r="A68" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="2" t="s">
+      <c r="B86" s="2" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="2" t="s">
-        <v>984</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>987</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="2" t="s">
-        <v>985</v>
-      </c>
-      <c r="B59" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="2" t="s">
-        <v>996</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="2" t="s">
-        <v>994</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="2" t="s">
-        <v>995</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="B71" s="2" t="s">
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="2" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="2" t="s">
-        <v>972</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="2" t="s">
-        <v>975</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="2" t="s">
-        <v>989</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="2" t="s">
-        <v>951</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="2" t="s">
-        <v>956</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="2" t="s">
-        <v>957</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="2" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="2" t="s">
-        <v>680</v>
-      </c>
       <c r="B96" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>454</v>
+        <v>659</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2" t="s">
-        <v>682</v>
+        <v>660</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="2" t="s">
-        <v>701</v>
+        <v>665</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2" t="s">
-        <v>702</v>
+        <v>724</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>585</v>
+        <v>725</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>585</v>
+        <v>962</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>638</v>
+        <v>1184</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>1186</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2" t="s">
-        <v>639</v>
+        <v>1198</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>640</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2" t="s">
-        <v>641</v>
+        <v>1200</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="2" t="s">
-        <v>961</v>
-      </c>
-      <c r="B113" s="2" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="2" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="B127" s="2" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="2" t="s">
-        <v>962</v>
+      <c r="C121" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>964</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
-        <v>1024</v>
+        <v>605</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1025</v>
+        <v>604</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2" t="s">
-        <v>719</v>
+        <v>1042</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
-        <v>717</v>
+        <v>1044</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
       <c r="A145" s="2" t="s">
-        <v>720</v>
+        <v>1046</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
       <c r="A147" s="2" t="s">
-        <v>754</v>
+        <v>1107</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
       <c r="A154" s="2" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <v>1127</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
       <c r="A155" s="2" t="s">
-        <v>583</v>
+        <v>1263</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="79" t="s">
-        <v>704</v>
-      </c>
-      <c r="B156" s="80" t="s">
-        <v>711</v>
-      </c>
-      <c r="C156" s="80"/>
-      <c r="D156" s="80"/>
-      <c r="E156" s="81"/>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="82" t="s">
-        <v>705</v>
-      </c>
-      <c r="B157" s="83" t="s">
-        <v>706</v>
-      </c>
-      <c r="C157" s="83"/>
-      <c r="D157" s="83"/>
-      <c r="E157" s="84"/>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="82" t="s">
-        <v>710</v>
-      </c>
-      <c r="B158" s="83" t="s">
-        <v>707</v>
-      </c>
-      <c r="C158" s="83"/>
-      <c r="D158" s="83"/>
-      <c r="E158" s="84"/>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="82" t="s">
-        <v>708</v>
-      </c>
-      <c r="B159" s="83" t="s">
-        <v>709</v>
-      </c>
-      <c r="C159" s="83"/>
-      <c r="D159" s="83"/>
-      <c r="E159" s="84"/>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="A160" s="85"/>
-      <c r="B160" s="86"/>
-      <c r="C160" s="86"/>
-      <c r="D160" s="86"/>
-      <c r="E160" s="87"/>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>737</v>
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>1268</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2" t="s">
-        <v>459</v>
+        <v>796</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2" t="s">
-        <v>634</v>
+        <v>1055</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>635</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2" t="s">
-        <v>650</v>
+        <v>1057</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>651</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2" t="s">
-        <v>1017</v>
+        <v>1059</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="2" t="s">
-        <v>245</v>
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>679</v>
+      <c r="A170" s="72" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B170" s="73" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C170" s="82" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D170" s="74" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>931</v>
+      <c r="A171" s="75" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B171" s="76" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C171" s="76"/>
+      <c r="D171" s="77" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="2" t="s">
-        <v>977</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>978</v>
+      <c r="A172" s="75" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B172" s="76" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C172" s="76"/>
+      <c r="D172" s="77" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="2" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>1023</v>
+      <c r="A173" s="75" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B173" s="76" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C173" s="76"/>
+      <c r="D173" s="77" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="2" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
+      <c r="A174" s="78" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B174" s="79" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C174" s="79"/>
+      <c r="D174" s="80"/>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="92" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186" s="2" t="s">
-        <v>1001</v>
+        <v>957</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="2" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
+        <v>958</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188" s="2" t="s">
-        <v>1005</v>
+        <v>1094</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
+        <v>1093</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189" s="2" t="s">
-        <v>1007</v>
+        <v>1102</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+        <v>1103</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" s="2" t="s">
-        <v>1013</v>
+        <v>1189</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+        <v>1190</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192" s="2" t="s">
-        <v>1015</v>
+        <v>1258</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>1016</v>
+        <v>1259</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="105">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197" s="2" t="s">
-        <v>894</v>
+        <v>632</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>893</v>
-      </c>
-      <c r="C197" s="6" t="s">
-        <v>895</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>896</v>
+        <v>633</v>
       </c>
     </row>
     <row r="198" spans="1:4">
-      <c r="A198" s="79" t="s">
-        <v>943</v>
-      </c>
-      <c r="B198" s="80" t="s">
-        <v>944</v>
-      </c>
-      <c r="C198" s="80" t="s">
-        <v>946</v>
-      </c>
-      <c r="D198" s="81"/>
+      <c r="A198" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="199" spans="1:4">
-      <c r="A199" s="85" t="s">
-        <v>945</v>
-      </c>
-      <c r="B199" s="86" t="s">
-        <v>947</v>
-      </c>
-      <c r="C199" s="86" t="s">
-        <v>948</v>
-      </c>
-      <c r="D199" s="87" t="s">
-        <v>949</v>
+      <c r="A199" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2" t="s">
-        <v>979</v>
+        <v>776</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>980</v>
+        <v>777</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>981</v>
+        <v>778</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="B218" s="2" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="2" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="72" t="s">
+        <v>699</v>
+      </c>
+      <c r="B263" s="73" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C263" s="73"/>
+      <c r="D263" s="73"/>
+      <c r="E263" s="74"/>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="75" t="s">
+        <v>700</v>
+      </c>
+      <c r="B264" s="76" t="s">
+        <v>701</v>
+      </c>
+      <c r="C264" s="76"/>
+      <c r="D264" s="76"/>
+      <c r="E264" s="77"/>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="75" t="s">
+        <v>705</v>
+      </c>
+      <c r="B265" s="76" t="s">
+        <v>702</v>
+      </c>
+      <c r="C265" s="76"/>
+      <c r="D265" s="76"/>
+      <c r="E265" s="77"/>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="75" t="s">
+        <v>703</v>
+      </c>
+      <c r="B266" s="76" t="s">
+        <v>704</v>
+      </c>
+      <c r="C266" s="76"/>
+      <c r="D266" s="76"/>
+      <c r="E266" s="77"/>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="75" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B267" s="76" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C267" s="76"/>
+      <c r="D267" s="76"/>
+      <c r="E267" s="77"/>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="75" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B268" s="76" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C268" s="76"/>
+      <c r="D268" s="76"/>
+      <c r="E268" s="77"/>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="75" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B269" s="76" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C269" s="76"/>
+      <c r="D269" s="76"/>
+      <c r="E269" s="77"/>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="75"/>
+      <c r="B270" s="76"/>
+      <c r="C270" s="76"/>
+      <c r="D270" s="76"/>
+      <c r="E270" s="77"/>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="78"/>
+      <c r="B271" s="79"/>
+      <c r="C271" s="79"/>
+      <c r="D271" s="79"/>
+      <c r="E271" s="80"/>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="30">
+      <c r="A276" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D276" s="6" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="45">
+      <c r="A277" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C277" s="91" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D277" s="6" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="B279" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="B280" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="B281" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="2" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="2" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="90">
+      <c r="A339" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="C339" s="6" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="72" t="s">
+        <v>932</v>
+      </c>
+      <c r="B340" s="73" t="s">
+        <v>933</v>
+      </c>
+      <c r="C340" s="73" t="s">
+        <v>935</v>
+      </c>
+      <c r="D340" s="74"/>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="78" t="s">
+        <v>934</v>
+      </c>
+      <c r="B341" s="79" t="s">
+        <v>936</v>
+      </c>
+      <c r="C341" s="79" t="s">
+        <v>937</v>
+      </c>
+      <c r="D341" s="80" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>969</v>
       </c>
     </row>
   </sheetData>
@@ -8774,19 +10928,19 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.140625" style="52" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="52" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" style="47" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="47" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" style="45" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" style="45" customWidth="1"/>
     <col min="5" max="5" width="69.85546875" style="45" customWidth="1"/>
@@ -8795,433 +10949,449 @@
     <col min="8" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="52" customFormat="1">
-      <c r="A1" s="52" t="s">
-        <v>462</v>
-      </c>
-      <c r="B1" s="52" t="s">
-        <v>477</v>
-      </c>
-      <c r="C1" s="52" t="s">
-        <v>460</v>
-      </c>
-      <c r="D1" s="52" t="s">
+    <row r="1" spans="1:7" s="47" customFormat="1">
+      <c r="A1" s="47" t="s">
+        <v>458</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>473</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>456</v>
+      </c>
+      <c r="D1" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="E1" s="52" t="s">
-        <v>461</v>
-      </c>
-      <c r="F1" s="52" t="s">
+      <c r="E1" s="47" t="s">
+        <v>457</v>
+      </c>
+      <c r="F1" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="47" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45">
+      <c r="A2" s="47" t="s">
+        <v>459</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>469</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>509</v>
+      </c>
+      <c r="E2" s="45" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="45">
-      <c r="A2" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>473</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>513</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>475</v>
-      </c>
       <c r="F2" s="45" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="B3" s="52" t="s">
-        <v>533</v>
+      <c r="B3" s="47" t="s">
+        <v>528</v>
       </c>
       <c r="C3" s="45" t="s">
+        <v>506</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>507</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="47" t="s">
         <v>510</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>511</v>
-      </c>
-      <c r="F3" s="45" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" s="52" t="s">
-        <v>514</v>
       </c>
       <c r="C4" s="45" t="s">
         <v>227</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="C5" s="45" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="52" t="s">
-        <v>517</v>
+      <c r="B6" s="47" t="s">
+        <v>513</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="C7" s="45" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>544</v>
-      </c>
-      <c r="F7" s="54" t="s">
-        <v>547</v>
+        <v>539</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="52" t="s">
-        <v>521</v>
+      <c r="B8" s="47" t="s">
+        <v>517</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>523</v>
+        <v>1308</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="45"/>
-      <c r="B9" s="52" t="s">
-        <v>525</v>
+      <c r="B9" s="47" t="s">
+        <v>520</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="C10" s="45" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="47" t="s">
+        <v>524</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>326</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>525</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="47" t="s">
+        <v>527</v>
+      </c>
+      <c r="C12" s="45" t="s">
         <v>529</v>
       </c>
-      <c r="C11" s="45" t="s">
-        <v>328</v>
-      </c>
-      <c r="D11" s="45" t="s">
+      <c r="D12" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F12" s="45" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="B12" s="52" t="s">
-        <v>532</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>534</v>
-      </c>
-      <c r="D12" s="45" t="s">
+    <row r="13" spans="1:7" ht="144.75" customHeight="1">
+      <c r="A13" s="47" t="s">
+        <v>460</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>470</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>545</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="G13" s="45" t="s">
         <v>535</v>
       </c>
-      <c r="F12" s="45" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="144.75" customHeight="1">
-      <c r="A13" s="52" t="s">
-        <v>464</v>
-      </c>
-      <c r="D13" s="45" t="s">
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="47" t="s">
         <v>474</v>
       </c>
-      <c r="E13" s="45" t="s">
-        <v>550</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>541</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="B14" s="52" t="s">
-        <v>478</v>
-      </c>
       <c r="C14" s="45" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="C15" s="45" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="C16" s="45" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="56" customFormat="1" ht="135">
-      <c r="A17" s="55"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="56" t="s">
-        <v>492</v>
-      </c>
-      <c r="E17" s="56" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="C18" s="45" t="s">
-        <v>494</v>
+        <v>486</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="81" customFormat="1">
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="81" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D16" s="81" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="C17" s="45" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="51" customFormat="1" ht="135">
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51" t="s">
+        <v>488</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="C19" s="45" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="B20" s="52" t="s">
-        <v>479</v>
-      </c>
       <c r="C20" s="45" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:6">
+      <c r="B21" s="47" t="s">
+        <v>475</v>
+      </c>
       <c r="C21" s="45" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="C22" s="45" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="C23" s="45" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="B24" s="52" t="s">
-        <v>480</v>
-      </c>
       <c r="C24" s="45" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="25" spans="1:6">
+      <c r="B25" s="47" t="s">
+        <v>476</v>
+      </c>
       <c r="C25" s="45" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="C26" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>573</v>
-      </c>
-      <c r="F26" s="45" t="s">
-        <v>542</v>
+        <v>496</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="C27" s="45" t="s">
-        <v>501</v>
+        <v>280</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>568</v>
+      </c>
+      <c r="F27" s="45" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="C28" s="45" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="C29" s="45" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="C30" s="45" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="B31" s="52" t="s">
-        <v>481</v>
-      </c>
       <c r="C31" s="45" t="s">
-        <v>458</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:6">
+      <c r="B32" s="47" t="s">
+        <v>477</v>
+      </c>
       <c r="C32" s="45" t="s">
-        <v>505</v>
+        <v>454</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="C33" s="45" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="C34" s="45" t="s">
-        <v>223</v>
+        <v>502</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="C35" s="45" t="s">
-        <v>539</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="B36" s="52" t="s">
-        <v>482</v>
-      </c>
       <c r="C36" s="45" t="s">
-        <v>507</v>
-      </c>
-      <c r="D36" s="45" t="s">
-        <v>565</v>
+        <v>534</v>
       </c>
     </row>
     <row r="37" spans="1:7">
+      <c r="B37" s="47" t="s">
+        <v>478</v>
+      </c>
       <c r="C37" s="45" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D37" s="45" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="C38" s="45" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D38" s="45" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="C39" s="45" t="s">
-        <v>537</v>
+        <v>504</v>
       </c>
       <c r="D39" s="45" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="C40" s="45" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D40" s="45" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="B41" s="52" t="s">
-        <v>569</v>
-      </c>
       <c r="C41" s="45" t="s">
-        <v>487</v>
+        <v>533</v>
       </c>
       <c r="D41" s="45" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="42" spans="1:7">
+      <c r="B42" s="47" t="s">
+        <v>564</v>
+      </c>
       <c r="C42" s="45" t="s">
-        <v>570</v>
+        <v>483</v>
       </c>
       <c r="D42" s="45" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="C43" s="45" t="s">
-        <v>488</v>
+        <v>565</v>
+      </c>
+      <c r="D43" s="45" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="C44" s="45" t="s">
-        <v>336</v>
+        <v>484</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="B45" s="52" t="s">
-        <v>483</v>
-      </c>
       <c r="C45" s="45" t="s">
-        <v>486</v>
+        <v>334</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="B46" s="52" t="s">
-        <v>484</v>
+      <c r="B46" s="47" t="s">
+        <v>479</v>
       </c>
       <c r="C46" s="45" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="255">
-      <c r="A47" s="52" t="s">
-        <v>465</v>
-      </c>
-      <c r="E47" s="45" t="s">
-        <v>591</v>
-      </c>
-      <c r="F47" s="45" t="s">
-        <v>470</v>
-      </c>
-      <c r="G47" s="53" t="s">
-        <v>472</v>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="B47" s="47" t="s">
+        <v>480</v>
+      </c>
+      <c r="C47" s="45" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="255">
+      <c r="A48" s="47" t="s">
+        <v>461</v>
+      </c>
+      <c r="E48" s="45" t="s">
+        <v>586</v>
+      </c>
+      <c r="F48" s="45" t="s">
+        <v>466</v>
+      </c>
+      <c r="G48" s="48" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G47" r:id="rId1"/>
+    <hyperlink ref="G48" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -9232,7 +11402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -9249,104 +11419,104 @@
     <row r="1" spans="1:5">
       <c r="A1" s="32"/>
       <c r="B1" s="41" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="84" customHeight="1">
       <c r="A2" s="35" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="45" customFormat="1" ht="84" customHeight="1">
       <c r="A3" s="35" t="s">
-        <v>1009</v>
+        <v>996</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>1011</v>
+        <v>998</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:5" ht="135">
       <c r="A4" s="35" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B4" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="E4" s="37" t="s">
         <v>425</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>426</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="38" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C5" s="39"/>
       <c r="D5" s="39" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E5" s="40"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="32"/>
       <c r="B8" s="33" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="35" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B9" s="36" t="s">
+        <v>435</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="D9" s="37" t="s">
         <v>439</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>437</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -9363,24 +11533,24 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="35" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="36" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="38"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -9390,10 +11560,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9407,21 +11577,21 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="B2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="C2" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="E2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F2" t="s">
         <v>233</v>
@@ -9429,144 +11599,169 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="B3" t="s">
+        <v>847</v>
+      </c>
+      <c r="C3" t="s">
+        <v>852</v>
+      </c>
+      <c r="D3" t="s">
         <v>854</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>859</v>
       </c>
-      <c r="D3" t="s">
-        <v>861</v>
-      </c>
-      <c r="E3" t="s">
-        <v>866</v>
-      </c>
       <c r="F3" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>1035</v>
+        <v>1021</v>
       </c>
       <c r="C4" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="D4" t="s">
-        <v>1036</v>
+        <v>1022</v>
       </c>
       <c r="E4" t="s">
-        <v>1037</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="B5" t="s">
+        <v>848</v>
+      </c>
+      <c r="C5" t="s">
+        <v>852</v>
+      </c>
+      <c r="D5" t="s">
         <v>855</v>
       </c>
-      <c r="C5" t="s">
-        <v>859</v>
-      </c>
-      <c r="D5" t="s">
-        <v>862</v>
-      </c>
       <c r="E5" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="F5" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="B6" t="s">
+        <v>849</v>
+      </c>
+      <c r="C6" t="s">
+        <v>852</v>
+      </c>
+      <c r="D6" t="s">
         <v>856</v>
       </c>
-      <c r="C6" t="s">
-        <v>859</v>
-      </c>
-      <c r="D6" t="s">
-        <v>863</v>
-      </c>
       <c r="E6" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="F6" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="B7" t="s">
+        <v>850</v>
+      </c>
+      <c r="C7" t="s">
+        <v>852</v>
+      </c>
+      <c r="D7" t="s">
         <v>857</v>
       </c>
-      <c r="C7" t="s">
-        <v>859</v>
-      </c>
-      <c r="D7" t="s">
-        <v>864</v>
-      </c>
       <c r="E7" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="F7" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
+        <v>851</v>
+      </c>
+      <c r="C8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D8" t="s">
         <v>858</v>
       </c>
-      <c r="C8" t="s">
-        <v>859</v>
-      </c>
-      <c r="D8" t="s">
-        <v>865</v>
-      </c>
       <c r="E8" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>845</v>
+      </c>
+      <c r="C9" t="s">
         <v>852</v>
       </c>
-      <c r="C9" t="s">
-        <v>859</v>
-      </c>
       <c r="D9" t="s">
-        <v>1033</v>
+        <v>1019</v>
       </c>
       <c r="E9" t="s">
-        <v>1034</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>846</v>
+      </c>
+      <c r="B10" t="s">
         <v>853</v>
       </c>
-      <c r="B10" t="s">
-        <v>860</v>
-      </c>
       <c r="C10" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="D10" t="s">
+        <v>864</v>
+      </c>
+      <c r="E10" t="s">
+        <v>865</v>
+      </c>
+      <c r="F10" t="s">
         <v>871</v>
       </c>
-      <c r="E10" t="s">
-        <v>872</v>
-      </c>
-      <c r="F10" t="s">
-        <v>878</v>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C11" t="s">
+        <v>852</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E12" t="s">
+        <v>863</v>
       </c>
     </row>
   </sheetData>
@@ -9590,65 +11785,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75">
-      <c r="A1" s="76" t="s">
-        <v>910</v>
-      </c>
-      <c r="B1" s="76" t="s">
-        <v>912</v>
-      </c>
-      <c r="C1" s="76" t="s">
-        <v>913</v>
+      <c r="A1" s="69" t="s">
+        <v>902</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>904</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="B2" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="C2" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>908</v>
+      </c>
+      <c r="B3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="54" t="s">
+        <v>909</v>
+      </c>
+      <c r="B4" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="54" t="s">
+        <v>910</v>
+      </c>
+      <c r="B5" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="54" t="s">
+        <v>911</v>
+      </c>
+      <c r="B6" t="s">
         <v>916</v>
       </c>
-      <c r="B3" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="59" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="54" t="s">
+        <v>912</v>
+      </c>
+      <c r="B7" t="s">
         <v>917</v>
-      </c>
-      <c r="B4" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="59" t="s">
-        <v>918</v>
-      </c>
-      <c r="B5" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="59" t="s">
-        <v>919</v>
-      </c>
-      <c r="B6" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="59" t="s">
-        <v>920</v>
-      </c>
-      <c r="B7" t="s">
-        <v>925</v>
       </c>
     </row>
   </sheetData>
@@ -9662,7 +11857,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9676,7 +11871,7 @@
         <v>303</v>
       </c>
       <c r="B1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C1" t="s">
         <v>233</v>
@@ -9708,31 +11903,31 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>316</v>
+        <v>1212</v>
+      </c>
+      <c r="B8" s="83" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>311</v>
-      </c>
-      <c r="B9" s="47"/>
+        <v>1213</v>
+      </c>
+      <c r="B9" s="83"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B11" s="83" t="s">
         <v>313</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>314</v>
-      </c>
-      <c r="B12" s="47"/>
+        <v>312</v>
+      </c>
+      <c r="B12" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9761,29 +11956,29 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="D1" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="B2" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="C2" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="C3" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="D3" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
     </row>
   </sheetData>
@@ -9793,180 +11988,223 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="78" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="71" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="31.5703125" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="78" t="s">
-        <v>385</v>
+      <c r="A1" s="71" t="s">
+        <v>381</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="B2" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="C3" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="C4" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="C5" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="78" t="s">
-        <v>394</v>
+      <c r="A7" s="71" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="B8" s="78" t="s">
-        <v>395</v>
+      <c r="B8" s="71" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10" s="78" t="s">
-        <v>397</v>
+      <c r="B10" s="71" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="B12" s="78" t="s">
-        <v>398</v>
+      <c r="B12" s="71" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="2" t="s">
-        <v>974</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="B14" s="78" t="s">
-        <v>399</v>
+      <c r="B14" s="71" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="B16" s="78" t="s">
-        <v>400</v>
+      <c r="B16" s="71" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="B17" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="B18" s="78" t="s">
-        <v>401</v>
+      <c r="B18" s="71" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="B19" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="B20" s="78" t="s">
-        <v>406</v>
+      <c r="B20" s="71" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="78" t="s">
-        <v>932</v>
+      <c r="A23" s="71" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="B24" s="78" t="s">
-        <v>935</v>
+      <c r="B24" s="71" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="B25" s="77" t="s">
-        <v>933</v>
+      <c r="B25" s="70" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="B26" s="77" t="s">
-        <v>934</v>
+      <c r="B26" s="70" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="B27" s="77" t="s">
-        <v>936</v>
+      <c r="B27" s="70" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="B28" s="77" t="s">
-        <v>937</v>
+      <c r="B28" s="70" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="B29" s="77" t="s">
-        <v>938</v>
+      <c r="B29" s="70" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="B30" s="77" t="s">
-        <v>939</v>
+      <c r="B30" s="70" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="B32" s="78" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="77" t="s">
-        <v>941</v>
+      <c r="B32" s="71" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="B33" s="70" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="71" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="B37" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="B38" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="B40" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>1159</v>
       </c>
     </row>
   </sheetData>
@@ -9993,18 +12231,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="86" t="s">
         <v>293</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48" t="s">
+      <c r="C1" s="86"/>
+      <c r="D1" s="86" t="s">
         <v>295</v>
       </c>
-      <c r="E1" s="48"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="46" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>294</v>
@@ -10043,152 +12281,152 @@
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="A6" s="46" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>733</v>
+        <v>370</v>
+      </c>
+      <c r="F6" s="85" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="F7" s="51"/>
+        <v>372</v>
+      </c>
+      <c r="F7" s="85"/>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="F8" s="51"/>
+        <v>375</v>
+      </c>
+      <c r="F8" s="85"/>
     </row>
     <row r="9" spans="1:6" ht="30">
       <c r="B9" s="6" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="F9" s="51"/>
+        <v>376</v>
+      </c>
+      <c r="F9" s="85"/>
     </row>
     <row r="10" spans="1:6" ht="30">
       <c r="B10" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="F10" s="51"/>
+        <v>404</v>
+      </c>
+      <c r="F10" s="85"/>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="F11" s="51"/>
+        <v>405</v>
+      </c>
+      <c r="F11" s="85"/>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="F12" s="51"/>
+        <v>406</v>
+      </c>
+      <c r="F12" s="85"/>
     </row>
     <row r="13" spans="1:6">
       <c r="E13" s="43" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="F13" s="45"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="D14" s="50" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E14" s="50"/>
+      <c r="D14" s="84" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E14" s="84"/>
       <c r="F14" s="45"/>
     </row>
     <row r="15" spans="1:6">
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="40.5" customHeight="1">
-      <c r="B16" s="49" t="s">
-        <v>416</v>
-      </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
+      <c r="B16" s="87" t="s">
+        <v>412</v>
+      </c>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="46" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="46" t="s">
-        <v>450</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>451</v>
-      </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
+        <v>446</v>
+      </c>
+      <c r="B21" s="84" t="s">
+        <v>447</v>
+      </c>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
     </row>
     <row r="24" spans="1:5" ht="60">
       <c r="A24" s="46" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B21:E21"/>
     <mergeCell ref="F6:F12"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10196,13 +12434,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10217,181 +12455,253 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="44" t="s">
-        <v>899</v>
-      </c>
-      <c r="C1" s="60" t="s">
-        <v>477</v>
+        <v>891</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>473</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1">
-      <c r="A2" s="61" t="s">
-        <v>742</v>
+      <c r="A2" s="88" t="s">
+        <v>736</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>738</v>
-      </c>
-      <c r="C2" s="60" t="s">
-        <v>736</v>
+        <v>732</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>730</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1">
-      <c r="A3" s="61"/>
+      <c r="A3" s="88"/>
       <c r="B3" s="6" t="s">
-        <v>740</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>736</v>
+        <v>1326</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>730</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1">
-      <c r="A4" s="61"/>
+      <c r="A4" s="88"/>
       <c r="B4" s="6" t="s">
-        <v>741</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>736</v>
+        <v>1327</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>730</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="C5" s="60"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" s="62" t="s">
-        <v>761</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>736</v>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" customHeight="1">
+      <c r="A5" s="88"/>
+      <c r="B5" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>730</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1">
+      <c r="A6" s="88"/>
+      <c r="B6" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>730</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>762</v>
+        <v>733</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="B7" s="62"/>
-      <c r="C7" s="60" t="s">
-        <v>736</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>298</v>
+      <c r="C7" s="55"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="89" t="s">
+        <v>755</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>730</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="B9" s="6" t="s">
-        <v>926</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>903</v>
+      <c r="B9" s="89"/>
+      <c r="C9" s="55" t="s">
+        <v>730</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>739</v>
+        <v>757</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="6" t="s">
-        <v>898</v>
-      </c>
+    <row r="11" spans="1:5" ht="30">
+      <c r="B11" s="23" t="s">
+        <v>918</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>895</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30">
+      <c r="B12" s="29" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>895</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30">
       <c r="B14" s="6" t="s">
-        <v>897</v>
+        <v>1235</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>296</v>
+        <v>1236</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="D15" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E15" s="6" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="6" t="s">
-        <v>371</v>
+        <v>890</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>902</v>
+        <v>889</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>893</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>908</v>
+        <v>296</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30">
-      <c r="C18" s="6" t="s">
-        <v>903</v>
-      </c>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="D18" s="6" t="s">
-        <v>904</v>
+        <v>298</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="45">
-      <c r="C19" s="6" t="s">
-        <v>903</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>907</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>894</v>
+      </c>
       <c r="D20" s="6" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>906</v>
+        <v>897</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30">
+      <c r="C21" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45">
+      <c r="C22" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30">
+      <c r="D23" s="6" t="s">
+        <v>901</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30">
+      <c r="A25" s="6" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>1335</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10400,17 +12710,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.140625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="29" style="10" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="10" customWidth="1"/>
     <col min="4" max="4" width="20.140625" style="10" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="10"/>
   </cols>
@@ -10610,6 +12920,33 @@
         <v>255</v>
       </c>
     </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="93" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="93" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" s="10" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>1339</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/语法总结.xlsx
+++ b/语法总结.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richie.ruan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="2550" tabRatio="736" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="2550" tabRatio="736" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="系动词" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="1612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="1622">
   <si>
     <t xml:space="preserve">状态系动词 </t>
   </si>
@@ -164,9 +164,6 @@
   </si>
   <si>
     <t xml:space="preserve">seem，appear） </t>
-  </si>
-  <si>
-    <t>+ to/like</t>
   </si>
   <si>
     <t>+that从句</t>
@@ -6521,6 +6518,63 @@
   </si>
   <si>
     <t>努力做某事</t>
+  </si>
+  <si>
+    <t>+ like +n./ n.ing(动名词)</t>
+  </si>
+  <si>
+    <t>+ to + v.</t>
+  </si>
+  <si>
+    <t>depend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depends on </t>
+  </si>
+  <si>
+    <t>依靠，取决于</t>
+  </si>
+  <si>
+    <t>看情况</t>
+  </si>
+  <si>
+    <t>不及物动词，不可以接宾语，基本上与on，upon使用，但有时口语中可以省略介词，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可+ 名词，名词从句，动名词，但不可以直接加 that  必须要用 depend on it that。
+</t>
+  </si>
+  <si>
+    <r>
+      <t>介词后通常可以接 wh、how从句</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>， 但是不</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">能直接跟 that 从句作宾语，但有少数“动词 + 介词”组成的动词短语, 如：
+</t>
+    </r>
+  </si>
+  <si>
+    <t>depend on、count on、rely on、answer for、see to、look to、 insist on、agree to、object to 等可先接 it 作形式宾语，再跟that从句，即：动词 + 介词 + it + that 从句 。</t>
+  </si>
+  <si>
+    <t>用法说明1</t>
   </si>
 </sst>
 </file>
@@ -7316,10 +7370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7363,15 +7417,15 @@
         <v>5</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="67.5" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>10</v>
@@ -7419,7 +7473,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>11</v>
@@ -7431,7 +7485,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>21</v>
@@ -7446,42 +7500,45 @@
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="9" t="s">
-        <v>22</v>
+        <v>1612</v>
       </c>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="9" t="s">
+        <v>1611</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="B17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="45">
+      <c r="B18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" ht="45">
-      <c r="B17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="165">
-      <c r="A19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6">
-      <c r="F20" s="5"/>
+    <row r="20" spans="1:6" ht="165">
+      <c r="A20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="F21" s="3"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="F22" s="4"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6">
       <c r="F23" s="4"/>
@@ -7496,10 +7553,10 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="F27" s="3"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="F28" s="4"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6">
       <c r="F29" s="4"/>
@@ -7511,7 +7568,10 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="F32" s="3"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7536,655 +7596,655 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27.75">
       <c r="A2" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="45">
       <c r="A6" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30">
       <c r="A8" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="27.75">
       <c r="A9" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30">
       <c r="A10" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30">
       <c r="A12" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>89</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30">
       <c r="A19" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:3" ht="30">
       <c r="A20" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>103</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="25.5">
       <c r="A21" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>105</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>107</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>111</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="60">
       <c r="A26" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>113</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30">
       <c r="A27" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="25.5">
       <c r="A28" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>117</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="36">
       <c r="A29" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="25.5">
       <c r="A30" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>121</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="25.5">
       <c r="A31" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>123</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="16"/>
       <c r="B32" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="15" t="s">
         <v>125</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="C35" s="15" t="s">
         <v>130</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>132</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>134</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>136</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="45">
       <c r="A39" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>138</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" s="16" t="s">
         <v>140</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="30">
       <c r="A41" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" s="15" t="s">
         <v>147</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>149</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" s="16" t="s">
         <v>152</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" s="15" t="s">
         <v>154</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="15" t="s">
         <v>157</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" s="15" t="s">
         <v>159</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="15" t="s">
         <v>161</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" s="15" t="s">
         <v>163</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B56" s="15" t="s">
         <v>165</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B57" s="15" t="s">
         <v>167</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" s="15" t="s">
         <v>170</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B61" s="15" t="s">
         <v>173</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B63" s="15" t="s">
         <v>176</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="B66" s="15" t="s">
         <v>180</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B67" s="15" t="s">
         <v>182</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B68" s="15" t="s">
         <v>184</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B69" s="15" t="s">
         <v>186</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B71" s="15" t="s">
         <v>189</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="B73" s="15" t="s">
         <v>192</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B74" s="15" t="s">
         <v>194</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="B77" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="B78" s="15" t="s">
         <v>200</v>
-      </c>
-      <c r="B78" s="15" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="79" spans="1:2" s="45" customFormat="1">
       <c r="A79" s="21" t="s">
+        <v>562</v>
+      </c>
+      <c r="B79" s="45" t="s">
         <v>563</v>
-      </c>
-      <c r="B79" s="45" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B81" s="15" t="s">
         <v>203</v>
-      </c>
-      <c r="B81" s="15" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B82" s="15" t="s">
         <v>205</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B83" s="15" t="s">
         <v>207</v>
-      </c>
-      <c r="B83" s="15" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -8200,7 +8260,7 @@
   <dimension ref="A1:E296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B175" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C192" sqref="C192"/>
@@ -8218,118 +8278,118 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>217</v>
-      </c>
       <c r="C1" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>220</v>
-      </c>
       <c r="C3" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" ht="32.25" customHeight="1">
       <c r="A4" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="C4" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>225</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>226</v>
       </c>
       <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" ht="30">
       <c r="A5" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B5" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="D5" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="D5" s="30" t="s">
-        <v>231</v>
-      </c>
       <c r="E5" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
       <c r="A7" s="23" t="s">
+        <v>733</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>734</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="C7" s="24" t="s">
         <v>735</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>736</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="29" t="s">
+        <v>736</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>734</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>737</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>735</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>738</v>
       </c>
       <c r="D8" s="30"/>
       <c r="E8" s="31"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="23" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>1231</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>1232</v>
-      </c>
       <c r="C10" s="83" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="25"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="26" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B11" s="28" t="s">
         <v>1233</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>1234</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -8337,158 +8397,158 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="26" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="29" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D13" s="30"/>
       <c r="E13" s="31"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="6" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>1293</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>1294</v>
-      </c>
       <c r="C17" s="6" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>1295</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>1296</v>
-      </c>
       <c r="C18" s="6" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="6" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>1405</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>1406</v>
-      </c>
       <c r="C20" s="7" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30">
       <c r="A21" s="6" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>1407</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>1408</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>1409</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="6" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>1410</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>1411</v>
-      </c>
       <c r="C22" s="7" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="6" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>1412</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>1413</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30">
       <c r="A29" s="23" t="s">
+        <v>592</v>
+      </c>
+      <c r="B29" s="24" t="s">
         <v>593</v>
       </c>
-      <c r="B29" s="24" t="s">
-        <v>594</v>
-      </c>
       <c r="C29" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="D29" s="24" t="s">
         <v>599</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>600</v>
       </c>
       <c r="E29" s="25"/>
     </row>
     <row r="30" spans="1:5" ht="60">
       <c r="A30" s="29" t="s">
+        <v>594</v>
+      </c>
+      <c r="B30" s="30" t="s">
         <v>595</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="C30" s="30" t="s">
         <v>596</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>597</v>
       </c>
       <c r="D30" s="30"/>
       <c r="E30" s="31" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="B31" s="24" t="s">
         <v>603</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="C31" s="24" t="s">
         <v>604</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>605</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="25"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="26" t="s">
+        <v>605</v>
+      </c>
+      <c r="B32" s="28" t="s">
         <v>606</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="C32" s="28" t="s">
         <v>607</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>608</v>
       </c>
       <c r="D32" s="28"/>
       <c r="E32" s="22"/>
@@ -8497,124 +8557,124 @@
       <c r="A33" s="56"/>
       <c r="B33" s="57"/>
       <c r="C33" s="57" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D33" s="57"/>
       <c r="E33" s="58" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="52" customFormat="1" ht="32.25" customHeight="1">
       <c r="A34" s="56"/>
       <c r="B34" s="57"/>
       <c r="C34" s="57" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D34" s="57"/>
       <c r="E34" s="58" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="53" customFormat="1" ht="45">
       <c r="A35" s="59" t="s">
+        <v>610</v>
+      </c>
+      <c r="B35" s="60" t="s">
         <v>611</v>
       </c>
-      <c r="B35" s="60" t="s">
-        <v>612</v>
-      </c>
       <c r="C35" s="60" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D35" s="60"/>
       <c r="E35" s="61" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="53" customFormat="1" ht="30">
       <c r="A36" s="62" t="s">
+        <v>613</v>
+      </c>
+      <c r="B36" s="63" t="s">
         <v>614</v>
-      </c>
-      <c r="B36" s="63" t="s">
-        <v>615</v>
       </c>
       <c r="C36" s="63"/>
       <c r="D36" s="63"/>
       <c r="E36" s="64" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="53" customFormat="1"/>
     <row r="38" spans="1:5" s="53" customFormat="1" ht="60">
       <c r="A38" s="65" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B38" s="66" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C38" s="66" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D38" s="66"/>
       <c r="E38" s="67" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="53" customFormat="1" ht="90">
       <c r="A39" s="62" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B39" s="63" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C39" s="63"/>
       <c r="D39" s="63"/>
       <c r="E39" s="64" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="53" customFormat="1"/>
     <row r="41" spans="1:5" s="53" customFormat="1">
       <c r="A41" s="53" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B41" s="53" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="53" customFormat="1">
       <c r="A42" s="53" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B42" s="53" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="53" customFormat="1">
       <c r="A43" s="53" t="s">
+        <v>784</v>
+      </c>
+      <c r="B43" s="53" t="s">
         <v>785</v>
-      </c>
-      <c r="B43" s="53" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="53" customFormat="1" ht="30">
       <c r="A44" s="53" t="s">
+        <v>788</v>
+      </c>
+      <c r="B44" s="53" t="s">
+        <v>790</v>
+      </c>
+      <c r="E44" s="53" t="s">
         <v>789</v>
-      </c>
-      <c r="B44" s="53" t="s">
-        <v>791</v>
-      </c>
-      <c r="E44" s="53" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="53" customFormat="1"/>
     <row r="46" spans="1:5" s="53" customFormat="1">
       <c r="A46" s="65" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B46" s="66" t="s">
         <v>1467</v>
-      </c>
-      <c r="B46" s="66" t="s">
-        <v>1468</v>
       </c>
       <c r="C46" s="66"/>
       <c r="D46" s="66"/>
@@ -8622,10 +8682,10 @@
     </row>
     <row r="47" spans="1:5" s="53" customFormat="1">
       <c r="A47" s="59" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B47" s="60" t="s">
         <v>1469</v>
-      </c>
-      <c r="B47" s="60" t="s">
-        <v>1470</v>
       </c>
       <c r="C47" s="60"/>
       <c r="D47" s="60"/>
@@ -8633,10 +8693,10 @@
     </row>
     <row r="48" spans="1:5" s="53" customFormat="1">
       <c r="A48" s="62" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B48" s="63" t="s">
         <v>1471</v>
-      </c>
-      <c r="B48" s="63" t="s">
-        <v>1472</v>
       </c>
       <c r="C48" s="63"/>
       <c r="D48" s="63"/>
@@ -8645,46 +8705,46 @@
     <row r="49" spans="1:3" s="53" customFormat="1"/>
     <row r="50" spans="1:3" s="53" customFormat="1">
       <c r="A50" s="53" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B50" s="53" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="53" customFormat="1">
       <c r="A51" s="53" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B51" s="53" t="s">
         <v>1532</v>
-      </c>
-      <c r="B51" s="53" t="s">
-        <v>1533</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="53" customFormat="1"/>
     <row r="53" spans="1:3" s="53" customFormat="1">
       <c r="A53" s="53" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="53" customFormat="1" ht="30">
       <c r="A54" s="53" t="s">
+        <v>619</v>
+      </c>
+      <c r="B54" s="53" t="s">
+        <v>621</v>
+      </c>
+      <c r="C54" s="53" t="s">
         <v>620</v>
-      </c>
-      <c r="B54" s="53" t="s">
-        <v>622</v>
-      </c>
-      <c r="C54" s="53" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="53" customFormat="1" ht="30">
       <c r="A55" s="53" t="s">
+        <v>622</v>
+      </c>
+      <c r="B55" s="53" t="s">
         <v>623</v>
       </c>
-      <c r="B55" s="53" t="s">
+      <c r="C55" s="53" t="s">
         <v>624</v>
-      </c>
-      <c r="C55" s="53" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="53" customFormat="1"/>
@@ -8695,296 +8755,296 @@
     <row r="61" spans="1:3" s="53" customFormat="1"/>
     <row r="62" spans="1:3">
       <c r="A62" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B63" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="C64" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C66" s="93" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C67" s="93"/>
       <c r="D67" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C68" s="93"/>
       <c r="D68" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C69" s="93"/>
       <c r="D69" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="6" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>1282</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="C72" s="6" t="s">
         <v>1283</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="6" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>1285</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="C73" s="6" t="s">
         <v>1286</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="D73" s="6" t="s">
         <v>1287</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>1288</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="6" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>1289</v>
       </c>
-      <c r="B74" s="6" t="s">
-        <v>1290</v>
-      </c>
       <c r="C74" s="6" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="6" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>1291</v>
       </c>
-      <c r="B75" s="6" t="s">
-        <v>1292</v>
-      </c>
       <c r="C75" s="6" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="23" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B77" s="24" t="s">
         <v>1349</v>
-      </c>
-      <c r="B77" s="24" t="s">
-        <v>1350</v>
       </c>
       <c r="C77" s="24"/>
       <c r="D77" s="25"/>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="26" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B78" s="28" t="s">
         <v>1351</v>
-      </c>
-      <c r="B78" s="28" t="s">
-        <v>1352</v>
       </c>
       <c r="C78" s="28"/>
       <c r="D78" s="22"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="29" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B79" s="30" t="s">
         <v>1353</v>
-      </c>
-      <c r="B79" s="30" t="s">
-        <v>1354</v>
       </c>
       <c r="C79" s="30"/>
       <c r="D79" s="31"/>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="6" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="6" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>1451</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>1452</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="6" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="C89" s="6" t="s">
         <v>581</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="30">
       <c r="A92" s="6" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B93" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="C93" s="6" t="s">
         <v>830</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>704</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="6" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="6" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B104" s="6" t="s">
         <v>1435</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>1436</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="6" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="30">
       <c r="A108" s="23" t="s">
+        <v>793</v>
+      </c>
+      <c r="B108" s="24" t="s">
         <v>794</v>
-      </c>
-      <c r="B108" s="24" t="s">
-        <v>795</v>
       </c>
       <c r="C108" s="24"/>
       <c r="D108" s="24"/>
@@ -8992,10 +9052,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="29" t="s">
+        <v>795</v>
+      </c>
+      <c r="B109" s="30" t="s">
         <v>796</v>
-      </c>
-      <c r="B109" s="30" t="s">
-        <v>797</v>
       </c>
       <c r="C109" s="30"/>
       <c r="D109" s="30"/>
@@ -9003,92 +9063,92 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="23" t="s">
+        <v>754</v>
+      </c>
+      <c r="B116" s="24" t="s">
         <v>755</v>
       </c>
-      <c r="B116" s="24" t="s">
+      <c r="C116" s="24" t="s">
         <v>756</v>
-      </c>
-      <c r="C116" s="24" t="s">
-        <v>757</v>
       </c>
       <c r="D116" s="24"/>
       <c r="E116" s="25"/>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="29" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B117" s="30" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C117" s="30" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D117" s="68" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E117" s="31"/>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="6" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="6" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B119" s="6" t="s">
         <v>1165</v>
       </c>
-      <c r="B119" s="6" t="s">
-        <v>1166</v>
-      </c>
       <c r="C119" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="6" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B120" s="6" t="s">
         <v>1167</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="C120" s="6" t="s">
         <v>1168</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="30">
       <c r="A121" s="6" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B121" s="6" t="s">
         <v>1170</v>
       </c>
-      <c r="B121" s="6" t="s">
-        <v>1171</v>
-      </c>
       <c r="C121" s="6" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="6" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="28" t="s">
+        <v>805</v>
+      </c>
+      <c r="B126" s="28" t="s">
         <v>806</v>
-      </c>
-      <c r="B126" s="28" t="s">
-        <v>807</v>
       </c>
       <c r="C126" s="28"/>
       <c r="D126" s="28"/>
@@ -9096,10 +9156,10 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="28" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B127" s="28" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C127" s="28"/>
       <c r="D127" s="28"/>
@@ -9107,10 +9167,10 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="30" t="s">
+        <v>808</v>
+      </c>
+      <c r="B128" s="30" t="s">
         <v>809</v>
-      </c>
-      <c r="B128" s="30" t="s">
-        <v>810</v>
       </c>
       <c r="C128" s="30"/>
       <c r="D128" s="30"/>
@@ -9118,77 +9178,77 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="6" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="6" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B132" s="6" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C132" s="6" t="s">
         <v>1323</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>1324</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="6" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B133" s="6" t="s">
         <v>1322</v>
       </c>
-      <c r="B133" s="6" t="s">
-        <v>1323</v>
-      </c>
       <c r="C133" s="6" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B141" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="C141" s="6" t="s">
         <v>257</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="30">
       <c r="A142" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C142" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="E142" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="6" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="6" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="90" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B146" s="90" t="s">
         <v>1570</v>
-      </c>
-      <c r="B146" s="90" t="s">
-        <v>1571</v>
       </c>
       <c r="C146" s="90"/>
       <c r="D146" s="90"/>
@@ -9196,10 +9256,10 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="90" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="B147" s="90" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="C147" s="90"/>
       <c r="D147" s="90"/>
@@ -9207,10 +9267,10 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="90" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B148" s="90" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C148" s="90"/>
       <c r="D148" s="90"/>
@@ -9225,67 +9285,67 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="23" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B154" s="24" t="s">
         <v>1219</v>
       </c>
-      <c r="B154" s="24" t="s">
+      <c r="C154" s="24" t="s">
         <v>1220</v>
-      </c>
-      <c r="C154" s="24" t="s">
-        <v>1221</v>
       </c>
       <c r="D154" s="24"/>
       <c r="E154" s="25"/>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="26" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B155" s="28" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C155" s="28" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D155" s="28"/>
       <c r="E155" s="22"/>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="26" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B156" s="28" t="s">
         <v>1305</v>
       </c>
-      <c r="B156" s="28" t="s">
+      <c r="C156" s="28" t="s">
         <v>1306</v>
-      </c>
-      <c r="C156" s="28" t="s">
-        <v>1307</v>
       </c>
       <c r="D156" s="28"/>
       <c r="E156" s="22"/>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="26" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B157" s="28" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C157" s="28" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D157" s="28"/>
       <c r="E157" s="22"/>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="26" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B158" s="28" t="s">
         <v>1223</v>
-      </c>
-      <c r="B158" s="28" t="s">
-        <v>1224</v>
       </c>
       <c r="C158" s="28"/>
       <c r="D158" s="28"/>
@@ -9293,10 +9353,10 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="26" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B159" s="28" t="s">
         <v>1225</v>
-      </c>
-      <c r="B159" s="28" t="s">
-        <v>1226</v>
       </c>
       <c r="C159" s="28"/>
       <c r="D159" s="28"/>
@@ -9304,10 +9364,10 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="29" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B160" s="30" t="s">
         <v>1227</v>
-      </c>
-      <c r="B160" s="30" t="s">
-        <v>1228</v>
       </c>
       <c r="C160" s="30"/>
       <c r="D160" s="30"/>
@@ -9315,177 +9375,177 @@
     </row>
     <row r="162" spans="1:5" ht="45">
       <c r="A162" s="6" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B162" s="6" t="s">
         <v>1375</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>1376</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="30">
       <c r="A167" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B167" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="E167" s="6" t="s">
         <v>546</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="E167" s="6" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="30">
       <c r="A168" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B168" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="C168" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="C168" s="6" t="s">
+      <c r="E168" s="6" t="s">
         <v>549</v>
-      </c>
-      <c r="E168" s="6" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="30">
       <c r="A169" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B169" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="E169" s="6" t="s">
         <v>544</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="E169" s="6" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="45">
       <c r="A170" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B170" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="C170" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="C170" s="6" t="s">
-        <v>553</v>
-      </c>
       <c r="E170" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="B172" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="C172" s="6" t="s">
         <v>645</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="B173" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="E173" s="6" t="s">
         <v>648</v>
-      </c>
-      <c r="E173" s="6" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="30">
       <c r="A176" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B190" s="24"/>
       <c r="C190" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D190" s="24"/>
       <c r="E190" s="25"/>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B191" s="28"/>
       <c r="C191" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D191" s="28"/>
       <c r="E191" s="22"/>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="26" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B192" s="28"/>
       <c r="C192" s="28" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D192" s="28"/>
       <c r="E192" s="22"/>
@@ -9499,22 +9559,22 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B194" s="28"/>
       <c r="C194" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D194" s="28"/>
       <c r="E194" s="22"/>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B195" s="30"/>
       <c r="C195" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D195" s="30"/>
       <c r="E195" s="31"/>
@@ -9549,267 +9609,267 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B200" s="28" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C200" s="22"/>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="26"/>
       <c r="B201" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="C201" s="22" t="s">
         <v>315</v>
-      </c>
-      <c r="C201" s="22" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="30">
       <c r="A202" s="26"/>
       <c r="B202" s="28" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C202" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="30">
       <c r="A203" s="26"/>
       <c r="B203" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C203" s="22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B204" s="28" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C204" s="22"/>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="26"/>
       <c r="B205" s="28" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C205" s="22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="29"/>
       <c r="B206" s="30" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C206" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="65.25" customHeight="1">
       <c r="A208" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B208" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="B208" s="6" t="s">
+      <c r="D208" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="D208" s="6" t="s">
+      <c r="E208" s="6" t="s">
         <v>377</v>
-      </c>
-      <c r="E208" s="6" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="B209" s="6" t="s">
         <v>584</v>
-      </c>
-      <c r="B209" s="6" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="B210" s="6" t="s">
         <v>586</v>
-      </c>
-      <c r="B210" s="6" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="B212" s="6" t="s">
         <v>590</v>
-      </c>
-      <c r="B212" s="6" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="45">
       <c r="A216" s="6" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="B217" s="6" t="s">
         <v>770</v>
-      </c>
-      <c r="B217" s="6" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="B219" s="6" t="s">
         <v>819</v>
-      </c>
-      <c r="B219" s="6" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="B220" s="6" t="s">
         <v>821</v>
-      </c>
-      <c r="B220" s="6" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="B221" s="6" t="s">
         <v>823</v>
-      </c>
-      <c r="B221" s="6" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="6" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="6" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B224" s="6" t="s">
         <v>1111</v>
-      </c>
-      <c r="B224" s="6" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="6" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="6" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="6" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B227" s="6" t="s">
         <v>1575</v>
       </c>
-      <c r="B227" s="6" t="s">
-        <v>1576</v>
-      </c>
       <c r="C227" s="6" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="30">
       <c r="A228" s="6" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B228" s="6" t="s">
         <v>1579</v>
       </c>
-      <c r="B228" s="6" t="s">
+      <c r="C228" s="6" t="s">
         <v>1580</v>
       </c>
-      <c r="C228" s="6" t="s">
-        <v>1581</v>
-      </c>
       <c r="D228" s="6" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="30">
       <c r="B229" s="6" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="C229" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D229" s="6" t="s">
         <v>1584</v>
-      </c>
-      <c r="D229" s="6" t="s">
-        <v>1585</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B235" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D235" s="24"/>
       <c r="E235" s="25"/>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B236" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D236" s="28"/>
       <c r="E236" s="22"/>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="26" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B237" s="28" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D237" s="28"/>
       <c r="E237" s="22"/>
@@ -9822,33 +9882,33 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B239" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D239" s="28"/>
       <c r="E239" s="22"/>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B240" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="D240" s="30"/>
       <c r="E240" s="31"/>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="28" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B241" s="28" t="s">
         <v>1462</v>
-      </c>
-      <c r="B241" s="28" t="s">
-        <v>1463</v>
       </c>
       <c r="C241" s="28"/>
       <c r="D241" s="28"/>
@@ -9863,125 +9923,125 @@
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B243" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="C243" s="6" t="s">
         <v>739</v>
-      </c>
-      <c r="C243" s="6" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="45">
       <c r="A244" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B244" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B244" s="6" t="s">
+      <c r="C244" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C244" s="6" t="s">
+      <c r="D244" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E244" s="6" t="s">
         <v>266</v>
-      </c>
-      <c r="D244" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="E244" s="6" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="45">
       <c r="A245" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B245" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B245" s="6" t="s">
+      <c r="C245" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C245" s="6" t="s">
-        <v>271</v>
-      </c>
       <c r="E245" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B246" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="B246" s="6" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B247" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="B247" s="6" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="B250" s="6" t="s">
         <v>766</v>
-      </c>
-      <c r="B250" s="6" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="6" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B252" s="6" t="s">
         <v>1438</v>
-      </c>
-      <c r="B252" s="6" t="s">
-        <v>1439</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="6" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B253" s="6" t="s">
         <v>1440</v>
-      </c>
-      <c r="B253" s="6" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="6" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B254" s="6" t="s">
         <v>1442</v>
       </c>
-      <c r="B254" s="6" t="s">
+      <c r="C254" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="E254" s="6" t="s">
         <v>1443</v>
-      </c>
-      <c r="C254" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="E254" s="6" t="s">
-        <v>1444</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="6" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B255" s="6" t="s">
         <v>1445</v>
       </c>
-      <c r="B255" s="6" t="s">
+      <c r="C255" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="E255" s="6" t="s">
         <v>1446</v>
-      </c>
-      <c r="C255" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="E255" s="6" t="s">
-        <v>1447</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="89" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B257" s="24"/>
       <c r="C257" s="24"/>
@@ -9990,10 +10050,10 @@
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="26" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B258" s="28" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="C258" s="28"/>
       <c r="D258" s="28"/>
@@ -10001,10 +10061,10 @@
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="26" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B259" s="28" t="s">
         <v>1500</v>
-      </c>
-      <c r="B259" s="28" t="s">
-        <v>1501</v>
       </c>
       <c r="C259" s="28"/>
       <c r="D259" s="28"/>
@@ -10012,10 +10072,10 @@
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="29" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B260" s="30" t="s">
         <v>1503</v>
-      </c>
-      <c r="B260" s="30" t="s">
-        <v>1504</v>
       </c>
       <c r="C260" s="30"/>
       <c r="D260" s="30"/>
@@ -10023,10 +10083,10 @@
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="23" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B262" s="24" t="s">
         <v>1505</v>
-      </c>
-      <c r="B262" s="24" t="s">
-        <v>1506</v>
       </c>
       <c r="C262" s="24"/>
       <c r="D262" s="24"/>
@@ -10034,26 +10094,26 @@
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="29" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B263" s="30" t="s">
         <v>1507</v>
       </c>
-      <c r="B263" s="30" t="s">
+      <c r="C263" s="68" t="s">
         <v>1508</v>
-      </c>
-      <c r="C263" s="68" t="s">
-        <v>1509</v>
       </c>
       <c r="D263" s="30"/>
       <c r="E263" s="31"/>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" s="23" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B265" s="24" t="s">
         <v>1512</v>
       </c>
-      <c r="B265" s="24" t="s">
-        <v>1513</v>
-      </c>
       <c r="C265" s="24" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="D265" s="24"/>
       <c r="E265" s="25"/>
@@ -10061,10 +10121,10 @@
     <row r="266" spans="1:5">
       <c r="A266" s="26"/>
       <c r="B266" s="28" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C266" s="28" t="s">
         <v>1514</v>
-      </c>
-      <c r="C266" s="28" t="s">
-        <v>1515</v>
       </c>
       <c r="D266" s="28"/>
       <c r="E266" s="22"/>
@@ -10072,20 +10132,20 @@
     <row r="267" spans="1:5">
       <c r="A267" s="26"/>
       <c r="B267" s="28" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="C267" s="28" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D267" s="28"/>
       <c r="E267" s="22"/>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="29" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B268" s="30" t="s">
         <v>1517</v>
-      </c>
-      <c r="B268" s="30" t="s">
-        <v>1518</v>
       </c>
       <c r="C268" s="30"/>
       <c r="D268" s="30"/>
@@ -10093,51 +10153,51 @@
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="60">
       <c r="A272" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D272" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E272" s="6" t="s">
         <v>241</v>
-      </c>
-      <c r="E272" s="6" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="60">
       <c r="A273" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C273" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D273" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="D273" s="6" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="23" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B274" s="24" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C274" s="24"/>
       <c r="D274" s="24"/>
@@ -10146,200 +10206,200 @@
     <row r="275" spans="1:5" ht="30">
       <c r="A275" s="26"/>
       <c r="B275" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C275" s="28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D275" s="28"/>
       <c r="E275" s="22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="45">
       <c r="A276" s="26"/>
       <c r="B276" s="28" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C276" s="28" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D276" s="28"/>
       <c r="E276" s="22" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="30">
       <c r="A277" s="26"/>
       <c r="B277" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C277" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D277" s="28"/>
       <c r="E277" s="22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="17.25" customHeight="1">
       <c r="A278" s="26" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B278" s="28" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C278" s="28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D278" s="28"/>
       <c r="E278" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" s="26"/>
       <c r="B279" s="28"/>
       <c r="C279" s="28" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D279" s="28"/>
       <c r="E279" s="22"/>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="B280" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="B280" s="30" t="s">
+      <c r="C280" s="30" t="s">
         <v>362</v>
-      </c>
-      <c r="C280" s="30" t="s">
-        <v>363</v>
       </c>
       <c r="D280" s="30"/>
       <c r="E280" s="31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="30">
       <c r="A286" s="93" t="s">
+        <v>323</v>
+      </c>
+      <c r="B286" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="B286" s="6" t="s">
-        <v>325</v>
-      </c>
       <c r="C286" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="93"/>
       <c r="B287" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="288" spans="1:5">
       <c r="A288" s="93"/>
       <c r="B288" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E288" s="6" t="s">
         <v>328</v>
-      </c>
-      <c r="E288" s="6" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="93"/>
       <c r="B289" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D289" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="D289" s="6" t="s">
+      <c r="E289" s="6" t="s">
         <v>332</v>
-      </c>
-      <c r="E289" s="6" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="290" spans="1:5">
       <c r="A290" s="93"/>
       <c r="B290" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D290" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E290" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" s="93"/>
       <c r="B291" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="E291" s="6" t="s">
         <v>336</v>
-      </c>
-      <c r="E291" s="6" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" s="93"/>
       <c r="B292" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E292" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="E292" s="6" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" s="93"/>
       <c r="B293" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D293" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="E293" s="6" t="s">
         <v>340</v>
-      </c>
-      <c r="E293" s="6" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" s="93"/>
       <c r="B294" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C294" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="E294" s="6" t="s">
         <v>345</v>
-      </c>
-      <c r="E294" s="6" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" s="93"/>
       <c r="B295" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C295" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E295" s="6" t="s">
         <v>347</v>
-      </c>
-      <c r="C295" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="E295" s="6" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" s="93"/>
       <c r="B296" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -10357,855 +10417,877 @@
   <dimension ref="A1:K466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B129" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B123" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B153" sqref="B153"/>
+      <selection pane="bottomRight" activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="45.140625" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>567</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>651</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>653</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>678</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>680</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>811</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>813</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>815</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>817</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>937</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>944</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>956</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>976</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>977</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>1024</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>1028</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>1060</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>1061</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>1062</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>1063</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>1064</v>
-      </c>
       <c r="C29" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>1065</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>1066</v>
-      </c>
       <c r="C30" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>1072</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>1067</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>1068</v>
-      </c>
       <c r="C31" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>1106</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>1382</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>1419</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>1420</v>
-      </c>
       <c r="C35" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>1553</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>1554</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>1555</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>1475</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>572</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>685</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>689</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>691</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>875</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>1020</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>1022</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>664</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>1214</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>1216</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>708</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>825</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>881</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>939</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>1011</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>1012</v>
-      </c>
       <c r="C81" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>981</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>1181</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>1342</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>1344</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>1421</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>1432</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>1557</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>1558</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>1595</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>1596</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>1599</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>1600</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>655</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>659</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>721</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>958</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>960</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>974</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>1464</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>1465</v>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="2" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="45">
+      <c r="A130" s="2" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>1618</v>
       </c>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>1178</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="C132" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>1179</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>1192</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>1194</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>1416</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>1417</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -11215,759 +11297,759 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>937</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>944</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>1610</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>1611</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>673</v>
-      </c>
       <c r="C168" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="C169" s="2" t="s">
         <v>675</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>1038</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>1040</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>1042</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>1044</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>1101</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>1103</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>1365</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>1371</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>1372</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>1522</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>1367</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>1368</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>1369</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>1370</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>1519</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>1520</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>1337</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>1119</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>1121</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>1258</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>1259</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>1260</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>1261</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>1430</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>1487</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>1488</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>1051</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>1053</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>1055</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>1057</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="72" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B210" s="73" t="s">
         <v>1078</v>
       </c>
-      <c r="B210" s="73" t="s">
-        <v>1079</v>
-      </c>
       <c r="C210" s="82" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D210" s="74" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="75" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B211" s="76" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C211" s="76"/>
       <c r="D211" s="77" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="75" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B212" s="76" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C212" s="76"/>
       <c r="D212" s="77" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="75" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B213" s="76" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C213" s="76"/>
       <c r="D213" s="77" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="78" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B214" s="79" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C214" s="79"/>
       <c r="D214" s="80"/>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="85" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C216" s="2" t="s">
         <v>1249</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>1339</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>1355</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>1357</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>1359</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>1361</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>1593</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>1594</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>695</v>
-      </c>
       <c r="C230" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>954</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>955</v>
-      </c>
       <c r="C231" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B234" s="2" t="s">
         <v>1097</v>
       </c>
-      <c r="B234" s="2" t="s">
-        <v>1098</v>
-      </c>
       <c r="C234" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B235" s="2" t="s">
         <v>1163</v>
       </c>
-      <c r="B235" s="2" t="s">
-        <v>1164</v>
-      </c>
       <c r="C235" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>1183</v>
       </c>
-      <c r="B236" s="2" t="s">
-        <v>1184</v>
-      </c>
       <c r="C236" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B237" s="2" t="s">
         <v>1252</v>
       </c>
-      <c r="B237" s="2" t="s">
-        <v>1253</v>
-      </c>
       <c r="C237" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>1373</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B239" s="2" t="s">
         <v>1399</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>1400</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="60">
       <c r="A240" s="2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D240" s="81" t="s">
         <v>1460</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>1401</v>
-      </c>
-      <c r="D240" s="81" t="s">
-        <v>1461</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B241" s="2" t="s">
         <v>1402</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>1403</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B242" s="2" t="s">
         <v>1456</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>1457</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B243" s="2" t="s">
         <v>1458</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>1459</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B246" s="2" t="s">
         <v>1377</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B252" s="2" t="s">
         <v>629</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B253" s="2" t="s">
         <v>631</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B256" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="C256" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="C256" s="2" t="s">
+      <c r="D256" s="2" t="s">
         <v>775</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B266" s="2" t="s">
         <v>750</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="B267" s="2" t="s">
         <v>877</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="B268" s="2" t="s">
         <v>879</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B269" s="2" t="s">
         <v>1187</v>
       </c>
-      <c r="B269" s="2" t="s">
+      <c r="D269" s="2" t="s">
         <v>1188</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>1189</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B270" s="2" t="s">
         <v>1190</v>
       </c>
-      <c r="B270" s="2" t="s">
-        <v>1191</v>
-      </c>
       <c r="D270" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B272" s="2" t="s">
         <v>1008</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="B273" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B276" s="2" t="s">
         <v>1033</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B277" s="2" t="s">
         <v>1035</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B279" s="2" t="s">
         <v>1279</v>
       </c>
-      <c r="B279" s="2" t="s">
+      <c r="C279" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D279" s="2" t="s">
         <v>1280</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="87" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B281" s="73"/>
       <c r="C281" s="73"/>
@@ -11975,290 +12057,290 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="75" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B282" s="76" t="s">
         <v>1424</v>
-      </c>
-      <c r="B282" s="76" t="s">
-        <v>1425</v>
       </c>
       <c r="C282" s="76"/>
       <c r="D282" s="77"/>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="75" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B283" s="76" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="C283" s="76"/>
       <c r="D283" s="77"/>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="78" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B284" s="79" t="s">
         <v>1428</v>
-      </c>
-      <c r="B284" s="79" t="s">
-        <v>1429</v>
       </c>
       <c r="C284" s="79"/>
       <c r="D284" s="80"/>
     </row>
     <row r="294" spans="1:3" ht="14.25" customHeight="1">
       <c r="A294" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="14.25" customHeight="1">
       <c r="A295" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="B295" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="B295" s="2" t="s">
-        <v>950</v>
-      </c>
       <c r="C295" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="14.25" customHeight="1">
       <c r="A296" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="298" spans="1:3" ht="14.25" customHeight="1">
       <c r="A298" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B298" s="2" t="s">
         <v>1176</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="300" spans="1:3" ht="14.25" customHeight="1">
       <c r="A300" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B300" s="84" t="s">
         <v>1390</v>
-      </c>
-      <c r="B300" s="84" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="14.25" customHeight="1">
       <c r="A301" s="2" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B301" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C301" s="84" t="s">
         <v>1491</v>
-      </c>
-      <c r="C301" s="84" t="s">
-        <v>1492</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B303" s="2" t="s">
         <v>1542</v>
       </c>
-      <c r="B303" s="2" t="s">
+      <c r="C303" s="2" t="s">
         <v>1543</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>1544</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="2" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B310" s="2" t="s">
         <v>1135</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B311" s="2" t="s">
         <v>1363</v>
-      </c>
-      <c r="B311" s="2" t="s">
-        <v>1364</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="2" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="2" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B313" s="2" t="s">
         <v>1591</v>
-      </c>
-      <c r="B313" s="2" t="s">
-        <v>1592</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="2" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B314" s="2" t="s">
         <v>1565</v>
       </c>
-      <c r="B314" s="2" t="s">
+      <c r="C314" s="2" t="s">
         <v>1566</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>1567</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C315" s="2" t="s">
         <v>1568</v>
-      </c>
-      <c r="B315" s="2" t="s">
-        <v>1587</v>
-      </c>
-      <c r="C315" s="2" t="s">
-        <v>1569</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B324" s="2" t="s">
         <v>708</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B325" s="2" t="s">
         <v>711</v>
-      </c>
-      <c r="B325" s="2" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B327" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="B327" s="2" t="s">
+      <c r="C327" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D327" s="2" t="s">
         <v>746</v>
-      </c>
-      <c r="C327" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="D327" s="2" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D328" s="2" t="s">
         <v>1046</v>
-      </c>
-      <c r="B328" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C328" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="D328" s="2" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B330" s="2" t="s">
         <v>1208</v>
       </c>
-      <c r="B330" s="2" t="s">
-        <v>1209</v>
-      </c>
       <c r="C330" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B331" s="2" t="s">
         <v>1254</v>
       </c>
-      <c r="B331" s="2" t="s">
+      <c r="C331" s="2" t="s">
         <v>1255</v>
-      </c>
-      <c r="C331" s="2" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B333" s="2" t="s">
         <v>1489</v>
-      </c>
-      <c r="B333" s="2" t="s">
-        <v>1490</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B334" s="2" t="s">
         <v>1496</v>
-      </c>
-      <c r="B334" s="2" t="s">
-        <v>1497</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B336" s="2" t="s">
         <v>1510</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="337" spans="1:5">
       <c r="A337" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="341" spans="1:5">
       <c r="A341" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="342" spans="1:5">
       <c r="A342" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B342" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="B342" s="2" t="s">
+      <c r="C342" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="C342" s="2" t="s">
+      <c r="D342" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="D342" s="2" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="343" spans="1:5">
       <c r="A343" s="72" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B343" s="73" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C343" s="73"/>
       <c r="D343" s="73"/>
@@ -12266,10 +12348,10 @@
     </row>
     <row r="344" spans="1:5">
       <c r="A344" s="75" t="s">
+        <v>696</v>
+      </c>
+      <c r="B344" s="76" t="s">
         <v>697</v>
-      </c>
-      <c r="B344" s="76" t="s">
-        <v>698</v>
       </c>
       <c r="C344" s="76"/>
       <c r="D344" s="76"/>
@@ -12277,10 +12359,10 @@
     </row>
     <row r="345" spans="1:5">
       <c r="A345" s="75" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B345" s="76" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C345" s="76"/>
       <c r="D345" s="76"/>
@@ -12288,10 +12370,10 @@
     </row>
     <row r="346" spans="1:5">
       <c r="A346" s="75" t="s">
+        <v>699</v>
+      </c>
+      <c r="B346" s="76" t="s">
         <v>700</v>
-      </c>
-      <c r="B346" s="76" t="s">
-        <v>701</v>
       </c>
       <c r="C346" s="76"/>
       <c r="D346" s="76"/>
@@ -12299,10 +12381,10 @@
     </row>
     <row r="347" spans="1:5">
       <c r="A347" s="75" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B347" s="76" t="s">
         <v>1264</v>
-      </c>
-      <c r="B347" s="76" t="s">
-        <v>1265</v>
       </c>
       <c r="C347" s="76"/>
       <c r="D347" s="76"/>
@@ -12310,10 +12392,10 @@
     </row>
     <row r="348" spans="1:5">
       <c r="A348" s="75" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B348" s="76" t="s">
         <v>1266</v>
-      </c>
-      <c r="B348" s="76" t="s">
-        <v>1267</v>
       </c>
       <c r="C348" s="76"/>
       <c r="D348" s="76"/>
@@ -12321,10 +12403,10 @@
     </row>
     <row r="349" spans="1:5">
       <c r="A349" s="75" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B349" s="76" t="s">
         <v>1268</v>
-      </c>
-      <c r="B349" s="76" t="s">
-        <v>1269</v>
       </c>
       <c r="C349" s="76"/>
       <c r="D349" s="76"/>
@@ -12346,641 +12428,641 @@
     </row>
     <row r="352" spans="1:5">
       <c r="A352" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B352" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="B352" s="2" t="s">
-        <v>778</v>
-      </c>
       <c r="C352" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B353" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="B353" s="2" t="s">
-        <v>834</v>
-      </c>
       <c r="C353" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B355" s="2" t="s">
         <v>1135</v>
-      </c>
-      <c r="B355" s="2" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="356" spans="1:4" ht="30">
       <c r="A356" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B356" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="B356" s="2" t="s">
-        <v>1158</v>
-      </c>
       <c r="D356" s="6" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="357" spans="1:4" ht="45">
       <c r="A357" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C357" s="84" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D357" s="6" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="B359" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C359" s="2" t="s">
         <v>1243</v>
-      </c>
-      <c r="C359" s="2" t="s">
-        <v>1244</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="B360" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C360" s="2" t="s">
         <v>1245</v>
-      </c>
-      <c r="C360" s="2" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="B361" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C361" s="2" t="s">
         <v>1247</v>
-      </c>
-      <c r="C361" s="2" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B362" s="2" t="s">
         <v>1448</v>
-      </c>
-      <c r="B362" s="2" t="s">
-        <v>1449</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B364" s="2" t="s">
         <v>1560</v>
-      </c>
-      <c r="B364" s="2" t="s">
-        <v>1561</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B369" s="2" t="s">
         <v>1196</v>
-      </c>
-      <c r="B369" s="2" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B370" s="2" t="s">
         <v>1198</v>
-      </c>
-      <c r="B370" s="2" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B376" s="2" t="s">
         <v>626</v>
-      </c>
-      <c r="B376" s="2" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B377" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="B377" s="2" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B379" s="2" t="s">
         <v>1547</v>
-      </c>
-      <c r="B379" s="2" t="s">
-        <v>1548</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B380" s="2" t="s">
         <v>1549</v>
-      </c>
-      <c r="B380" s="2" t="s">
-        <v>1550</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B381" s="2" t="s">
         <v>1551</v>
-      </c>
-      <c r="B381" s="2" t="s">
-        <v>1552</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B390" s="2" t="s">
         <v>670</v>
-      </c>
-      <c r="B390" s="2" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B391" s="2" t="s">
         <v>1155</v>
       </c>
-      <c r="B391" s="2" t="s">
-        <v>1156</v>
-      </c>
       <c r="C391" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="B392" s="2" t="s">
         <v>962</v>
-      </c>
-      <c r="B392" s="2" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B393" s="2" t="s">
         <v>1003</v>
       </c>
-      <c r="B393" s="2" t="s">
-        <v>1004</v>
-      </c>
       <c r="D393" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="2" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B396" s="2" t="s">
         <v>1091</v>
       </c>
-      <c r="B396" s="2" t="s">
-        <v>1092</v>
-      </c>
       <c r="C396" s="2" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B397" s="2" t="s">
         <v>1185</v>
       </c>
-      <c r="B397" s="2" t="s">
-        <v>1186</v>
-      </c>
       <c r="C397" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B399" s="2" t="s">
         <v>1200</v>
-      </c>
-      <c r="B399" s="2" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B400" s="2" t="s">
         <v>1202</v>
-      </c>
-      <c r="B400" s="2" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B401" s="2" t="s">
         <v>1204</v>
-      </c>
-      <c r="B401" s="2" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B402" s="2" t="s">
         <v>1270</v>
-      </c>
-      <c r="B402" s="2" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B403" s="2" t="s">
         <v>1272</v>
-      </c>
-      <c r="B403" s="2" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B404" s="2" t="s">
         <v>1274</v>
-      </c>
-      <c r="B404" s="2" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B406" s="2" t="s">
         <v>1493</v>
       </c>
-      <c r="B406" s="2" t="s">
+      <c r="C406" s="2" t="s">
         <v>1494</v>
-      </c>
-      <c r="C406" s="2" t="s">
-        <v>1495</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="2" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B407" s="2" t="s">
         <v>1545</v>
-      </c>
-      <c r="B407" s="2" t="s">
-        <v>1546</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="2" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B408" s="2" t="s">
         <v>1608</v>
-      </c>
-      <c r="B408" s="2" t="s">
-        <v>1609</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B415" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="B415" s="2" t="s">
+      <c r="C415" s="2" t="s">
         <v>781</v>
-      </c>
-      <c r="C415" s="2" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B416" s="2" t="s">
         <v>798</v>
-      </c>
-      <c r="B416" s="2" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="B417" s="2" t="s">
         <v>800</v>
-      </c>
-      <c r="B417" s="2" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B418" s="2" t="s">
         <v>802</v>
-      </c>
-      <c r="B418" s="2" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="B419" s="2" t="s">
         <v>804</v>
-      </c>
-      <c r="B419" s="2" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B420" s="2" t="s">
         <v>1379</v>
-      </c>
-      <c r="B420" s="2" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="B427" s="2" t="s">
         <v>987</v>
-      </c>
-      <c r="B427" s="2" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="B428" s="2" t="s">
         <v>989</v>
-      </c>
-      <c r="B428" s="2" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="B429" s="2" t="s">
         <v>991</v>
-      </c>
-      <c r="B429" s="2" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="B431" s="2" t="s">
         <v>997</v>
-      </c>
-      <c r="B431" s="2" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="B432" s="2" t="s">
         <v>999</v>
-      </c>
-      <c r="B432" s="2" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B433" s="2" t="s">
         <v>1049</v>
-      </c>
-      <c r="B433" s="2" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B435" s="2" t="s">
         <v>1347</v>
-      </c>
-      <c r="B435" s="2" t="s">
-        <v>1348</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="2" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B437" s="2" t="s">
         <v>1535</v>
-      </c>
-      <c r="B437" s="2" t="s">
-        <v>1536</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="2" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B439" s="2" t="s">
         <v>1597</v>
-      </c>
-      <c r="B439" s="2" t="s">
-        <v>1598</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="2" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B441" s="2" t="s">
         <v>1601</v>
-      </c>
-      <c r="B441" s="2" t="s">
-        <v>1602</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="2" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B443" s="2" t="s">
         <v>1603</v>
-      </c>
-      <c r="B443" s="2" t="s">
-        <v>1604</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="2" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B445" s="2" t="s">
         <v>1605</v>
       </c>
-      <c r="B445" s="2" t="s">
+      <c r="C445" s="2" t="s">
         <v>1606</v>
-      </c>
-      <c r="C445" s="2" t="s">
-        <v>1607</v>
       </c>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B450" s="2" t="s">
         <v>1094</v>
       </c>
-      <c r="B450" s="2" t="s">
+      <c r="C450" s="2" t="s">
         <v>1095</v>
-      </c>
-      <c r="C450" s="2" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="2" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B454" s="2" t="s">
         <v>1312</v>
       </c>
-      <c r="B454" s="2" t="s">
+      <c r="C454" s="2" t="s">
         <v>1313</v>
-      </c>
-      <c r="C454" s="2" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B455" s="2" t="s">
         <v>1315</v>
-      </c>
-      <c r="B455" s="2" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B456" s="2" t="s">
         <v>1317</v>
-      </c>
-      <c r="B456" s="2" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="461" spans="1:4" ht="90">
       <c r="A461" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="C461" s="6" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D461" s="2" t="s">
         <v>884</v>
-      </c>
-      <c r="B461" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="C461" s="6" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D461" s="2" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="72" t="s">
+        <v>928</v>
+      </c>
+      <c r="B462" s="73" t="s">
         <v>929</v>
       </c>
-      <c r="B462" s="73" t="s">
-        <v>930</v>
-      </c>
       <c r="C462" s="73" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D462" s="74"/>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="78" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B463" s="79" t="s">
+        <v>932</v>
+      </c>
+      <c r="C463" s="79" t="s">
         <v>933</v>
       </c>
-      <c r="C463" s="79" t="s">
+      <c r="D463" s="80" t="s">
         <v>934</v>
-      </c>
-      <c r="D463" s="80" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="B465" s="2" t="s">
         <v>964</v>
       </c>
-      <c r="B465" s="2" t="s">
+      <c r="C465" s="2" t="s">
         <v>965</v>
-      </c>
-      <c r="C465" s="2" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B466" s="2" t="s">
         <v>1479</v>
       </c>
-      <c r="B466" s="2" t="s">
+      <c r="C466" s="2" t="s">
         <v>1480</v>
-      </c>
-      <c r="C466" s="2" t="s">
-        <v>1481</v>
       </c>
     </row>
   </sheetData>
@@ -13014,451 +13096,451 @@
   <sheetData>
     <row r="1" spans="1:7" s="47" customFormat="1">
       <c r="A1" s="47" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C1" s="47" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" s="47" t="s">
         <v>454</v>
       </c>
-      <c r="D1" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="E1" s="47" t="s">
-        <v>455</v>
-      </c>
       <c r="F1" s="47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G1" s="47" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="45">
       <c r="A2" s="47" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E2" s="45" t="s">
+        <v>468</v>
+      </c>
+      <c r="F2" s="45" t="s">
         <v>469</v>
-      </c>
-      <c r="F2" s="45" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="60">
       <c r="B3" s="47" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C3" s="45" t="s">
+        <v>503</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F3" s="45" t="s">
         <v>504</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>1486</v>
-      </c>
-      <c r="F3" s="45" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="47" t="s">
+        <v>506</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="45" t="s">
         <v>507</v>
       </c>
-      <c r="C4" s="45" t="s">
-        <v>226</v>
-      </c>
-      <c r="D4" s="45" t="s">
+      <c r="F4" s="45" t="s">
         <v>508</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="C5" s="45" t="s">
+        <v>534</v>
+      </c>
+      <c r="E5" s="45" t="s">
         <v>535</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="F5" s="45" t="s">
         <v>536</v>
-      </c>
-      <c r="F5" s="45" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="47" t="s">
+        <v>509</v>
+      </c>
+      <c r="C6" s="45" t="s">
         <v>510</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="D6" s="45" t="s">
         <v>511</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="F6" s="45" t="s">
         <v>512</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="C7" s="45" t="s">
+        <v>537</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>535</v>
+      </c>
+      <c r="F7" s="49" t="s">
         <v>538</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>536</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="47" t="s">
+        <v>513</v>
+      </c>
+      <c r="C8" s="45" t="s">
         <v>514</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="D8" s="45" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F8" s="45" t="s">
         <v>515</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>1301</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="45"/>
       <c r="B9" s="47" t="s">
+        <v>516</v>
+      </c>
+      <c r="C9" s="45" t="s">
         <v>517</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="D9" s="45" t="s">
         <v>518</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="F9" s="45" t="s">
         <v>519</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="C10" s="45" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" s="47" t="s">
+        <v>520</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="D11" s="45" t="s">
         <v>521</v>
       </c>
-      <c r="C11" s="45" t="s">
-        <v>324</v>
-      </c>
-      <c r="D11" s="45" t="s">
+      <c r="F11" s="45" t="s">
         <v>522</v>
-      </c>
-      <c r="F11" s="45" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" s="47" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C12" s="45" t="s">
+        <v>525</v>
+      </c>
+      <c r="D12" s="45" t="s">
         <v>526</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="F12" s="45" t="s">
         <v>527</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="144.75" customHeight="1">
       <c r="A13" s="47" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="B14" s="47" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="C15" s="45" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="81" customFormat="1">
       <c r="A16" s="47"/>
       <c r="B16" s="47"/>
       <c r="C16" s="81" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D16" s="81" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="C17" s="45" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="51" customFormat="1" ht="135">
       <c r="A18" s="50"/>
       <c r="B18" s="50"/>
       <c r="C18" s="51" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E18" s="51" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="C19" s="45" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="C20" s="45" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="B21" s="47" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="C22" s="45" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="C23" s="45" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="C24" s="45" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="B25" s="47" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="C26" s="45" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="C27" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D27" s="45" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F27" s="45" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="C28" s="45" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="C29" s="45" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="C30" s="45" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="C31" s="45" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="B32" s="47" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="C33" s="45" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="C34" s="45" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="C35" s="45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="C36" s="45" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="B37" s="47" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D37" s="45" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="C38" s="45" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D38" s="45" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="C39" s="45" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D39" s="45" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="C40" s="45" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D40" s="45" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="C41" s="45" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D41" s="45" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="81" customFormat="1">
       <c r="A42" s="47"/>
       <c r="C42" s="81" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D42" s="81" t="s">
         <v>1484</v>
-      </c>
-      <c r="D42" s="81" t="s">
-        <v>1485</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="B43" s="47" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C43" s="45" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D43" s="45" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="C44" s="45" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D44" s="45" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="C45" s="45" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="C46" s="45" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="B47" s="47" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C47" s="45" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="B48" s="47" t="s">
+        <v>477</v>
+      </c>
+      <c r="C48" s="45" t="s">
         <v>478</v>
-      </c>
-      <c r="C48" s="45" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="255">
       <c r="A49" s="47" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E49" s="45" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F49" s="45" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G49" s="48" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -13472,10 +13554,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13491,104 +13573,104 @@
     <row r="1" spans="1:5">
       <c r="A1" s="32"/>
       <c r="B1" s="41" t="s">
+        <v>410</v>
+      </c>
+      <c r="C1" s="41" t="s">
         <v>411</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="D1" s="41" t="s">
         <v>412</v>
       </c>
-      <c r="D1" s="41" t="s">
-        <v>413</v>
-      </c>
       <c r="E1" s="42" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="84" customHeight="1">
       <c r="A2" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>414</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="C2" s="36" t="s">
         <v>415</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="D2" s="36" t="s">
         <v>416</v>
       </c>
-      <c r="D2" s="36" t="s">
-        <v>417</v>
-      </c>
       <c r="E2" s="37" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="45" customFormat="1" ht="84" customHeight="1">
       <c r="A3" s="35" t="s">
+        <v>992</v>
+      </c>
+      <c r="B3" s="36" t="s">
         <v>993</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="C3" s="36" t="s">
         <v>994</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="D3" s="36" t="s">
         <v>995</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>996</v>
       </c>
       <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:5" ht="135">
       <c r="A4" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="B4" s="36" t="s">
         <v>418</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="C4" s="36" t="s">
         <v>419</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>420</v>
-      </c>
       <c r="D4" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="B5" s="39" t="s">
         <v>425</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>426</v>
       </c>
       <c r="C5" s="39"/>
       <c r="D5" s="39" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E5" s="40"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="32"/>
       <c r="B8" s="33" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C8" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="D8" s="34" t="s">
         <v>428</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="35" t="s">
+        <v>429</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="C9" s="36" t="s">
         <v>430</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>433</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>431</v>
-      </c>
       <c r="D9" s="37" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -13605,28 +13687,40 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="35" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="36" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="38"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>438</v>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="105">
+      <c r="A16" s="15" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>1620</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13649,222 +13743,222 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B2" t="s">
         <v>835</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>836</v>
       </c>
-      <c r="C2" t="s">
-        <v>837</v>
-      </c>
       <c r="E2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C3" t="s">
+        <v>848</v>
+      </c>
+      <c r="D3" t="s">
         <v>1525</v>
       </c>
-      <c r="C3" t="s">
-        <v>849</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>1526</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C5" t="s">
+        <v>848</v>
+      </c>
+      <c r="D5" t="s">
         <v>1017</v>
       </c>
-      <c r="C5" t="s">
-        <v>849</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>1018</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C7" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D7" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E7" t="s">
         <v>1528</v>
       </c>
-      <c r="E7" t="s">
-        <v>1529</v>
-      </c>
       <c r="F7" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B8" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C8" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D8" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E8" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F8" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B9" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C9" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D9" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E9" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F9" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
+        <v>847</v>
+      </c>
+      <c r="C10" t="s">
         <v>848</v>
       </c>
-      <c r="C10" t="s">
-        <v>849</v>
-      </c>
       <c r="D10" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E10" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C11" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D11" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E11" t="s">
         <v>1015</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C12" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D12" t="s">
+        <v>860</v>
+      </c>
+      <c r="E12" t="s">
         <v>861</v>
       </c>
-      <c r="E12" t="s">
-        <v>862</v>
-      </c>
       <c r="F12" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C13" t="s">
+        <v>848</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E13" t="s">
         <v>1137</v>
-      </c>
-      <c r="C13" t="s">
-        <v>849</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1139</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D14" t="s">
         <v>1140</v>
       </c>
-      <c r="D14" t="s">
-        <v>1141</v>
-      </c>
       <c r="E14" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
   </sheetData>
@@ -13889,64 +13983,64 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="69" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B1" s="69" t="s">
+        <v>900</v>
+      </c>
+      <c r="C1" s="69" t="s">
         <v>901</v>
-      </c>
-      <c r="C1" s="69" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B2" t="s">
+        <v>902</v>
+      </c>
+      <c r="C2" t="s">
         <v>903</v>
-      </c>
-      <c r="C2" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="54" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="54" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="54" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="54" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B7" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
   </sheetData>
@@ -13971,67 +14065,67 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C4" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C6" t="s">
         <v>306</v>
-      </c>
-      <c r="C6" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B8" s="91" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B9" s="91"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B11" s="91" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B12" s="91"/>
     </row>
@@ -14062,29 +14156,29 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="D1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>868</v>
+      </c>
+      <c r="B2" t="s">
         <v>869</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>870</v>
-      </c>
-      <c r="C2" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
+        <v>871</v>
+      </c>
+      <c r="C3" t="s">
         <v>872</v>
       </c>
-      <c r="C3" t="s">
-        <v>873</v>
-      </c>
       <c r="D3" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
   </sheetData>
@@ -14096,7 +14190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -14110,207 +14204,207 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="71" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>380</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="B2" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="C3" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="C4" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="C5" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="71" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="71" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="71" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="71" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="2" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="71" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" s="71" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="B17" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="B18" s="71" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="B19" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" s="71" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="71" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" s="71" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="B25" s="70" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" s="70" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="B27" s="70" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="B28" s="70" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" s="70" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="B30" s="70" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="B32" s="71" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="B33" s="70" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="71" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>1143</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>1144</v>
-      </c>
       <c r="C36" s="2" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="B37" s="2" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="B38" s="2" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="B39" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>1150</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="B40" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>1152</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>1153</v>
       </c>
     </row>
   </sheetData>
@@ -14322,8 +14416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14338,142 +14432,142 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="94" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C1" s="94"/>
       <c r="D1" s="94" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E1" s="94"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="46" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="D4" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="A6" s="46" t="s">
+        <v>365</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>368</v>
-      </c>
       <c r="F6" s="93" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>369</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>370</v>
       </c>
       <c r="F7" s="93"/>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F8" s="93"/>
     </row>
     <row r="9" spans="1:6" ht="30">
       <c r="B9" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F9" s="93"/>
     </row>
     <row r="10" spans="1:6" ht="30">
       <c r="B10" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F10" s="93"/>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F11" s="93"/>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F12" s="93"/>
     </row>
     <row r="13" spans="1:6">
       <c r="E13" s="43" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F13" s="45"/>
     </row>
     <row r="14" spans="1:6">
       <c r="D14" s="92" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E14" s="92"/>
       <c r="F14" s="45"/>
@@ -14483,7 +14577,7 @@
     </row>
     <row r="16" spans="1:6" ht="40.5" customHeight="1">
       <c r="B16" s="95" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C16" s="92"/>
       <c r="D16" s="92"/>
@@ -14491,24 +14585,24 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="46" t="s">
+        <v>440</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="D18" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="46" t="s">
+        <v>443</v>
+      </c>
+      <c r="B21" s="92" t="s">
         <v>444</v>
-      </c>
-      <c r="B21" s="92" t="s">
-        <v>445</v>
       </c>
       <c r="C21" s="92"/>
       <c r="D21" s="92"/>
@@ -14516,26 +14610,26 @@
     </row>
     <row r="24" spans="1:5" ht="60">
       <c r="A24" s="46" t="s">
+        <v>448</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="46" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="E27" s="2" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
   </sheetData>
@@ -14575,93 +14669,93 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="44" t="s">
+        <v>887</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>470</v>
+      </c>
+      <c r="D1" s="44" t="s">
         <v>888</v>
       </c>
-      <c r="C1" s="55" t="s">
-        <v>471</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>889</v>
-      </c>
       <c r="E1" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1">
       <c r="A2" s="96" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>726</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>729</v>
       </c>
-      <c r="C2" s="55" t="s">
-        <v>727</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>730</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1">
       <c r="A3" s="96"/>
       <c r="B3" s="6" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1">
       <c r="A4" s="96"/>
       <c r="B4" s="6" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1">
       <c r="A5" s="96"/>
       <c r="B5" s="6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1">
       <c r="A6" s="96"/>
       <c r="B6" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -14669,235 +14763,235 @@
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="97" t="s">
+        <v>751</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>726</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="C8" s="55" t="s">
-        <v>727</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>753</v>
-      </c>
       <c r="E8" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="97"/>
       <c r="C9" s="55" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
       <c r="B11" s="23" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30">
       <c r="B12" s="29" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="D12" s="30" t="s">
         <v>1334</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>892</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>1335</v>
-      </c>
       <c r="E12" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30">
       <c r="B14" s="6" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>1229</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>892</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>1230</v>
-      </c>
       <c r="E14" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="6" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30">
       <c r="B17" s="6" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>1387</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>892</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>753</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>1388</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30">
       <c r="B18" s="6" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30">
       <c r="B19" s="6" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>1393</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30">
       <c r="B20" s="6" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>1395</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>892</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>1396</v>
-      </c>
       <c r="E20" s="6" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="B21" s="6" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30">
       <c r="B22" s="6" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="D25" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30">
       <c r="C28" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>892</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>893</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="45">
       <c r="C29" s="6" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30">
       <c r="D30" s="6" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="6" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30">
       <c r="A38" s="6" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>1326</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="C38" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>1327</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>892</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>1328</v>
       </c>
     </row>
   </sheetData>
@@ -14929,224 +15023,224 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30">
       <c r="A1" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="10" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>253</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="86" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="86" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>1330</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" s="10" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
   </sheetData>

--- a/语法总结.xlsx
+++ b/语法总结.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Richie/Github/EnglishSummary/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1A2CA5-A94A-1641-A101-558E83F66144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="2550" tabRatio="736" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14220" tabRatio="736" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="系动词" sheetId="1" r:id="rId1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="1622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="1624">
   <si>
     <t xml:space="preserve">状态系动词 </t>
   </si>
@@ -6576,11 +6577,17 @@
   <si>
     <t>用法说明1</t>
   </si>
+  <si>
+    <t>城镇国家级别</t>
+  </si>
+  <si>
+    <t>小地方具体地方</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="11"/>
@@ -6806,7 +6813,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6884,12 +6891,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6911,9 +6912,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6933,13 +6931,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -6970,16 +6962,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7025,9 +7011,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -7039,9 +7022,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -7063,9 +7043,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7369,25 +7346,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="55" style="6" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" style="6" customWidth="1"/>
     <col min="4" max="4" width="48" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="6"/>
-    <col min="6" max="6" width="101.7109375" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="6"/>
+    <col min="5" max="5" width="9.1640625" style="6"/>
+    <col min="6" max="6" width="101.6640625" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="16">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -7406,7 +7383,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="16">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -7434,7 +7411,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="16">
       <c r="B7" s="9" t="s">
         <v>17</v>
       </c>
@@ -7442,7 +7419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="16">
       <c r="B8" s="9" t="s">
         <v>19</v>
       </c>
@@ -7450,7 +7427,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="16">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -7468,7 +7445,7 @@
     <row r="11" spans="1:6">
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="16">
       <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
@@ -7483,7 +7460,7 @@
     <row r="13" spans="1:6">
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="16">
       <c r="A14" s="6" t="s">
         <v>28</v>
       </c>
@@ -7498,25 +7475,25 @@
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="16">
       <c r="B15" s="9" t="s">
         <v>1612</v>
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="16">
       <c r="B16" s="9" t="s">
         <v>1611</v>
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="16">
       <c r="B17" s="9" t="s">
         <v>22</v>
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="45">
+    <row r="18" spans="1:6" ht="48">
       <c r="B18" s="8" t="s">
         <v>23</v>
       </c>
@@ -7525,7 +7502,7 @@
     <row r="19" spans="1:6">
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="165">
+    <row r="20" spans="1:6" ht="160">
       <c r="A20" s="6" t="s">
         <v>25</v>
       </c>
@@ -7579,37 +7556,37 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="52.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="52.5" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="74" style="15" customWidth="1"/>
-    <col min="2" max="2" width="52.42578125" style="15"/>
-    <col min="3" max="3" width="70.7109375" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="52.42578125" style="15"/>
+    <col min="2" max="2" width="52.5" style="15"/>
+    <col min="3" max="3" width="70.6640625" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="52.5" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="16">
       <c r="A1" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27.75">
+    <row r="2" spans="1:3" ht="31">
       <c r="A2" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="16">
       <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="16">
       <c r="A5" s="15" t="s">
         <v>77</v>
       </c>
@@ -7617,7 +7594,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="45">
+    <row r="6" spans="1:3" ht="48">
       <c r="A6" s="15" t="s">
         <v>80</v>
       </c>
@@ -7625,12 +7602,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="16">
       <c r="A7" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30">
+    <row r="8" spans="1:3" ht="32">
       <c r="A8" s="15" t="s">
         <v>87</v>
       </c>
@@ -7641,7 +7618,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="27.75">
+    <row r="9" spans="1:3" ht="16">
       <c r="A9" s="15" t="s">
         <v>83</v>
       </c>
@@ -7652,7 +7629,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30">
+    <row r="10" spans="1:3" ht="16">
       <c r="A10" s="15" t="s">
         <v>85</v>
       </c>
@@ -7663,12 +7640,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="16">
       <c r="A11" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30">
+    <row r="12" spans="1:3" ht="32">
       <c r="A12" s="16" t="s">
         <v>96</v>
       </c>
@@ -7676,7 +7653,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="16">
       <c r="A13" s="16" t="s">
         <v>99</v>
       </c>
@@ -7684,7 +7661,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="16">
       <c r="A14" s="15" t="s">
         <v>95</v>
       </c>
@@ -7692,7 +7669,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" ht="16">
       <c r="A15" s="15" t="s">
         <v>92</v>
       </c>
@@ -7700,7 +7677,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" ht="16">
       <c r="A16" s="16" t="s">
         <v>88</v>
       </c>
@@ -7716,7 +7693,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30">
+    <row r="19" spans="1:3" ht="32">
       <c r="A19" s="15" t="s">
         <v>101</v>
       </c>
@@ -7725,7 +7702,7 @@
       </c>
       <c r="C19" s="16"/>
     </row>
-    <row r="20" spans="1:3" ht="30">
+    <row r="20" spans="1:3" ht="32">
       <c r="A20" s="16" t="s">
         <v>102</v>
       </c>
@@ -7736,7 +7713,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="25.5">
+    <row r="21" spans="1:3" ht="29">
       <c r="A21" s="16" t="s">
         <v>104</v>
       </c>
@@ -7747,7 +7724,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="16">
       <c r="A22" s="16" t="s">
         <v>106</v>
       </c>
@@ -7758,7 +7735,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" ht="16">
       <c r="A23" s="16" t="s">
         <v>108</v>
       </c>
@@ -7766,7 +7743,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" ht="16">
       <c r="A24" s="16" t="s">
         <v>109</v>
       </c>
@@ -7774,7 +7751,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" ht="16">
       <c r="A25" s="16" t="s">
         <v>110</v>
       </c>
@@ -7785,7 +7762,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="60">
+    <row r="26" spans="1:3" ht="32">
       <c r="A26" s="15" t="s">
         <v>112</v>
       </c>
@@ -7796,7 +7773,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30">
+    <row r="27" spans="1:3" ht="16">
       <c r="A27" s="17" t="s">
         <v>114</v>
       </c>
@@ -7804,7 +7781,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="25.5">
+    <row r="28" spans="1:3" ht="16">
       <c r="A28" s="17" t="s">
         <v>116</v>
       </c>
@@ -7815,7 +7792,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="36">
+    <row r="29" spans="1:3" ht="45">
       <c r="A29" s="17" t="s">
         <v>118</v>
       </c>
@@ -7826,7 +7803,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="25.5">
+    <row r="30" spans="1:3" ht="29">
       <c r="A30" s="18" t="s">
         <v>120</v>
       </c>
@@ -7837,7 +7814,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="25.5">
+    <row r="31" spans="1:3" ht="29">
       <c r="A31" s="19" t="s">
         <v>122</v>
       </c>
@@ -7848,13 +7825,13 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" ht="16">
       <c r="A32" s="16"/>
       <c r="B32" s="15" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" ht="16">
       <c r="A33" s="17" t="s">
         <v>124</v>
       </c>
@@ -7865,7 +7842,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" ht="16">
       <c r="A34" s="17" t="s">
         <v>126</v>
       </c>
@@ -7876,7 +7853,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" ht="16">
       <c r="A35" s="17" t="s">
         <v>128</v>
       </c>
@@ -7887,7 +7864,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" ht="16">
       <c r="A36" s="17" t="s">
         <v>131</v>
       </c>
@@ -7898,7 +7875,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" ht="16">
       <c r="A37" s="17" t="s">
         <v>133</v>
       </c>
@@ -7909,7 +7886,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" ht="16">
       <c r="A38" s="15" t="s">
         <v>135</v>
       </c>
@@ -7920,7 +7897,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="45">
+    <row r="39" spans="1:3" ht="48">
       <c r="A39" s="15" t="s">
         <v>137</v>
       </c>
@@ -7931,7 +7908,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" ht="16">
       <c r="A40" s="17" t="s">
         <v>139</v>
       </c>
@@ -7942,7 +7919,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30">
+    <row r="41" spans="1:3" ht="16">
       <c r="A41" s="15" t="s">
         <v>142</v>
       </c>
@@ -7953,7 +7930,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" ht="16">
       <c r="A42" s="15" t="s">
         <v>144</v>
       </c>
@@ -7964,7 +7941,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" ht="16">
       <c r="A43" s="15" t="s">
         <v>146</v>
       </c>
@@ -7975,7 +7952,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" ht="16">
       <c r="A44" s="15" t="s">
         <v>148</v>
       </c>
@@ -7996,7 +7973,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" ht="16">
       <c r="A47" s="17" t="s">
         <v>153</v>
       </c>
@@ -8009,7 +7986,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" ht="16">
       <c r="A52" s="21" t="s">
         <v>156</v>
       </c>
@@ -8017,7 +7994,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" ht="16">
       <c r="A53" s="21" t="s">
         <v>158</v>
       </c>
@@ -8025,7 +8002,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" ht="16">
       <c r="A54" s="21" t="s">
         <v>160</v>
       </c>
@@ -8033,7 +8010,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" ht="16">
       <c r="A55" s="21" t="s">
         <v>162</v>
       </c>
@@ -8041,7 +8018,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" ht="16">
       <c r="A56" s="21" t="s">
         <v>164</v>
       </c>
@@ -8049,7 +8026,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" ht="16">
       <c r="A57" s="21" t="s">
         <v>166</v>
       </c>
@@ -8062,7 +8039,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" ht="16">
       <c r="A59" s="21" t="s">
         <v>169</v>
       </c>
@@ -8075,7 +8052,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" ht="16">
       <c r="A61" s="21" t="s">
         <v>172</v>
       </c>
@@ -8088,7 +8065,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" ht="16">
       <c r="A63" s="21" t="s">
         <v>175</v>
       </c>
@@ -8101,7 +8078,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" ht="16">
       <c r="A65" s="21" t="s">
         <v>178</v>
       </c>
@@ -8109,7 +8086,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" ht="16">
       <c r="A66" s="21" t="s">
         <v>179</v>
       </c>
@@ -8117,7 +8094,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" ht="16">
       <c r="A67" s="21" t="s">
         <v>181</v>
       </c>
@@ -8125,7 +8102,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" ht="16">
       <c r="A68" s="21" t="s">
         <v>183</v>
       </c>
@@ -8133,7 +8110,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" ht="16">
       <c r="A69" s="21" t="s">
         <v>185</v>
       </c>
@@ -8141,7 +8118,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" ht="16">
       <c r="A70" s="21" t="s">
         <v>187</v>
       </c>
@@ -8149,7 +8126,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" ht="16">
       <c r="A71" s="21" t="s">
         <v>188</v>
       </c>
@@ -8162,7 +8139,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" ht="16">
       <c r="A73" s="21" t="s">
         <v>191</v>
       </c>
@@ -8170,7 +8147,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" ht="16">
       <c r="A74" s="21" t="s">
         <v>193</v>
       </c>
@@ -8178,7 +8155,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" ht="16">
       <c r="A75" s="21" t="s">
         <v>195</v>
       </c>
@@ -8186,7 +8163,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" ht="16">
       <c r="A76" s="21" t="s">
         <v>196</v>
       </c>
@@ -8194,7 +8171,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" ht="16">
       <c r="A77" s="21" t="s">
         <v>197</v>
       </c>
@@ -8202,7 +8179,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" ht="16">
       <c r="A78" s="21" t="s">
         <v>199</v>
       </c>
@@ -8210,11 +8187,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:2" s="45" customFormat="1">
+    <row r="79" spans="1:2" ht="16">
       <c r="A79" s="21" t="s">
         <v>562</v>
       </c>
-      <c r="B79" s="45" t="s">
+      <c r="B79" s="15" t="s">
         <v>563</v>
       </c>
     </row>
@@ -8223,7 +8200,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2" ht="16">
       <c r="A81" s="21" t="s">
         <v>202</v>
       </c>
@@ -8231,7 +8208,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2" ht="16">
       <c r="A82" s="21" t="s">
         <v>204</v>
       </c>
@@ -8239,16 +8216,13 @@
         <v>205</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2" ht="16">
       <c r="A83" s="21" t="s">
         <v>206</v>
       </c>
       <c r="B83" s="15" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="C86" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8256,7 +8230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8266,17 +8240,17 @@
       <selection pane="bottomRight" activeCell="C192" sqref="C192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="52.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="54.28515625" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="21.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="52.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="35.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="54.33203125" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="16">
       <c r="A1" s="6" t="s">
         <v>215</v>
       </c>
@@ -8293,12 +8267,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="16">
       <c r="A2" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="16">
       <c r="A3" s="23" t="s">
         <v>218</v>
       </c>
@@ -8317,35 +8291,35 @@
       <c r="A4" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="6" t="s">
         <v>225</v>
       </c>
       <c r="E4" s="22"/>
     </row>
-    <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:5" ht="32">
+      <c r="A5" s="27" t="s">
         <v>451</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="29" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30">
+    <row r="7" spans="1:5" ht="16">
       <c r="A7" s="23" t="s">
         <v>733</v>
       </c>
@@ -8358,75 +8332,72 @@
       <c r="D7" s="24"/>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="29" t="s">
+    <row r="8" spans="1:5" ht="16">
+      <c r="A8" s="27" t="s">
         <v>736</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="28" t="s">
         <v>734</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="28" t="s">
         <v>737</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
+    </row>
+    <row r="10" spans="1:5" ht="16">
       <c r="A10" s="23" t="s">
         <v>1230</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>1231</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="74" t="s">
         <v>1234</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="25"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="16">
       <c r="A11" s="26" t="s">
         <v>1232</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="6" t="s">
         <v>1233</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
       <c r="E11" s="22"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="16">
       <c r="A12" s="26" t="s">
         <v>1235</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="6" t="s">
         <v>1233</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="D12" s="28"/>
       <c r="E12" s="22"/>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="29" t="s">
+    <row r="13" spans="1:5" ht="16">
+      <c r="A13" s="27" t="s">
         <v>1237</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="28" t="s">
         <v>1233</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="28" t="s">
         <v>1236</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
+    </row>
+    <row r="16" spans="1:5" ht="16">
       <c r="A16" s="6" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="16">
       <c r="A17" s="6" t="s">
         <v>1292</v>
       </c>
@@ -8437,7 +8408,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="16">
       <c r="A18" s="6" t="s">
         <v>1294</v>
       </c>
@@ -8448,7 +8419,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="16">
       <c r="A20" s="6" t="s">
         <v>1404</v>
       </c>
@@ -8459,7 +8430,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30">
+    <row r="21" spans="1:5" ht="32">
       <c r="A21" s="6" t="s">
         <v>1406</v>
       </c>
@@ -8470,7 +8441,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="16">
       <c r="A22" s="6" t="s">
         <v>1409</v>
       </c>
@@ -8481,7 +8452,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="16">
       <c r="A23" s="6" t="s">
         <v>1411</v>
       </c>
@@ -8492,12 +8463,12 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" ht="16">
       <c r="A28" s="6" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30">
+    <row r="29" spans="1:5" ht="32">
       <c r="A29" s="23" t="s">
         <v>592</v>
       </c>
@@ -8512,22 +8483,22 @@
       </c>
       <c r="E29" s="25"/>
     </row>
-    <row r="30" spans="1:5" ht="60">
-      <c r="A30" s="29" t="s">
+    <row r="30" spans="1:5" ht="48">
+      <c r="A30" s="27" t="s">
         <v>594</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="28" t="s">
         <v>595</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="28" t="s">
         <v>596</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31" t="s">
+      <c r="D30" s="28"/>
+      <c r="E30" s="29" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" ht="16">
       <c r="A31" s="23" t="s">
         <v>602</v>
       </c>
@@ -8540,225 +8511,217 @@
       <c r="D31" s="24"/>
       <c r="E31" s="25"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" ht="16">
       <c r="A32" s="26" t="s">
         <v>605</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="D32" s="28"/>
       <c r="E32" s="22"/>
     </row>
-    <row r="33" spans="1:5" s="52" customFormat="1">
-      <c r="A33" s="56"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57" t="s">
+    <row r="33" spans="1:5" s="47" customFormat="1" ht="16">
+      <c r="A33" s="51"/>
+      <c r="C33" s="47" t="s">
         <v>608</v>
       </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="58" t="s">
+      <c r="E33" s="52" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="52" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A34" s="56"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57" t="s">
+    <row r="34" spans="1:5" s="47" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A34" s="51"/>
+      <c r="C34" s="47" t="s">
         <v>617</v>
       </c>
-      <c r="D34" s="57"/>
-      <c r="E34" s="58" t="s">
+      <c r="E34" s="52" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="53" customFormat="1" ht="45">
-      <c r="A35" s="59" t="s">
+    <row r="35" spans="1:5" s="48" customFormat="1" ht="32">
+      <c r="A35" s="53" t="s">
         <v>610</v>
       </c>
-      <c r="B35" s="60" t="s">
+      <c r="B35" s="48" t="s">
         <v>611</v>
       </c>
-      <c r="C35" s="60" t="s">
+      <c r="C35" s="48" t="s">
         <v>935</v>
       </c>
-      <c r="D35" s="60"/>
-      <c r="E35" s="61" t="s">
+      <c r="E35" s="54" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="53" customFormat="1" ht="30">
-      <c r="A36" s="62" t="s">
+    <row r="36" spans="1:5" s="48" customFormat="1" ht="16">
+      <c r="A36" s="55" t="s">
         <v>613</v>
       </c>
-      <c r="B36" s="63" t="s">
+      <c r="B36" s="56" t="s">
         <v>614</v>
       </c>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="64" t="s">
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="57" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="53" customFormat="1"/>
-    <row r="38" spans="1:5" s="53" customFormat="1" ht="60">
-      <c r="A38" s="65" t="s">
+    <row r="37" spans="1:5" s="48" customFormat="1"/>
+    <row r="38" spans="1:5" s="48" customFormat="1" ht="48">
+      <c r="A38" s="58" t="s">
         <v>634</v>
       </c>
-      <c r="B38" s="66" t="s">
+      <c r="B38" s="59" t="s">
         <v>640</v>
       </c>
-      <c r="C38" s="66" t="s">
+      <c r="C38" s="59" t="s">
         <v>637</v>
       </c>
-      <c r="D38" s="66"/>
-      <c r="E38" s="67" t="s">
+      <c r="D38" s="59"/>
+      <c r="E38" s="60" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="53" customFormat="1" ht="90">
-      <c r="A39" s="62" t="s">
+    <row r="39" spans="1:5" s="48" customFormat="1" ht="80">
+      <c r="A39" s="55" t="s">
         <v>636</v>
       </c>
-      <c r="B39" s="63" t="s">
+      <c r="B39" s="56" t="s">
         <v>639</v>
       </c>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="64" t="s">
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="57" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="53" customFormat="1"/>
-    <row r="41" spans="1:5" s="53" customFormat="1">
-      <c r="A41" s="53" t="s">
+    <row r="40" spans="1:5" s="48" customFormat="1"/>
+    <row r="41" spans="1:5" s="48" customFormat="1" ht="16">
+      <c r="A41" s="48" t="s">
         <v>782</v>
       </c>
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="48" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="53" customFormat="1">
-      <c r="A42" s="53" t="s">
+    <row r="42" spans="1:5" s="48" customFormat="1" ht="16">
+      <c r="A42" s="48" t="s">
         <v>783</v>
       </c>
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="48" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="53" customFormat="1">
-      <c r="A43" s="53" t="s">
+    <row r="43" spans="1:5" s="48" customFormat="1" ht="16">
+      <c r="A43" s="48" t="s">
         <v>784</v>
       </c>
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="48" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="53" customFormat="1" ht="30">
-      <c r="A44" s="53" t="s">
+    <row r="44" spans="1:5" s="48" customFormat="1" ht="16">
+      <c r="A44" s="48" t="s">
         <v>788</v>
       </c>
-      <c r="B44" s="53" t="s">
+      <c r="B44" s="48" t="s">
         <v>790</v>
       </c>
-      <c r="E44" s="53" t="s">
+      <c r="E44" s="48" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="53" customFormat="1"/>
-    <row r="46" spans="1:5" s="53" customFormat="1">
-      <c r="A46" s="65" t="s">
+    <row r="45" spans="1:5" s="48" customFormat="1"/>
+    <row r="46" spans="1:5" s="48" customFormat="1" ht="16">
+      <c r="A46" s="58" t="s">
         <v>1466</v>
       </c>
-      <c r="B46" s="66" t="s">
+      <c r="B46" s="59" t="s">
         <v>1467</v>
       </c>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="88"/>
-    </row>
-    <row r="47" spans="1:5" s="53" customFormat="1">
-      <c r="A47" s="59" t="s">
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="79"/>
+    </row>
+    <row r="47" spans="1:5" s="48" customFormat="1" ht="16">
+      <c r="A47" s="53" t="s">
         <v>1468</v>
       </c>
-      <c r="B47" s="60" t="s">
+      <c r="B47" s="48" t="s">
         <v>1469</v>
       </c>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="61"/>
-    </row>
-    <row r="48" spans="1:5" s="53" customFormat="1">
-      <c r="A48" s="62" t="s">
+      <c r="E47" s="54"/>
+    </row>
+    <row r="48" spans="1:5" s="48" customFormat="1" ht="16">
+      <c r="A48" s="55" t="s">
         <v>1470</v>
       </c>
-      <c r="B48" s="63" t="s">
+      <c r="B48" s="56" t="s">
         <v>1471</v>
       </c>
-      <c r="C48" s="63"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="64"/>
-    </row>
-    <row r="49" spans="1:3" s="53" customFormat="1"/>
-    <row r="50" spans="1:3" s="53" customFormat="1">
-      <c r="A50" s="53" t="s">
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="57"/>
+    </row>
+    <row r="49" spans="1:3" s="48" customFormat="1"/>
+    <row r="50" spans="1:3" s="48" customFormat="1" ht="16">
+      <c r="A50" s="48" t="s">
         <v>1530</v>
       </c>
-      <c r="B50" s="53" t="s">
+      <c r="B50" s="48" t="s">
         <v>1533</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="53" customFormat="1">
-      <c r="A51" s="53" t="s">
+    <row r="51" spans="1:3" s="48" customFormat="1" ht="16">
+      <c r="A51" s="48" t="s">
         <v>1531</v>
       </c>
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="48" t="s">
         <v>1532</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="53" customFormat="1"/>
-    <row r="53" spans="1:3" s="53" customFormat="1">
-      <c r="A53" s="53" t="s">
+    <row r="52" spans="1:3" s="48" customFormat="1"/>
+    <row r="53" spans="1:3" s="48" customFormat="1" ht="16">
+      <c r="A53" s="48" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="53" customFormat="1" ht="30">
-      <c r="A54" s="53" t="s">
+    <row r="54" spans="1:3" s="48" customFormat="1" ht="32">
+      <c r="A54" s="48" t="s">
         <v>619</v>
       </c>
-      <c r="B54" s="53" t="s">
+      <c r="B54" s="48" t="s">
         <v>621</v>
       </c>
-      <c r="C54" s="53" t="s">
+      <c r="C54" s="48" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="53" customFormat="1" ht="30">
-      <c r="A55" s="53" t="s">
+    <row r="55" spans="1:3" s="48" customFormat="1" ht="16">
+      <c r="A55" s="48" t="s">
         <v>622</v>
       </c>
-      <c r="B55" s="53" t="s">
+      <c r="B55" s="48" t="s">
         <v>623</v>
       </c>
-      <c r="C55" s="53" t="s">
+      <c r="C55" s="48" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="53" customFormat="1"/>
-    <row r="57" spans="1:3" s="53" customFormat="1"/>
-    <row r="58" spans="1:3" s="53" customFormat="1"/>
-    <row r="59" spans="1:3" s="53" customFormat="1"/>
-    <row r="60" spans="1:3" s="53" customFormat="1"/>
-    <row r="61" spans="1:3" s="53" customFormat="1"/>
-    <row r="62" spans="1:3">
+    <row r="56" spans="1:3" s="48" customFormat="1"/>
+    <row r="57" spans="1:3" s="48" customFormat="1"/>
+    <row r="58" spans="1:3" s="48" customFormat="1"/>
+    <row r="59" spans="1:3" s="48" customFormat="1"/>
+    <row r="60" spans="1:3" s="48" customFormat="1"/>
+    <row r="61" spans="1:3" s="48" customFormat="1"/>
+    <row r="62" spans="1:3" ht="16">
       <c r="A62" s="6" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" ht="16">
       <c r="A63" s="6" t="s">
         <v>208</v>
       </c>
@@ -8769,7 +8732,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" ht="16">
       <c r="A64" s="6" t="s">
         <v>212</v>
       </c>
@@ -8780,62 +8743,62 @@
         <v>214</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" ht="16">
       <c r="A65" s="7" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" ht="16">
       <c r="A66" s="6" t="s">
         <v>277</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="C66" s="93" t="s">
+      <c r="C66" s="83" t="s">
         <v>290</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" ht="16">
       <c r="A67" s="6" t="s">
         <v>278</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="C67" s="93"/>
+      <c r="C67" s="83"/>
       <c r="D67" s="6" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" ht="16">
       <c r="A68" s="6" t="s">
         <v>279</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C68" s="93"/>
+      <c r="C68" s="83"/>
       <c r="D68" s="6" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" ht="16">
       <c r="A69" s="6" t="s">
         <v>280</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C69" s="93"/>
+      <c r="C69" s="83"/>
       <c r="D69" s="6" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" ht="16">
       <c r="A70" s="6" t="s">
         <v>281</v>
       </c>
@@ -8849,7 +8812,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" ht="16">
       <c r="A72" s="6" t="s">
         <v>1281</v>
       </c>
@@ -8860,7 +8823,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" ht="16">
       <c r="A73" s="6" t="s">
         <v>1284</v>
       </c>
@@ -8874,7 +8837,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" ht="16">
       <c r="A74" s="6" t="s">
         <v>1288</v>
       </c>
@@ -8885,7 +8848,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" ht="16">
       <c r="A75" s="6" t="s">
         <v>1290</v>
       </c>
@@ -8896,7 +8859,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" ht="16">
       <c r="A77" s="23" t="s">
         <v>1348</v>
       </c>
@@ -8906,27 +8869,26 @@
       <c r="C77" s="24"/>
       <c r="D77" s="25"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" ht="16">
       <c r="A78" s="26" t="s">
         <v>1350</v>
       </c>
-      <c r="B78" s="28" t="s">
+      <c r="B78" s="6" t="s">
         <v>1351</v>
       </c>
-      <c r="C78" s="28"/>
       <c r="D78" s="22"/>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="29" t="s">
+    <row r="79" spans="1:4" ht="16">
+      <c r="A79" s="27" t="s">
         <v>1352</v>
       </c>
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="28" t="s">
         <v>1353</v>
       </c>
-      <c r="C79" s="30"/>
-      <c r="D79" s="31"/>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="C79" s="28"/>
+      <c r="D79" s="29"/>
+    </row>
+    <row r="81" spans="1:3" ht="16">
       <c r="A81" s="6" t="s">
         <v>1449</v>
       </c>
@@ -8934,7 +8896,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" ht="16">
       <c r="A82" s="6" t="s">
         <v>1450</v>
       </c>
@@ -8942,7 +8904,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" ht="16">
       <c r="A83" s="6" t="s">
         <v>1452</v>
       </c>
@@ -8950,12 +8912,12 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" ht="16">
       <c r="A88" s="6" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" ht="16">
       <c r="A89" s="6" t="s">
         <v>579</v>
       </c>
@@ -8975,7 +8937,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="30">
+    <row r="92" spans="1:3" ht="32">
       <c r="A92" s="6" t="s">
         <v>826</v>
       </c>
@@ -8986,7 +8948,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" ht="16">
       <c r="A93" s="6" t="s">
         <v>827</v>
       </c>
@@ -8997,12 +8959,12 @@
         <v>830</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" ht="16">
       <c r="A99" s="6" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" ht="16">
       <c r="A100" s="6" t="s">
         <v>703</v>
       </c>
@@ -9010,7 +8972,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" ht="16">
       <c r="A101" s="6" t="s">
         <v>706</v>
       </c>
@@ -9018,7 +8980,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" ht="16">
       <c r="A103" s="6" t="s">
         <v>1436</v>
       </c>
@@ -9026,7 +8988,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" ht="16">
       <c r="A104" s="6" t="s">
         <v>1434</v>
       </c>
@@ -9034,12 +8996,12 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" ht="16">
       <c r="A107" s="6" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="30">
+    <row r="108" spans="1:5" ht="16">
       <c r="A108" s="23" t="s">
         <v>793</v>
       </c>
@@ -9050,23 +9012,23 @@
       <c r="D108" s="24"/>
       <c r="E108" s="25"/>
     </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="29" t="s">
+    <row r="109" spans="1:5" ht="16">
+      <c r="A109" s="27" t="s">
         <v>795</v>
       </c>
-      <c r="B109" s="30" t="s">
+      <c r="B109" s="28" t="s">
         <v>796</v>
       </c>
-      <c r="C109" s="30"/>
-      <c r="D109" s="30"/>
-      <c r="E109" s="31"/>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="C109" s="28"/>
+      <c r="D109" s="28"/>
+      <c r="E109" s="29"/>
+    </row>
+    <row r="115" spans="1:5" ht="16">
       <c r="A115" s="6" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" ht="16">
       <c r="A116" s="23" t="s">
         <v>754</v>
       </c>
@@ -9079,27 +9041,27 @@
       <c r="D116" s="24"/>
       <c r="E116" s="25"/>
     </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="29" t="s">
+    <row r="117" spans="1:5" ht="16">
+      <c r="A117" s="27" t="s">
         <v>757</v>
       </c>
-      <c r="B117" s="30" t="s">
+      <c r="B117" s="28" t="s">
         <v>761</v>
       </c>
-      <c r="C117" s="30" t="s">
+      <c r="C117" s="28" t="s">
         <v>760</v>
       </c>
-      <c r="D117" s="68" t="s">
+      <c r="D117" s="61" t="s">
         <v>759</v>
       </c>
-      <c r="E117" s="31"/>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="E117" s="29"/>
+    </row>
+    <row r="118" spans="1:5" ht="16">
       <c r="A118" s="6" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" ht="16">
       <c r="A119" s="6" t="s">
         <v>1164</v>
       </c>
@@ -9110,7 +9072,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" ht="16">
       <c r="A120" s="6" t="s">
         <v>1166</v>
       </c>
@@ -9121,7 +9083,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="30">
+    <row r="121" spans="1:5" ht="32">
       <c r="A121" s="6" t="s">
         <v>1169</v>
       </c>
@@ -9132,7 +9094,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" ht="16">
       <c r="A122" s="6" t="s">
         <v>926</v>
       </c>
@@ -9143,45 +9105,39 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="28" t="s">
+    <row r="126" spans="1:5" ht="16">
+      <c r="A126" s="6" t="s">
         <v>805</v>
       </c>
-      <c r="B126" s="28" t="s">
+      <c r="B126" s="6" t="s">
         <v>806</v>
       </c>
-      <c r="C126" s="28"/>
-      <c r="D126" s="28"/>
-      <c r="E126" s="28"/>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="28" t="s">
+    </row>
+    <row r="127" spans="1:5" ht="16">
+      <c r="A127" s="6" t="s">
         <v>805</v>
       </c>
-      <c r="B127" s="28" t="s">
+      <c r="B127" s="6" t="s">
         <v>807</v>
       </c>
-      <c r="C127" s="28"/>
-      <c r="D127" s="28"/>
-      <c r="E127" s="28"/>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="30" t="s">
+    </row>
+    <row r="128" spans="1:5" ht="16">
+      <c r="A128" s="28" t="s">
         <v>808</v>
       </c>
-      <c r="B128" s="30" t="s">
+      <c r="B128" s="28" t="s">
         <v>809</v>
       </c>
-      <c r="C128" s="30"/>
-      <c r="D128" s="30"/>
-      <c r="E128" s="30"/>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="C128" s="28"/>
+      <c r="D128" s="28"/>
+      <c r="E128" s="28"/>
+    </row>
+    <row r="131" spans="1:5" ht="16">
       <c r="A131" s="6" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" ht="16">
       <c r="A132" s="6" t="s">
         <v>1320</v>
       </c>
@@ -9192,7 +9148,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" ht="16">
       <c r="A133" s="6" t="s">
         <v>1321</v>
       </c>
@@ -9203,12 +9159,12 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" ht="16">
       <c r="A140" s="6" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" ht="16">
       <c r="A141" s="6" t="s">
         <v>255</v>
       </c>
@@ -9219,7 +9175,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="30">
+    <row r="142" spans="1:5" ht="32">
       <c r="A142" s="6" t="s">
         <v>258</v>
       </c>
@@ -9233,62 +9189,46 @@
         <v>261</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" ht="16">
       <c r="A144" s="6" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" ht="16">
       <c r="A145" s="6" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="90" t="s">
+    <row r="146" spans="1:5" ht="16">
+      <c r="A146" s="6" t="s">
         <v>1569</v>
       </c>
-      <c r="B146" s="90" t="s">
+      <c r="B146" s="6" t="s">
         <v>1570</v>
       </c>
-      <c r="C146" s="90"/>
-      <c r="D146" s="90"/>
-      <c r="E146" s="90"/>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="90" t="s">
+    </row>
+    <row r="147" spans="1:5" ht="16">
+      <c r="A147" s="6" t="s">
         <v>1571</v>
       </c>
-      <c r="B147" s="90" t="s">
+      <c r="B147" s="6" t="s">
         <v>1573</v>
       </c>
-      <c r="C147" s="90"/>
-      <c r="D147" s="90"/>
-      <c r="E147" s="90"/>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="90" t="s">
+    </row>
+    <row r="148" spans="1:5" ht="16">
+      <c r="A148" s="6" t="s">
         <v>1572</v>
       </c>
-      <c r="B148" s="90" t="s">
+      <c r="B148" s="6" t="s">
         <v>859</v>
       </c>
-      <c r="C148" s="90"/>
-      <c r="D148" s="90"/>
-      <c r="E148" s="90"/>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="90"/>
-      <c r="B149" s="90"/>
-      <c r="C149" s="90"/>
-      <c r="D149" s="90"/>
-      <c r="E149" s="90"/>
-    </row>
-    <row r="153" spans="1:5">
+    </row>
+    <row r="153" spans="1:5" ht="16">
       <c r="A153" s="6" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" ht="16">
       <c r="A154" s="23" t="s">
         <v>1218</v>
       </c>
@@ -9301,79 +9241,72 @@
       <c r="D154" s="24"/>
       <c r="E154" s="25"/>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" ht="16">
       <c r="A155" s="26" t="s">
         <v>1303</v>
       </c>
-      <c r="B155" s="28" t="s">
+      <c r="B155" s="6" t="s">
         <v>1221</v>
       </c>
-      <c r="C155" s="28" t="s">
+      <c r="C155" s="6" t="s">
         <v>1220</v>
       </c>
-      <c r="D155" s="28"/>
       <c r="E155" s="22"/>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" ht="16">
       <c r="A156" s="26" t="s">
         <v>1304</v>
       </c>
-      <c r="B156" s="28" t="s">
+      <c r="B156" s="6" t="s">
         <v>1305</v>
       </c>
-      <c r="C156" s="28" t="s">
+      <c r="C156" s="6" t="s">
         <v>1306</v>
       </c>
-      <c r="D156" s="28"/>
       <c r="E156" s="22"/>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" ht="16">
       <c r="A157" s="26" t="s">
         <v>1309</v>
       </c>
-      <c r="B157" s="28" t="s">
+      <c r="B157" s="6" t="s">
         <v>1308</v>
       </c>
-      <c r="C157" s="28" t="s">
+      <c r="C157" s="6" t="s">
         <v>1307</v>
       </c>
-      <c r="D157" s="28"/>
       <c r="E157" s="22"/>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" ht="16">
       <c r="A158" s="26" t="s">
         <v>1222</v>
       </c>
-      <c r="B158" s="28" t="s">
+      <c r="B158" s="6" t="s">
         <v>1223</v>
       </c>
-      <c r="C158" s="28"/>
-      <c r="D158" s="28"/>
       <c r="E158" s="22"/>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" ht="16">
       <c r="A159" s="26" t="s">
         <v>1224</v>
       </c>
-      <c r="B159" s="28" t="s">
+      <c r="B159" s="6" t="s">
         <v>1225</v>
       </c>
-      <c r="C159" s="28"/>
-      <c r="D159" s="28"/>
       <c r="E159" s="22"/>
     </row>
-    <row r="160" spans="1:5">
-      <c r="A160" s="29" t="s">
+    <row r="160" spans="1:5" ht="16">
+      <c r="A160" s="27" t="s">
         <v>1226</v>
       </c>
-      <c r="B160" s="30" t="s">
+      <c r="B160" s="28" t="s">
         <v>1227</v>
       </c>
-      <c r="C160" s="30"/>
-      <c r="D160" s="30"/>
-      <c r="E160" s="31"/>
-    </row>
-    <row r="162" spans="1:5" ht="45">
+      <c r="C160" s="28"/>
+      <c r="D160" s="28"/>
+      <c r="E160" s="29"/>
+    </row>
+    <row r="162" spans="1:5" ht="32">
       <c r="A162" s="6" t="s">
         <v>1374</v>
       </c>
@@ -9381,12 +9314,12 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" ht="16">
       <c r="A166" s="6" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="30">
+    <row r="167" spans="1:5" ht="32">
       <c r="A167" s="6" t="s">
         <v>459</v>
       </c>
@@ -9400,7 +9333,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="30">
+    <row r="168" spans="1:5" ht="32">
       <c r="A168" s="6" t="s">
         <v>460</v>
       </c>
@@ -9414,7 +9347,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="30">
+    <row r="169" spans="1:5" ht="32">
       <c r="A169" s="6" t="s">
         <v>461</v>
       </c>
@@ -9428,7 +9361,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="45">
+    <row r="170" spans="1:5" ht="48">
       <c r="A170" s="6" t="s">
         <v>462</v>
       </c>
@@ -9442,7 +9375,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" ht="16">
       <c r="A172" s="6" t="s">
         <v>643</v>
       </c>
@@ -9453,7 +9386,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" ht="16">
       <c r="A173" s="6" t="s">
         <v>646</v>
       </c>
@@ -9464,7 +9397,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" ht="16">
       <c r="A175" s="6" t="s">
         <v>667</v>
       </c>
@@ -9472,7 +9405,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="30">
+    <row r="176" spans="1:5" ht="32">
       <c r="A176" s="6" t="s">
         <v>668</v>
       </c>
@@ -9480,7 +9413,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" ht="16">
       <c r="A179" s="6" t="s">
         <v>712</v>
       </c>
@@ -9488,7 +9421,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" ht="16">
       <c r="A180" s="6" t="s">
         <v>713</v>
       </c>
@@ -9496,7 +9429,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" ht="16">
       <c r="A181" s="6" t="s">
         <v>714</v>
       </c>
@@ -9504,7 +9437,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" ht="16">
       <c r="A182" s="6" t="s">
         <v>715</v>
       </c>
@@ -9512,12 +9445,12 @@
         <v>719</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" ht="16">
       <c r="A189" s="6" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" ht="16">
       <c r="A190" s="23" t="s">
         <v>244</v>
       </c>
@@ -9528,145 +9461,120 @@
       <c r="D190" s="24"/>
       <c r="E190" s="25"/>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" ht="16">
       <c r="A191" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="B191" s="28"/>
-      <c r="C191" s="28" t="s">
+      <c r="C191" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="D191" s="28"/>
       <c r="E191" s="22"/>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" ht="16">
       <c r="A192" s="26" t="s">
         <v>1290</v>
       </c>
-      <c r="B192" s="28"/>
-      <c r="C192" s="28" t="s">
+      <c r="C192" s="6" t="s">
         <v>1345</v>
       </c>
-      <c r="D192" s="28"/>
       <c r="E192" s="22"/>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="26"/>
-      <c r="B193" s="28"/>
-      <c r="C193" s="28"/>
-      <c r="D193" s="28"/>
       <c r="E193" s="22"/>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" ht="16">
       <c r="A194" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="B194" s="28"/>
-      <c r="C194" s="28" t="s">
+      <c r="C194" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="D194" s="28"/>
       <c r="E194" s="22"/>
     </row>
-    <row r="195" spans="1:5">
-      <c r="A195" s="29" t="s">
+    <row r="195" spans="1:5" ht="16">
+      <c r="A195" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="B195" s="30"/>
-      <c r="C195" s="30" t="s">
+      <c r="B195" s="28"/>
+      <c r="C195" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="D195" s="30"/>
-      <c r="E195" s="31"/>
+      <c r="D195" s="28"/>
+      <c r="E195" s="29"/>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="26"/>
-      <c r="B196" s="28"/>
-      <c r="C196" s="28"/>
-      <c r="D196" s="28"/>
-      <c r="E196" s="28"/>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="26"/>
-      <c r="B197" s="28"/>
-      <c r="C197" s="28"/>
-      <c r="D197" s="28"/>
-      <c r="E197" s="28"/>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="26"/>
-      <c r="B198" s="28"/>
-      <c r="C198" s="28"/>
-      <c r="D198" s="28"/>
-      <c r="E198" s="28"/>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="26"/>
-      <c r="B199" s="28"/>
-      <c r="C199" s="28"/>
-      <c r="D199" s="28"/>
-      <c r="E199" s="28"/>
-    </row>
-    <row r="200" spans="1:5">
+    </row>
+    <row r="200" spans="1:5" ht="16">
       <c r="A200" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="B200" s="28" t="s">
+      <c r="B200" s="6" t="s">
         <v>740</v>
       </c>
       <c r="C200" s="22"/>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" ht="16">
       <c r="A201" s="26"/>
-      <c r="B201" s="27" t="s">
+      <c r="B201" s="7" t="s">
         <v>314</v>
       </c>
       <c r="C201" s="22" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="30">
+    <row r="202" spans="1:5" ht="32">
       <c r="A202" s="26"/>
-      <c r="B202" s="28" t="s">
+      <c r="B202" s="6" t="s">
         <v>742</v>
       </c>
       <c r="C202" s="22" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="30">
+    <row r="203" spans="1:5" ht="32">
       <c r="A203" s="26"/>
-      <c r="B203" s="28" t="s">
+      <c r="B203" s="6" t="s">
         <v>321</v>
       </c>
       <c r="C203" s="22" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" ht="16">
       <c r="A204" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="B204" s="28" t="s">
+      <c r="B204" s="6" t="s">
         <v>741</v>
       </c>
       <c r="C204" s="22"/>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" ht="16">
       <c r="A205" s="26"/>
-      <c r="B205" s="28" t="s">
+      <c r="B205" s="6" t="s">
         <v>317</v>
       </c>
       <c r="C205" s="22" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
-      <c r="A206" s="29"/>
-      <c r="B206" s="30" t="s">
+    <row r="206" spans="1:5" ht="16">
+      <c r="A206" s="27"/>
+      <c r="B206" s="28" t="s">
         <v>743</v>
       </c>
-      <c r="C206" s="31" t="s">
+      <c r="C206" s="29" t="s">
         <v>319</v>
       </c>
     </row>
@@ -9684,7 +9592,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" ht="16">
       <c r="A209" s="6" t="s">
         <v>583</v>
       </c>
@@ -9692,7 +9600,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" ht="16">
       <c r="A210" s="6" t="s">
         <v>585</v>
       </c>
@@ -9700,7 +9608,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" ht="16">
       <c r="A211" s="6" t="s">
         <v>588</v>
       </c>
@@ -9708,7 +9616,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" ht="16">
       <c r="A212" s="6" t="s">
         <v>589</v>
       </c>
@@ -9725,7 +9633,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="45">
+    <row r="216" spans="1:3" ht="48">
       <c r="A216" s="6" t="s">
         <v>768</v>
       </c>
@@ -9733,7 +9641,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" ht="16">
       <c r="A217" s="6" t="s">
         <v>769</v>
       </c>
@@ -9741,7 +9649,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" ht="16">
       <c r="A219" s="6" t="s">
         <v>818</v>
       </c>
@@ -9749,7 +9657,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" ht="16">
       <c r="A220" s="6" t="s">
         <v>820</v>
       </c>
@@ -9757,7 +9665,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" ht="16">
       <c r="A221" s="6" t="s">
         <v>822</v>
       </c>
@@ -9765,7 +9673,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" ht="16">
       <c r="A223" s="6" t="s">
         <v>1109</v>
       </c>
@@ -9773,7 +9681,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" ht="16">
       <c r="A224" s="6" t="s">
         <v>1110</v>
       </c>
@@ -9781,7 +9689,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" ht="16">
       <c r="A225" s="6" t="s">
         <v>1112</v>
       </c>
@@ -9789,7 +9697,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" ht="16">
       <c r="A226" s="6" t="s">
         <v>1113</v>
       </c>
@@ -9797,7 +9705,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" ht="16">
       <c r="A227" s="6" t="s">
         <v>1574</v>
       </c>
@@ -9808,7 +9716,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="30">
+    <row r="228" spans="1:5" ht="16">
       <c r="A228" s="6" t="s">
         <v>1578</v>
       </c>
@@ -9822,7 +9730,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="30">
+    <row r="229" spans="1:5" ht="32">
       <c r="B229" s="6" t="s">
         <v>1581</v>
       </c>
@@ -9833,12 +9741,12 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" ht="16">
       <c r="A234" s="6" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" ht="16">
       <c r="A235" s="23" t="s">
         <v>244</v>
       </c>
@@ -9851,77 +9759,62 @@
       <c r="D235" s="24"/>
       <c r="E235" s="25"/>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" ht="16">
       <c r="A236" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="B236" s="28" t="s">
+      <c r="B236" s="6" t="s">
         <v>251</v>
       </c>
       <c r="C236" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="D236" s="28"/>
       <c r="E236" s="22"/>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" ht="16">
       <c r="A237" s="26" t="s">
         <v>1290</v>
       </c>
-      <c r="B237" s="28" t="s">
+      <c r="B237" s="6" t="s">
         <v>1345</v>
       </c>
-      <c r="D237" s="28"/>
       <c r="E237" s="22"/>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="26"/>
-      <c r="B238" s="28"/>
-      <c r="D238" s="28"/>
       <c r="E238" s="22"/>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" ht="16">
       <c r="A239" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="B239" s="28" t="s">
+      <c r="B239" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="D239" s="28"/>
       <c r="E239" s="22"/>
     </row>
-    <row r="240" spans="1:5">
-      <c r="A240" s="29" t="s">
+    <row r="240" spans="1:5" ht="16">
+      <c r="A240" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="B240" s="30" t="s">
+      <c r="B240" s="28" t="s">
         <v>250</v>
       </c>
       <c r="C240" s="6" t="s">
         <v>1465</v>
       </c>
-      <c r="D240" s="30"/>
-      <c r="E240" s="31"/>
-    </row>
-    <row r="241" spans="1:5">
-      <c r="A241" s="28" t="s">
+      <c r="D240" s="28"/>
+      <c r="E240" s="29"/>
+    </row>
+    <row r="241" spans="1:5" ht="16">
+      <c r="A241" s="6" t="s">
         <v>1461</v>
       </c>
-      <c r="B241" s="28" t="s">
+      <c r="B241" s="6" t="s">
         <v>1462</v>
       </c>
-      <c r="C241" s="28"/>
-      <c r="D241" s="28"/>
-      <c r="E241" s="28"/>
-    </row>
-    <row r="242" spans="1:5">
-      <c r="A242" s="28"/>
-      <c r="B242" s="28"/>
-      <c r="C242" s="28"/>
-      <c r="D242" s="28"/>
-      <c r="E242" s="28"/>
-    </row>
-    <row r="243" spans="1:5">
+    </row>
+    <row r="243" spans="1:5" ht="16">
       <c r="A243" s="6" t="s">
         <v>292</v>
       </c>
@@ -9932,7 +9825,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="45">
+    <row r="244" spans="1:5" ht="48">
       <c r="A244" s="6" t="s">
         <v>263</v>
       </c>
@@ -9949,7 +9842,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="45">
+    <row r="245" spans="1:5" ht="48">
       <c r="A245" s="6" t="s">
         <v>268</v>
       </c>
@@ -9963,7 +9856,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" ht="16">
       <c r="A246" s="6" t="s">
         <v>271</v>
       </c>
@@ -9971,7 +9864,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" ht="16">
       <c r="A247" s="6" t="s">
         <v>273</v>
       </c>
@@ -9979,7 +9872,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" ht="16">
       <c r="A249" s="6" t="s">
         <v>764</v>
       </c>
@@ -9987,7 +9880,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" ht="16">
       <c r="A250" s="6" t="s">
         <v>765</v>
       </c>
@@ -9995,7 +9888,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" ht="16">
       <c r="A252" s="6" t="s">
         <v>1437</v>
       </c>
@@ -10003,7 +9896,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" ht="16">
       <c r="A253" s="6" t="s">
         <v>1439</v>
       </c>
@@ -10011,7 +9904,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" ht="16">
       <c r="A254" s="6" t="s">
         <v>1441</v>
       </c>
@@ -10025,7 +9918,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" ht="16">
       <c r="A255" s="6" t="s">
         <v>1444</v>
       </c>
@@ -10039,8 +9932,8 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
-      <c r="A257" s="89" t="s">
+    <row r="257" spans="1:5" ht="16">
+      <c r="A257" s="80" t="s">
         <v>1497</v>
       </c>
       <c r="B257" s="24"/>
@@ -10048,40 +9941,36 @@
       <c r="D257" s="24"/>
       <c r="E257" s="25"/>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" ht="16">
       <c r="A258" s="26" t="s">
         <v>1498</v>
       </c>
-      <c r="B258" s="28" t="s">
+      <c r="B258" s="6" t="s">
         <v>1501</v>
       </c>
-      <c r="C258" s="28"/>
-      <c r="D258" s="28"/>
       <c r="E258" s="22"/>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" ht="16">
       <c r="A259" s="26" t="s">
         <v>1499</v>
       </c>
-      <c r="B259" s="28" t="s">
+      <c r="B259" s="6" t="s">
         <v>1500</v>
       </c>
-      <c r="C259" s="28"/>
-      <c r="D259" s="28"/>
       <c r="E259" s="22"/>
     </row>
-    <row r="260" spans="1:5">
-      <c r="A260" s="29" t="s">
+    <row r="260" spans="1:5" ht="16">
+      <c r="A260" s="27" t="s">
         <v>1502</v>
       </c>
-      <c r="B260" s="30" t="s">
+      <c r="B260" s="28" t="s">
         <v>1503</v>
       </c>
-      <c r="C260" s="30"/>
-      <c r="D260" s="30"/>
-      <c r="E260" s="31"/>
-    </row>
-    <row r="262" spans="1:5">
+      <c r="C260" s="28"/>
+      <c r="D260" s="28"/>
+      <c r="E260" s="29"/>
+    </row>
+    <row r="262" spans="1:5" ht="16">
       <c r="A262" s="23" t="s">
         <v>1504</v>
       </c>
@@ -10092,20 +9981,20 @@
       <c r="D262" s="24"/>
       <c r="E262" s="25"/>
     </row>
-    <row r="263" spans="1:5">
-      <c r="A263" s="29" t="s">
+    <row r="263" spans="1:5" ht="16">
+      <c r="A263" s="27" t="s">
         <v>1506</v>
       </c>
-      <c r="B263" s="30" t="s">
+      <c r="B263" s="28" t="s">
         <v>1507</v>
       </c>
-      <c r="C263" s="68" t="s">
+      <c r="C263" s="61" t="s">
         <v>1508</v>
       </c>
-      <c r="D263" s="30"/>
-      <c r="E263" s="31"/>
-    </row>
-    <row r="265" spans="1:5">
+      <c r="D263" s="28"/>
+      <c r="E263" s="29"/>
+    </row>
+    <row r="265" spans="1:5" ht="16">
       <c r="A265" s="23" t="s">
         <v>1511</v>
       </c>
@@ -10118,50 +10007,48 @@
       <c r="D265" s="24"/>
       <c r="E265" s="25"/>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" ht="16">
       <c r="A266" s="26"/>
-      <c r="B266" s="28" t="s">
+      <c r="B266" s="6" t="s">
         <v>1513</v>
       </c>
-      <c r="C266" s="28" t="s">
+      <c r="C266" s="6" t="s">
         <v>1514</v>
       </c>
-      <c r="D266" s="28"/>
       <c r="E266" s="22"/>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" ht="16">
       <c r="A267" s="26"/>
-      <c r="B267" s="28" t="s">
+      <c r="B267" s="6" t="s">
         <v>1515</v>
       </c>
-      <c r="C267" s="28" t="s">
+      <c r="C267" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="D267" s="28"/>
       <c r="E267" s="22"/>
     </row>
-    <row r="268" spans="1:5">
-      <c r="A268" s="29" t="s">
+    <row r="268" spans="1:5" ht="16">
+      <c r="A268" s="27" t="s">
         <v>1516</v>
       </c>
-      <c r="B268" s="30" t="s">
+      <c r="B268" s="28" t="s">
         <v>1517</v>
       </c>
-      <c r="C268" s="30"/>
-      <c r="D268" s="30"/>
-      <c r="E268" s="31"/>
-    </row>
-    <row r="270" spans="1:5">
+      <c r="C268" s="28"/>
+      <c r="D268" s="28"/>
+      <c r="E268" s="29"/>
+    </row>
+    <row r="270" spans="1:5" ht="16">
       <c r="A270" s="6" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" ht="16">
       <c r="A271" s="7" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="60">
+    <row r="272" spans="1:5" ht="64">
       <c r="A272" s="6" t="s">
         <v>235</v>
       </c>
@@ -10178,7 +10065,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="60">
+    <row r="273" spans="1:5" ht="64">
       <c r="A273" s="6" t="s">
         <v>236</v>
       </c>
@@ -10192,7 +10079,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" ht="16">
       <c r="A274" s="23" t="s">
         <v>350</v>
       </c>
@@ -10203,41 +10090,38 @@
       <c r="D274" s="24"/>
       <c r="E274" s="25"/>
     </row>
-    <row r="275" spans="1:5" ht="30">
+    <row r="275" spans="1:5" ht="32">
       <c r="A275" s="26"/>
-      <c r="B275" s="28" t="s">
+      <c r="B275" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="C275" s="28" t="s">
+      <c r="C275" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="D275" s="28"/>
       <c r="E275" s="22" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="45">
+    <row r="276" spans="1:5" ht="48">
       <c r="A276" s="26"/>
-      <c r="B276" s="28" t="s">
+      <c r="B276" s="6" t="s">
         <v>1523</v>
       </c>
-      <c r="C276" s="28" t="s">
+      <c r="C276" s="6" t="s">
         <v>1099</v>
       </c>
-      <c r="D276" s="28"/>
       <c r="E276" s="22" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="30">
+    <row r="277" spans="1:5" ht="32">
       <c r="A277" s="26"/>
-      <c r="B277" s="28" t="s">
+      <c r="B277" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="C277" s="28" t="s">
+      <c r="C277" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="D277" s="28"/>
       <c r="E277" s="22" t="s">
         <v>357</v>
       </c>
@@ -10246,48 +10130,45 @@
       <c r="A278" s="26" t="s">
         <v>351</v>
       </c>
-      <c r="B278" s="28" t="s">
+      <c r="B278" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C278" s="28" t="s">
+      <c r="C278" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="D278" s="28"/>
       <c r="E278" s="22" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" ht="16">
       <c r="A279" s="26"/>
-      <c r="B279" s="28"/>
-      <c r="C279" s="28" t="s">
+      <c r="C279" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="D279" s="28"/>
       <c r="E279" s="22"/>
     </row>
-    <row r="280" spans="1:5">
-      <c r="A280" s="29" t="s">
+    <row r="280" spans="1:5" ht="16">
+      <c r="A280" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="B280" s="30" t="s">
+      <c r="B280" s="28" t="s">
         <v>361</v>
       </c>
-      <c r="C280" s="30" t="s">
+      <c r="C280" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="D280" s="30"/>
-      <c r="E280" s="31" t="s">
+      <c r="D280" s="28"/>
+      <c r="E280" s="29" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" ht="16">
       <c r="A284" s="6" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="30">
-      <c r="A286" s="93" t="s">
+    <row r="286" spans="1:5" ht="32">
+      <c r="A286" s="83" t="s">
         <v>323</v>
       </c>
       <c r="B286" s="6" t="s">
@@ -10297,8 +10178,8 @@
         <v>329</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
-      <c r="A287" s="93"/>
+    <row r="287" spans="1:5" ht="16">
+      <c r="A287" s="83"/>
       <c r="B287" s="7" t="s">
         <v>326</v>
       </c>
@@ -10306,8 +10187,8 @@
         <v>325</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
-      <c r="A288" s="93"/>
+    <row r="288" spans="1:5" ht="16">
+      <c r="A288" s="83"/>
       <c r="B288" s="7" t="s">
         <v>327</v>
       </c>
@@ -10315,8 +10196,8 @@
         <v>328</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
-      <c r="A289" s="93"/>
+    <row r="289" spans="1:5" ht="16">
+      <c r="A289" s="83"/>
       <c r="B289" s="6" t="s">
         <v>330</v>
       </c>
@@ -10327,8 +10208,8 @@
         <v>332</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
-      <c r="A290" s="93"/>
+    <row r="290" spans="1:5" ht="16">
+      <c r="A290" s="83"/>
       <c r="B290" s="6" t="s">
         <v>334</v>
       </c>
@@ -10339,8 +10220,8 @@
         <v>333</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
-      <c r="A291" s="93"/>
+    <row r="291" spans="1:5" ht="16">
+      <c r="A291" s="83"/>
       <c r="B291" s="6" t="s">
         <v>335</v>
       </c>
@@ -10348,8 +10229,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
-      <c r="A292" s="93"/>
+    <row r="292" spans="1:5" ht="16">
+      <c r="A292" s="83"/>
       <c r="B292" s="6" t="s">
         <v>337</v>
       </c>
@@ -10357,8 +10238,8 @@
         <v>338</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
-      <c r="A293" s="93"/>
+    <row r="293" spans="1:5" ht="16">
+      <c r="A293" s="83"/>
       <c r="B293" s="6" t="s">
         <v>341</v>
       </c>
@@ -10372,8 +10253,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
-      <c r="A294" s="93"/>
+    <row r="294" spans="1:5" ht="16">
+      <c r="A294" s="83"/>
       <c r="B294" s="6" t="s">
         <v>342</v>
       </c>
@@ -10384,8 +10265,8 @@
         <v>345</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
-      <c r="A295" s="93"/>
+    <row r="295" spans="1:5" ht="16">
+      <c r="A295" s="83"/>
       <c r="B295" s="7" t="s">
         <v>346</v>
       </c>
@@ -10396,8 +10277,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
-      <c r="A296" s="93"/>
+    <row r="296" spans="1:5" ht="16">
+      <c r="A296" s="83"/>
       <c r="B296" s="6" t="s">
         <v>349</v>
       </c>
@@ -10413,7 +10294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10423,13 +10304,13 @@
       <selection pane="bottomRight" activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="35.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="45.1640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -11241,7 +11122,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="45">
+    <row r="130" spans="1:11" ht="48">
       <c r="A130" s="2" t="s">
         <v>1614</v>
       </c>
@@ -11624,67 +11505,64 @@
       </c>
     </row>
     <row r="210" spans="1:4">
-      <c r="A210" s="72" t="s">
+      <c r="A210" s="65" t="s">
         <v>1077</v>
       </c>
-      <c r="B210" s="73" t="s">
+      <c r="B210" s="66" t="s">
         <v>1078</v>
       </c>
-      <c r="C210" s="82" t="s">
+      <c r="C210" s="73" t="s">
         <v>1261</v>
       </c>
-      <c r="D210" s="74" t="s">
+      <c r="D210" s="67" t="s">
         <v>1083</v>
       </c>
     </row>
     <row r="211" spans="1:4">
-      <c r="A211" s="75" t="s">
+      <c r="A211" s="68" t="s">
         <v>1080</v>
       </c>
-      <c r="B211" s="76" t="s">
+      <c r="B211" s="2" t="s">
         <v>1079</v>
       </c>
-      <c r="C211" s="76"/>
-      <c r="D211" s="77" t="s">
+      <c r="D211" s="69" t="s">
         <v>1084</v>
       </c>
     </row>
     <row r="212" spans="1:4">
-      <c r="A212" s="75" t="s">
+      <c r="A212" s="68" t="s">
         <v>1075</v>
       </c>
-      <c r="B212" s="76" t="s">
+      <c r="B212" s="2" t="s">
         <v>1081</v>
       </c>
-      <c r="C212" s="76"/>
-      <c r="D212" s="77" t="s">
+      <c r="D212" s="69" t="s">
         <v>1085</v>
       </c>
     </row>
     <row r="213" spans="1:4">
-      <c r="A213" s="75" t="s">
+      <c r="A213" s="68" t="s">
         <v>1076</v>
       </c>
-      <c r="B213" s="76" t="s">
+      <c r="B213" s="2" t="s">
         <v>1082</v>
       </c>
-      <c r="C213" s="76"/>
-      <c r="D213" s="77" t="s">
+      <c r="D213" s="69" t="s">
         <v>1086</v>
       </c>
     </row>
     <row r="214" spans="1:4">
-      <c r="A214" s="78" t="s">
+      <c r="A214" s="70" t="s">
         <v>1074</v>
       </c>
-      <c r="B214" s="79" t="s">
+      <c r="B214" s="71" t="s">
         <v>1087</v>
       </c>
-      <c r="C214" s="79"/>
-      <c r="D214" s="80"/>
+      <c r="C214" s="71"/>
+      <c r="D214" s="72"/>
     </row>
     <row r="216" spans="1:4">
-      <c r="A216" s="85" t="s">
+      <c r="A216" s="76" t="s">
         <v>1250</v>
       </c>
       <c r="B216" s="2" t="s">
@@ -11843,14 +11721,14 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="60">
+    <row r="240" spans="1:4" ht="64">
       <c r="A240" s="2" t="s">
         <v>1459</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>1400</v>
       </c>
-      <c r="D240" s="81" t="s">
+      <c r="D240" s="15" t="s">
         <v>1460</v>
       </c>
     </row>
@@ -12048,42 +11926,40 @@
       </c>
     </row>
     <row r="281" spans="1:4">
-      <c r="A281" s="87" t="s">
+      <c r="A281" s="78" t="s">
         <v>1422</v>
       </c>
-      <c r="B281" s="73"/>
-      <c r="C281" s="73"/>
-      <c r="D281" s="74"/>
+      <c r="B281" s="66"/>
+      <c r="C281" s="66"/>
+      <c r="D281" s="67"/>
     </row>
     <row r="282" spans="1:4">
-      <c r="A282" s="75" t="s">
+      <c r="A282" s="68" t="s">
         <v>1423</v>
       </c>
-      <c r="B282" s="76" t="s">
+      <c r="B282" s="2" t="s">
         <v>1424</v>
       </c>
-      <c r="C282" s="76"/>
-      <c r="D282" s="77"/>
+      <c r="D282" s="69"/>
     </row>
     <row r="283" spans="1:4">
-      <c r="A283" s="75" t="s">
+      <c r="A283" s="68" t="s">
         <v>1426</v>
       </c>
-      <c r="B283" s="76" t="s">
+      <c r="B283" s="2" t="s">
         <v>1425</v>
       </c>
-      <c r="C283" s="76"/>
-      <c r="D283" s="77"/>
+      <c r="D283" s="69"/>
     </row>
     <row r="284" spans="1:4">
-      <c r="A284" s="78" t="s">
+      <c r="A284" s="70" t="s">
         <v>1427</v>
       </c>
-      <c r="B284" s="79" t="s">
+      <c r="B284" s="71" t="s">
         <v>1428</v>
       </c>
-      <c r="C284" s="79"/>
-      <c r="D284" s="80"/>
+      <c r="C284" s="71"/>
+      <c r="D284" s="72"/>
     </row>
     <row r="294" spans="1:3" ht="14.25" customHeight="1">
       <c r="A294" s="2" t="s">
@@ -12123,7 +11999,7 @@
       <c r="A300" s="2" t="s">
         <v>1389</v>
       </c>
-      <c r="B300" s="84" t="s">
+      <c r="B300" s="75" t="s">
         <v>1390</v>
       </c>
     </row>
@@ -12134,7 +12010,7 @@
       <c r="B301" s="2" t="s">
         <v>1490</v>
       </c>
-      <c r="C301" s="84" t="s">
+      <c r="C301" s="75" t="s">
         <v>1491</v>
       </c>
     </row>
@@ -12336,95 +12212,80 @@
       </c>
     </row>
     <row r="343" spans="1:5">
-      <c r="A343" s="72" t="s">
+      <c r="A343" s="65" t="s">
         <v>695</v>
       </c>
-      <c r="B343" s="73" t="s">
+      <c r="B343" s="66" t="s">
         <v>1262</v>
       </c>
-      <c r="C343" s="73"/>
-      <c r="D343" s="73"/>
-      <c r="E343" s="74"/>
+      <c r="C343" s="66"/>
+      <c r="D343" s="66"/>
+      <c r="E343" s="67"/>
     </row>
     <row r="344" spans="1:5">
-      <c r="A344" s="75" t="s">
+      <c r="A344" s="68" t="s">
         <v>696</v>
       </c>
-      <c r="B344" s="76" t="s">
+      <c r="B344" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="C344" s="76"/>
-      <c r="D344" s="76"/>
-      <c r="E344" s="77"/>
+      <c r="E344" s="69"/>
     </row>
     <row r="345" spans="1:5">
-      <c r="A345" s="75" t="s">
+      <c r="A345" s="68" t="s">
         <v>701</v>
       </c>
-      <c r="B345" s="76" t="s">
+      <c r="B345" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="C345" s="76"/>
-      <c r="D345" s="76"/>
-      <c r="E345" s="77"/>
+      <c r="E345" s="69"/>
     </row>
     <row r="346" spans="1:5">
-      <c r="A346" s="75" t="s">
+      <c r="A346" s="68" t="s">
         <v>699</v>
       </c>
-      <c r="B346" s="76" t="s">
+      <c r="B346" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="C346" s="76"/>
-      <c r="D346" s="76"/>
-      <c r="E346" s="77"/>
+      <c r="E346" s="69"/>
     </row>
     <row r="347" spans="1:5">
-      <c r="A347" s="75" t="s">
+      <c r="A347" s="68" t="s">
         <v>1263</v>
       </c>
-      <c r="B347" s="76" t="s">
+      <c r="B347" s="2" t="s">
         <v>1264</v>
       </c>
-      <c r="C347" s="76"/>
-      <c r="D347" s="76"/>
-      <c r="E347" s="77"/>
+      <c r="E347" s="69"/>
     </row>
     <row r="348" spans="1:5">
-      <c r="A348" s="75" t="s">
+      <c r="A348" s="68" t="s">
         <v>1265</v>
       </c>
-      <c r="B348" s="76" t="s">
+      <c r="B348" s="2" t="s">
         <v>1266</v>
       </c>
-      <c r="C348" s="76"/>
-      <c r="D348" s="76"/>
-      <c r="E348" s="77"/>
+      <c r="E348" s="69"/>
     </row>
     <row r="349" spans="1:5">
-      <c r="A349" s="75" t="s">
+      <c r="A349" s="68" t="s">
         <v>1267</v>
       </c>
-      <c r="B349" s="76" t="s">
+      <c r="B349" s="2" t="s">
         <v>1268</v>
       </c>
-      <c r="C349" s="76"/>
-      <c r="D349" s="76"/>
-      <c r="E349" s="77"/>
+      <c r="E349" s="69"/>
     </row>
     <row r="350" spans="1:5">
-      <c r="A350" s="75"/>
-      <c r="B350" s="76"/>
-      <c r="C350" s="76"/>
-      <c r="D350" s="76"/>
-      <c r="E350" s="77"/>
+      <c r="A350" s="68"/>
+      <c r="E350" s="69"/>
     </row>
     <row r="351" spans="1:5">
-      <c r="A351" s="78"/>
-      <c r="B351" s="79"/>
-      <c r="C351" s="79"/>
-      <c r="D351" s="79"/>
-      <c r="E351" s="80"/>
+      <c r="A351" s="70"/>
+      <c r="B351" s="71"/>
+      <c r="C351" s="71"/>
+      <c r="D351" s="71"/>
+      <c r="E351" s="72"/>
     </row>
     <row r="352" spans="1:5">
       <c r="A352" s="2" t="s">
@@ -12456,7 +12317,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="30">
+    <row r="356" spans="1:4" ht="32">
       <c r="A356" s="2" t="s">
         <v>1156</v>
       </c>
@@ -12467,14 +12328,14 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="45">
+    <row r="357" spans="1:4" ht="32">
       <c r="A357" s="2" t="s">
         <v>1161</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="C357" s="84" t="s">
+      <c r="C357" s="75" t="s">
         <v>1239</v>
       </c>
       <c r="D357" s="6" t="s">
@@ -13003,7 +12864,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="90">
+    <row r="461" spans="1:4" ht="64">
       <c r="A461" s="2" t="s">
         <v>883</v>
       </c>
@@ -13018,28 +12879,28 @@
       </c>
     </row>
     <row r="462" spans="1:4">
-      <c r="A462" s="72" t="s">
+      <c r="A462" s="65" t="s">
         <v>928</v>
       </c>
-      <c r="B462" s="73" t="s">
+      <c r="B462" s="66" t="s">
         <v>929</v>
       </c>
-      <c r="C462" s="73" t="s">
+      <c r="C462" s="66" t="s">
         <v>931</v>
       </c>
-      <c r="D462" s="74"/>
+      <c r="D462" s="67"/>
     </row>
     <row r="463" spans="1:4">
-      <c r="A463" s="78" t="s">
+      <c r="A463" s="70" t="s">
         <v>930</v>
       </c>
-      <c r="B463" s="79" t="s">
+      <c r="B463" s="71" t="s">
         <v>932</v>
       </c>
-      <c r="C463" s="79" t="s">
+      <c r="C463" s="71" t="s">
         <v>933</v>
       </c>
-      <c r="D463" s="80" t="s">
+      <c r="D463" s="72" t="s">
         <v>934</v>
       </c>
     </row>
@@ -13072,7 +12933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13082,470 +12943,468 @@
       <selection pane="bottomRight" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.140625" style="47" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="47" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="45" customWidth="1"/>
-    <col min="4" max="4" width="62.42578125" style="45" customWidth="1"/>
-    <col min="5" max="5" width="69.85546875" style="45" customWidth="1"/>
-    <col min="6" max="6" width="89.42578125" style="45" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="45" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="45"/>
+    <col min="1" max="1" width="39.1640625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="42" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="15" customWidth="1"/>
+    <col min="4" max="4" width="62.5" style="15" customWidth="1"/>
+    <col min="5" max="5" width="69.83203125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="89.5" style="15" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="9.1640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="47" customFormat="1">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:7" s="42" customFormat="1" ht="16">
+      <c r="A1" s="42" t="s">
         <v>455</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="42" t="s">
         <v>470</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="42" t="s">
         <v>453</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="42" t="s">
         <v>454</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="42" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:7" ht="48">
+      <c r="A2" s="42" t="s">
         <v>456</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="15" t="s">
         <v>466</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="15" t="s">
         <v>505</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="15" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="60">
-      <c r="B3" s="47" t="s">
+    <row r="3" spans="1:7" ht="48">
+      <c r="B3" s="42" t="s">
         <v>524</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="15" t="s">
         <v>503</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="15" t="s">
         <v>1485</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="15" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="B4" s="47" t="s">
+    <row r="4" spans="1:7" ht="16">
+      <c r="B4" s="42" t="s">
         <v>506</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="15" t="s">
         <v>507</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="15" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="C5" s="45" t="s">
+    <row r="5" spans="1:7" ht="16">
+      <c r="C5" s="15" t="s">
         <v>534</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="15" t="s">
         <v>535</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="15" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="47" t="s">
+    <row r="6" spans="1:7" ht="16">
+      <c r="B6" s="42" t="s">
         <v>509</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="15" t="s">
         <v>510</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="15" t="s">
         <v>511</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="15" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="C7" s="45" t="s">
+    <row r="7" spans="1:7" ht="16">
+      <c r="C7" s="15" t="s">
         <v>537</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="15" t="s">
         <v>535</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="44" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="47" t="s">
+    <row r="8" spans="1:7" ht="16">
+      <c r="B8" s="42" t="s">
         <v>513</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="15" t="s">
         <v>514</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="15" t="s">
         <v>1300</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="15" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="45"/>
-      <c r="B9" s="47" t="s">
+    <row r="9" spans="1:7" ht="16">
+      <c r="A9" s="15"/>
+      <c r="B9" s="42" t="s">
         <v>516</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="15" t="s">
         <v>517</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="15" t="s">
         <v>518</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="15" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="C10" s="45" t="s">
+    <row r="10" spans="1:7" ht="16">
+      <c r="C10" s="15" t="s">
         <v>540</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="15" t="s">
         <v>535</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="15" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="B11" s="47" t="s">
+    <row r="11" spans="1:7" ht="16">
+      <c r="B11" s="42" t="s">
         <v>520</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="15" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="B12" s="47" t="s">
+    <row r="12" spans="1:7" ht="16">
+      <c r="B12" s="42" t="s">
         <v>523</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="15" t="s">
         <v>525</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="15" t="s">
         <v>526</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="15" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="144.75" customHeight="1">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="42" t="s">
         <v>457</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="15" t="s">
         <v>467</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="15" t="s">
         <v>541</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="15" t="s">
         <v>532</v>
       </c>
-      <c r="G13" s="45" t="s">
+      <c r="G13" s="15" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="B14" s="47" t="s">
+    <row r="14" spans="1:7" ht="16">
+      <c r="B14" s="42" t="s">
         <v>471</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="15" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="C15" s="45" t="s">
+    <row r="15" spans="1:7" ht="16">
+      <c r="C15" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="15" t="s">
         <v>1298</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="15" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="81" customFormat="1">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="81" t="s">
+    <row r="16" spans="1:7" ht="16">
+      <c r="C16" s="15" t="s">
         <v>1299</v>
       </c>
-      <c r="D16" s="81" t="s">
+      <c r="D16" s="15" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="C17" s="45" t="s">
+    <row r="17" spans="1:6" ht="16">
+      <c r="C17" s="15" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="51" customFormat="1" ht="135">
-      <c r="A18" s="50"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51" t="s">
+    <row r="18" spans="1:6" s="46" customFormat="1" ht="144">
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46" t="s">
         <v>485</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="46" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="C19" s="45" t="s">
+    <row r="19" spans="1:6" ht="16">
+      <c r="C19" s="15" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="C20" s="45" t="s">
+    <row r="20" spans="1:6" ht="16">
+      <c r="C20" s="15" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="B21" s="47" t="s">
+    <row r="21" spans="1:6" ht="16">
+      <c r="B21" s="42" t="s">
         <v>472</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="15" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="C22" s="45" t="s">
+    <row r="22" spans="1:6" ht="16">
+      <c r="C22" s="15" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="C23" s="45" t="s">
+    <row r="23" spans="1:6" ht="16">
+      <c r="C23" s="15" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="C24" s="45" t="s">
+    <row r="24" spans="1:6" ht="16">
+      <c r="C24" s="15" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="B25" s="47" t="s">
+    <row r="25" spans="1:6" ht="16">
+      <c r="B25" s="42" t="s">
         <v>473</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="15" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="C26" s="45" t="s">
+    <row r="26" spans="1:6" ht="16">
+      <c r="C26" s="15" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="C27" s="45" t="s">
+    <row r="27" spans="1:6" ht="16">
+      <c r="C27" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="D27" s="45" t="s">
+      <c r="D27" s="15" t="s">
         <v>564</v>
       </c>
-      <c r="F27" s="45" t="s">
+      <c r="F27" s="15" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="C28" s="45" t="s">
+    <row r="28" spans="1:6" ht="16">
+      <c r="C28" s="15" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="C29" s="45" t="s">
+    <row r="29" spans="1:6" ht="16">
+      <c r="C29" s="15" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="C30" s="45" t="s">
+    <row r="30" spans="1:6" ht="16">
+      <c r="C30" s="15" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="C31" s="45" t="s">
+    <row r="31" spans="1:6" ht="16">
+      <c r="C31" s="15" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="B32" s="47" t="s">
+    <row r="32" spans="1:6" ht="16">
+      <c r="B32" s="42" t="s">
         <v>474</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="15" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="C33" s="45" t="s">
+    <row r="33" spans="2:4" ht="16">
+      <c r="C33" s="15" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="C34" s="45" t="s">
+    <row r="34" spans="2:4" ht="16">
+      <c r="C34" s="15" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="C35" s="45" t="s">
+    <row r="35" spans="2:4" ht="16">
+      <c r="C35" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="C36" s="45" t="s">
+    <row r="36" spans="2:4" ht="16">
+      <c r="C36" s="15" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="B37" s="47" t="s">
+    <row r="37" spans="2:4" ht="16">
+      <c r="B37" s="42" t="s">
         <v>475</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="D37" s="45" t="s">
+      <c r="D37" s="15" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="C38" s="45" t="s">
+    <row r="38" spans="2:4" ht="16">
+      <c r="C38" s="15" t="s">
         <v>502</v>
       </c>
-      <c r="D38" s="45" t="s">
+      <c r="D38" s="15" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="C39" s="45" t="s">
+    <row r="39" spans="2:4" ht="16">
+      <c r="C39" s="15" t="s">
         <v>501</v>
       </c>
-      <c r="D39" s="45" t="s">
+      <c r="D39" s="15" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="C40" s="45" t="s">
+    <row r="40" spans="2:4" ht="16">
+      <c r="C40" s="15" t="s">
         <v>528</v>
       </c>
-      <c r="D40" s="45" t="s">
+      <c r="D40" s="15" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="C41" s="45" t="s">
+    <row r="41" spans="2:4" ht="16">
+      <c r="C41" s="15" t="s">
         <v>529</v>
       </c>
-      <c r="D41" s="45" t="s">
+      <c r="D41" s="15" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="81" customFormat="1">
-      <c r="A42" s="47"/>
-      <c r="C42" s="81" t="s">
+    <row r="42" spans="2:4" ht="16">
+      <c r="B42" s="15"/>
+      <c r="C42" s="15" t="s">
         <v>1483</v>
       </c>
-      <c r="D42" s="81" t="s">
+      <c r="D42" s="15" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="B43" s="47" t="s">
+    <row r="43" spans="2:4" ht="16">
+      <c r="B43" s="42" t="s">
         <v>560</v>
       </c>
-      <c r="C43" s="45" t="s">
+      <c r="C43" s="15" t="s">
         <v>480</v>
       </c>
-      <c r="D43" s="45" t="s">
+      <c r="D43" s="15" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="C44" s="45" t="s">
+    <row r="44" spans="2:4" ht="16">
+      <c r="C44" s="15" t="s">
         <v>561</v>
       </c>
-      <c r="D44" s="45" t="s">
+      <c r="D44" s="15" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="C45" s="45" t="s">
+    <row r="45" spans="2:4" ht="16">
+      <c r="C45" s="15" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="C46" s="45" t="s">
+    <row r="46" spans="2:4" ht="16">
+      <c r="C46" s="15" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="B47" s="47" t="s">
+    <row r="47" spans="2:4" ht="16">
+      <c r="B47" s="42" t="s">
         <v>476</v>
       </c>
-      <c r="C47" s="45" t="s">
+      <c r="C47" s="15" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="B48" s="47" t="s">
+    <row r="48" spans="2:4" ht="16">
+      <c r="B48" s="42" t="s">
         <v>477</v>
       </c>
-      <c r="C48" s="45" t="s">
+      <c r="C48" s="15" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="255">
-      <c r="A49" s="47" t="s">
+    <row r="49" spans="1:7" ht="256">
+      <c r="A49" s="42" t="s">
         <v>458</v>
       </c>
-      <c r="E49" s="45" t="s">
+      <c r="E49" s="15" t="s">
         <v>582</v>
       </c>
-      <c r="F49" s="45" t="s">
+      <c r="F49" s="15" t="s">
         <v>463</v>
       </c>
-      <c r="G49" s="48" t="s">
+      <c r="G49" s="43" t="s">
         <v>465</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G49" r:id="rId1"/>
+    <hyperlink ref="G49" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -13553,168 +13412,173 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="15" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" style="15" customWidth="1"/>
     <col min="2" max="2" width="28" style="15" customWidth="1"/>
     <col min="3" max="3" width="31" style="15" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" style="15" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="15"/>
+    <col min="4" max="4" width="38.1640625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="39.83203125" style="15" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="32"/>
-      <c r="B1" s="41" t="s">
+    <row r="1" spans="1:5" ht="16">
+      <c r="A1" s="30"/>
+      <c r="B1" s="38" t="s">
         <v>410</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="38" t="s">
         <v>411</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="38" t="s">
         <v>412</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="39" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="84" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="33" t="s">
         <v>413</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="34" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="45" customFormat="1" ht="84" customHeight="1">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:5" ht="84" customHeight="1">
+      <c r="A3" s="33" t="s">
         <v>992</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="15" t="s">
         <v>993</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="15" t="s">
         <v>994</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="15" t="s">
         <v>995</v>
       </c>
-      <c r="E3" s="37"/>
-    </row>
-    <row r="4" spans="1:5" ht="135">
-      <c r="A4" s="35" t="s">
+      <c r="E3" s="34"/>
+    </row>
+    <row r="4" spans="1:5" ht="112">
+      <c r="A4" s="33" t="s">
         <v>417</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="15" t="s">
         <v>418</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="15" t="s">
         <v>419</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="34" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:5" ht="16">
+      <c r="A5" s="33"/>
+      <c r="B5" s="15" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E5" s="34"/>
+    </row>
+    <row r="6" spans="1:5" ht="16">
+      <c r="A6" s="35" t="s">
         <v>424</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B6" s="36" t="s">
         <v>425</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36" t="s">
         <v>426</v>
       </c>
-      <c r="E5" s="40"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33" t="s">
+      <c r="E6" s="37"/>
+    </row>
+    <row r="9" spans="1:5" ht="16">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31" t="s">
         <v>412</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C9" s="31" t="s">
         <v>427</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D9" s="32" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="35" t="s">
+    <row r="10" spans="1:5" ht="16">
+      <c r="A10" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B10" s="15" t="s">
         <v>432</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C10" s="15" t="s">
         <v>430</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D10" s="34" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-    </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
+      <c r="A11" s="33"/>
+      <c r="D11" s="34"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="33"/>
+      <c r="D12" s="34"/>
+    </row>
+    <row r="13" spans="1:5" ht="16">
+      <c r="A13" s="33" t="s">
         <v>431</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36" t="s">
+      <c r="C13" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D13" s="34" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39" t="s">
+    <row r="14" spans="1:5" ht="16">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36" t="s">
         <v>434</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D14" s="37" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="105">
-      <c r="A16" s="15" t="s">
+    <row r="17" spans="1:3" ht="96">
+      <c r="A17" s="15" t="s">
         <v>1621</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B17" s="15" t="s">
         <v>1619</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C17" s="15" t="s">
         <v>1620</v>
       </c>
     </row>
@@ -13725,20 +13589,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="40.42578125" customWidth="1"/>
-    <col min="6" max="6" width="115.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+    <col min="5" max="5" width="40.5" customWidth="1"/>
+    <col min="6" max="6" width="115.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -13967,28 +13831,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
-    <col min="3" max="4" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" customWidth="1"/>
+    <col min="3" max="4" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:3" ht="16">
+      <c r="A1" s="62" t="s">
         <v>898</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="62" t="s">
         <v>900</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="62" t="s">
         <v>901</v>
       </c>
     </row>
@@ -14012,7 +13876,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="49" t="s">
         <v>905</v>
       </c>
       <c r="B4" t="s">
@@ -14020,7 +13884,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="49" t="s">
         <v>906</v>
       </c>
       <c r="B5" t="s">
@@ -14028,7 +13892,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="49" t="s">
         <v>907</v>
       </c>
       <c r="B6" t="s">
@@ -14036,7 +13900,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="49" t="s">
         <v>908</v>
       </c>
       <c r="B7" t="s">
@@ -14050,17 +13914,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="48.42578125" customWidth="1"/>
-    <col min="3" max="3" width="60.140625" customWidth="1"/>
+    <col min="1" max="2" width="48.5" customWidth="1"/>
+    <col min="3" max="3" width="60.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -14105,7 +13969,7 @@
       <c r="A8" t="s">
         <v>1205</v>
       </c>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="81" t="s">
         <v>311</v>
       </c>
     </row>
@@ -14113,13 +13977,13 @@
       <c r="A9" t="s">
         <v>1206</v>
       </c>
-      <c r="B9" s="91"/>
+      <c r="B9" s="81"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>308</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="81" t="s">
         <v>310</v>
       </c>
     </row>
@@ -14127,7 +13991,7 @@
       <c r="A12" t="s">
         <v>309</v>
       </c>
-      <c r="B12" s="91"/>
+      <c r="B12" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -14139,18 +14003,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14187,23 +14051,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="71" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="30.1640625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.5" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="64" t="s">
         <v>378</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -14240,12 +14104,12 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="64" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="64" t="s">
         <v>388</v>
       </c>
     </row>
@@ -14255,7 +14119,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="64" t="s">
         <v>390</v>
       </c>
     </row>
@@ -14265,7 +14129,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="64" t="s">
         <v>391</v>
       </c>
     </row>
@@ -14275,7 +14139,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="64" t="s">
         <v>392</v>
       </c>
     </row>
@@ -14285,7 +14149,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="64" t="s">
         <v>393</v>
       </c>
     </row>
@@ -14295,7 +14159,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="64" t="s">
         <v>394</v>
       </c>
     </row>
@@ -14305,7 +14169,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="64" t="s">
         <v>399</v>
       </c>
     </row>
@@ -14315,57 +14179,57 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="64" t="s">
         <v>917</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="64" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="63" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="63" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="63" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="63" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="63" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="B30" s="70" t="s">
+      <c r="B30" s="63" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="64" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="B33" s="70" t="s">
+      <c r="B33" s="63" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="71" t="s">
+      <c r="A36" s="64" t="s">
         <v>1142</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -14413,35 +14277,35 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="19.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="23.83203125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="2" customWidth="1"/>
+    <col min="3" max="4" width="19.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="84" t="s">
         <v>291</v>
       </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94" t="s">
+      <c r="C1" s="84"/>
+      <c r="D1" s="84" t="s">
         <v>293</v>
       </c>
-      <c r="E1" s="94"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="46" t="s">
+      <c r="E1" s="84"/>
+    </row>
+    <row r="2" spans="1:6" ht="16">
+      <c r="A2" s="41" t="s">
         <v>364</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -14480,7 +14344,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="41" t="s">
         <v>365</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -14492,7 +14356,7 @@
       <c r="E6" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="F6" s="93" t="s">
+      <c r="F6" s="83" t="s">
         <v>723</v>
       </c>
     </row>
@@ -14506,7 +14370,7 @@
       <c r="E7" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="F7" s="93"/>
+      <c r="F7" s="83"/>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="2" t="s">
@@ -14515,9 +14379,9 @@
       <c r="E8" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="F8" s="93"/>
-    </row>
-    <row r="9" spans="1:6" ht="30">
+      <c r="F8" s="83"/>
+    </row>
+    <row r="9" spans="1:6" ht="16">
       <c r="B9" s="6" t="s">
         <v>407</v>
       </c>
@@ -14527,9 +14391,9 @@
       <c r="E9" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="F9" s="93"/>
-    </row>
-    <row r="10" spans="1:6" ht="30">
+      <c r="F9" s="83"/>
+    </row>
+    <row r="10" spans="1:6" ht="16">
       <c r="B10" s="6" t="s">
         <v>408</v>
       </c>
@@ -14539,7 +14403,7 @@
       <c r="E10" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="F10" s="93"/>
+      <c r="F10" s="83"/>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="2" t="s">
@@ -14548,7 +14412,7 @@
       <c r="E11" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="F11" s="93"/>
+      <c r="F11" s="83"/>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="2" t="s">
@@ -14557,34 +14421,34 @@
       <c r="E12" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="F12" s="93"/>
+      <c r="F12" s="83"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="10" t="s">
         <v>915</v>
       </c>
-      <c r="F13" s="45"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="D14" s="92" t="s">
+      <c r="D14" s="82" t="s">
         <v>1001</v>
       </c>
-      <c r="E14" s="92"/>
-      <c r="F14" s="45"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:6">
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="40.5" customHeight="1">
-      <c r="B16" s="95" t="s">
+      <c r="B16" s="85" t="s">
         <v>409</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="46" t="s">
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+    </row>
+    <row r="18" spans="1:5" ht="16">
+      <c r="A18" s="41" t="s">
         <v>440</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -14597,19 +14461,19 @@
         <v>442</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="46" t="s">
+    <row r="21" spans="1:5" ht="16">
+      <c r="A21" s="41" t="s">
         <v>443</v>
       </c>
-      <c r="B21" s="92" t="s">
+      <c r="B21" s="82" t="s">
         <v>444</v>
       </c>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-    </row>
-    <row r="24" spans="1:5" ht="60">
-      <c r="A24" s="46" t="s">
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+    </row>
+    <row r="24" spans="1:5" ht="64">
+      <c r="A24" s="41" t="s">
         <v>448</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -14619,8 +14483,8 @@
         <v>449</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="46" t="s">
+    <row r="26" spans="1:5" ht="16">
+      <c r="A26" s="41" t="s">
         <v>1326</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -14646,7 +14510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14656,25 +14520,25 @@
       <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="15.83203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="44" t="s">
+    <row r="1" spans="1:5" ht="16">
+      <c r="B1" s="40" t="s">
         <v>887</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="50" t="s">
         <v>470</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="40" t="s">
         <v>888</v>
       </c>
       <c r="E1" s="6" t="s">
@@ -14682,13 +14546,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="86" t="s">
         <v>732</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>728</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="50" t="s">
         <v>726</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -14699,11 +14563,11 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1">
-      <c r="A3" s="96"/>
+      <c r="A3" s="86"/>
       <c r="B3" s="6" t="s">
         <v>1318</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="50" t="s">
         <v>726</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -14714,11 +14578,11 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1">
-      <c r="A4" s="96"/>
+      <c r="A4" s="86"/>
       <c r="B4" s="6" t="s">
         <v>1319</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="50" t="s">
         <v>726</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -14729,11 +14593,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1">
-      <c r="A5" s="96"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="6" t="s">
         <v>730</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="50" t="s">
         <v>726</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -14744,11 +14608,11 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1">
-      <c r="A6" s="96"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="6" t="s">
         <v>731</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="50" t="s">
         <v>726</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -14759,13 +14623,13 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="C7" s="55"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="B8" s="97" t="s">
+      <c r="C7" s="50"/>
+    </row>
+    <row r="8" spans="1:5" ht="16">
+      <c r="B8" s="87" t="s">
         <v>751</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="50" t="s">
         <v>726</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -14775,9 +14639,9 @@
         <v>441</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="B9" s="97"/>
-      <c r="C9" s="55" t="s">
+    <row r="9" spans="1:5" ht="16">
+      <c r="B9" s="87"/>
+      <c r="C9" s="50" t="s">
         <v>726</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -14787,35 +14651,35 @@
         <v>296</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30">
+    <row r="11" spans="1:5" ht="32">
       <c r="B11" s="23" t="s">
         <v>914</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>891</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="28" t="s">
         <v>1334</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30">
-      <c r="B12" s="29" t="s">
+    <row r="12" spans="1:5" ht="32">
+      <c r="B12" s="27" t="s">
         <v>1333</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="28" t="s">
         <v>891</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="28" t="s">
         <v>1334</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="29" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30">
+    <row r="14" spans="1:5" ht="16">
       <c r="B14" s="6" t="s">
         <v>1228</v>
       </c>
@@ -14829,7 +14693,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="16">
       <c r="B15" s="6" t="s">
         <v>1385</v>
       </c>
@@ -14837,7 +14701,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30">
+    <row r="17" spans="1:5" ht="16">
       <c r="B17" s="6" t="s">
         <v>1386</v>
       </c>
@@ -14851,7 +14715,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30">
+    <row r="18" spans="1:5" ht="16">
       <c r="B18" s="6" t="s">
         <v>1388</v>
       </c>
@@ -14859,7 +14723,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30">
+    <row r="19" spans="1:5" ht="32">
       <c r="B19" s="6" t="s">
         <v>1392</v>
       </c>
@@ -14867,7 +14731,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30">
+    <row r="20" spans="1:5" ht="32">
       <c r="B20" s="6" t="s">
         <v>1394</v>
       </c>
@@ -14881,7 +14745,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="16">
       <c r="B21" s="6" t="s">
         <v>1476</v>
       </c>
@@ -14895,7 +14759,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30">
+    <row r="22" spans="1:5" ht="16">
       <c r="B22" s="6" t="s">
         <v>1477</v>
       </c>
@@ -14903,7 +14767,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="16">
       <c r="A24" s="6" t="s">
         <v>886</v>
       </c>
@@ -14920,7 +14784,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="16">
       <c r="D25" s="6" t="s">
         <v>296</v>
       </c>
@@ -14928,7 +14792,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="16">
       <c r="A27" s="6" t="s">
         <v>364</v>
       </c>
@@ -14942,7 +14806,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30">
+    <row r="28" spans="1:5" ht="16">
       <c r="C28" s="6" t="s">
         <v>891</v>
       </c>
@@ -14953,7 +14817,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="45">
+    <row r="29" spans="1:5" ht="48">
       <c r="C29" s="6" t="s">
         <v>891</v>
       </c>
@@ -14964,7 +14828,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30">
+    <row r="30" spans="1:5" ht="32">
       <c r="D30" s="6" t="s">
         <v>897</v>
       </c>
@@ -14972,7 +14836,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" ht="16">
       <c r="A31" s="6" t="s">
         <v>1396</v>
       </c>
@@ -14980,7 +14844,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="30">
+    <row r="38" spans="1:4" ht="32">
       <c r="A38" s="6" t="s">
         <v>1325</v>
       </c>
@@ -15005,23 +14869,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" style="10" customWidth="1"/>
     <col min="2" max="2" width="29" style="10" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="10"/>
+    <col min="3" max="3" width="27.83203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="10" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30">
+    <row r="1" spans="1:5" ht="32">
       <c r="A1" s="10" t="s">
         <v>76</v>
       </c>
@@ -15200,7 +15064,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" ht="16">
       <c r="A24" s="10" t="s">
         <v>34</v>
       </c>
@@ -15217,7 +15081,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="86" t="s">
+      <c r="A27" s="77" t="s">
         <v>1328</v>
       </c>
       <c r="B27" s="10" t="s">
@@ -15228,7 +15092,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="86" t="s">
+      <c r="A28" s="77" t="s">
         <v>1329</v>
       </c>
       <c r="C28" s="10" t="s">
